--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -37,7 +37,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://qa.xealei.com/</t>
+    <t>https://gha.qa.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -64,7 +64,7 @@
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://qa.xealei.com/login</t>
+    <t>https://gha.qa.xealei.com/login</t>
   </si>
   <si>
     <t>Names</t>
@@ -310,7 +310,7 @@
     <t>06/27/1980</t>
   </si>
   <si>
-    <t>Suite-13:15:10</t>
+    <t>Suite-15:18:09</t>
   </si>
   <si>
     <t>SDE</t>
@@ -367,13 +367,13 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-21:01</t>
+    <t>Johnson S David-24:18</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
-    <t>Royal-13:18:04</t>
+    <t>Royal-15:21:02</t>
   </si>
   <si>
     <t>439 Falls Road</t>
@@ -390,7 +390,7 @@
     </r>
   </si>
   <si>
-    <t>9602332979</t>
+    <t>9342782327</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -466,7 +466,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Emily S Martin-23:55</t>
+    <t>Emily S Martin-27:12</t>
   </si>
   <si>
     <t>Male</t>
@@ -475,7 +475,7 @@
     <t>Royal-21:49:51</t>
   </si>
   <si>
-    <t>9259479193</t>
+    <t>9400670589</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -740,7 +740,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,11 +867,6 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1423,133 +1418,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,13 +1627,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1982,7 +1975,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1995,28 +1988,28 @@
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -2027,6 +2020,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://gha.qa.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2756,13 +2750,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="24.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2781,12 +2775,15 @@
       <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://gha.qa.xealei.com/login"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2798,7 +2795,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId11"/>
     <sheet name="AddVitals" sheetId="11" r:id="rId12"/>
     <sheet name="EditVitals" sheetId="13" r:id="rId13"/>
+    <sheet name="Incident Reports" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
   <si>
     <t>Environment Name</t>
   </si>
@@ -729,6 +730,72 @@
   <si>
     <t>ABCD</t>
   </si>
+  <si>
+    <t>Individual's Details</t>
+  </si>
+  <si>
+    <t>Event Date &amp; Time</t>
+  </si>
+  <si>
+    <t>What caused the fall?</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>Was Individual injured?</t>
+  </si>
+  <si>
+    <t>Injury Site - Front View</t>
+  </si>
+  <si>
+    <t>Injury Site - Back View</t>
+  </si>
+  <si>
+    <t>Treatment Received</t>
+  </si>
+  <si>
+    <t>Future Treatment</t>
+  </si>
+  <si>
+    <t>Injury Type</t>
+  </si>
+  <si>
+    <t>Injury Color</t>
+  </si>
+  <si>
+    <t>How severe was the injury?</t>
+  </si>
+  <si>
+    <t>Person Notified</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Notification Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notified By</t>
+  </si>
+  <si>
+    <t>Notification Method</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Fore Head , Face , Right Shoulder , Left Shoulder , Right Arm , Left Arm ,  Chest , Abdomen , Right Wrist , Left Wrist , Right Knee , Left Knee , Right Foot , Left Foot</t>
+  </si>
+  <si>
+    <t>Head , Face , Left Shoulder , Right Shoulder , Left Arm , Right Arm ,  Back , Hip , Left Wrist , Right Wrist , Left Knee , Right Knee , Left Foot , Right Foot</t>
+  </si>
+  <si>
+    <t>Abrasion , Bleeding , Bruise , Scratch</t>
+  </si>
 </sst>
 </file>
 
@@ -740,13 +807,34 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00151D"/>
+      <name val="Comic Sans MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -778,13 +866,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF6A3E3E"/>
-      <name val="Comic Sans MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Comic Sans MS"/>
       <charset val="134"/>
     </font>
@@ -1418,195 +1499,201 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1614,43 +1701,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1985,34 +2072,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2040,7 +2127,7 @@
   <cols>
     <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
     <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
     <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
@@ -2051,201 +2138,201 @@
     <col min="28" max="16383" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="52" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="5:21">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="20"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="20"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="20"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2266,7 +2353,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="24">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2331,130 +2418,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="20"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="20"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="20"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="20"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="20"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="20"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="20"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="20"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="20"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="20"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="20"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="20"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="20"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="20"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="20"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="20"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="20"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="20"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="20"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="20"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="20"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="20"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="20"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="20"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="20"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="20"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="20"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="20"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="20"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="20"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="20"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="20"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="20"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="20"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="20"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="20"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="20"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="20"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="20"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="20"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="20"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="20"/>
+      <c r="G50" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2478,10 +2565,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2496,7 +2583,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2513,55 +2600,55 @@
     <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="58" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2592,18 +2679,18 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2635,66 +2722,66 @@
     <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="9:9">
-      <c r="I3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -2723,22 +2810,140 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="13" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="2" width="20.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
+    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
+    <col min="12" max="16384" width="20.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" ht="87" spans="1:18">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2761,24 +2966,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2806,57 +3011,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2881,75 +3086,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.7272727272727" style="26" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="26" customWidth="1"/>
+    <col min="1" max="1" width="12.6363636363636" style="30" customWidth="1"/>
+    <col min="2" max="2" width="28.7272727272727" style="30" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="30" customWidth="1"/>
     <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="37" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26">
+      <c r="A6" s="30">
         <v>0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>4</v>
       </c>
       <c r="F6">
@@ -2978,62 +3183,62 @@
   <cols>
     <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="26" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="30" customWidth="1"/>
     <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
     <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="26"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="30"/>
+      <c r="F3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -3042,13 +3247,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3079,7 +3284,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3105,10 +3310,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3131,7 +3336,7 @@
   <cols>
     <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
     <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
     <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
@@ -3142,201 +3347,201 @@
     <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="52" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="5:21">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="20"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="20"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="20"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3357,7 +3562,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="24">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3422,130 +3627,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="20"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="20"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="20"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="20"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="20"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="20"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="20"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="20"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="20"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="20"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="20"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="20"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="20"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="20"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="20"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="20"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="20"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="20"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="20"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="20"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="20"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="20"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="20"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="20"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="20"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="20"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="20"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="20"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="20"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="20"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="20"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="20"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="20"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="20"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="20"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="20"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="20"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="20"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="20"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="20"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="20"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="20"/>
+      <c r="G50" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3570,13 +3775,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="19635" windowHeight="7200" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -801,11 +801,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1487,16 +1488,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1629,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1639,6 +1640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1661,7 +1665,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1730,7 +1734,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -2065,41 +2069,41 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="29.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="17.3619047619048" customWidth="1"/>
+    <col min="2" max="2" width="29.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2123,38 +2127,38 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
-    <col min="28" max="16383" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
+    <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.6380952380952" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
+    <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
+    <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
+    <col min="24" max="24" width="19.7238095238095" customWidth="1"/>
+    <col min="25" max="25" width="21.6380952380952" customWidth="1"/>
+    <col min="26" max="26" width="18.9047619047619" customWidth="1"/>
+    <col min="27" max="27" width="20.5428571428571" customWidth="1"/>
+    <col min="28" max="16383" width="10.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="17" customFormat="1" ht="18" spans="1:27">
+      <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2169,22 +2173,22 @@
       <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2205,30 +2209,30 @@
       <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" ht="17.5" spans="1:27">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="17.25" spans="1:27">
+      <c r="A2" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2237,13 +2241,13 @@
       <c r="E2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2252,13 +2256,13 @@
       <c r="J2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>118</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2273,29 +2277,29 @@
       <c r="Q2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="29" t="s">
         <v>124</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="56" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="57" t="s">
         <v>100</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -2306,13 +2310,13 @@
       <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="28" t="s">
         <v>87</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -2323,16 +2327,16 @@
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2353,7 +2357,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2418,130 +2422,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="24"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="24"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="24"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="24"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="24"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="24"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="24"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="24"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="24"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="24"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="24"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="24"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="24"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="24"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="24"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="24"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="24"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="24"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="24"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="24"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="24"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="24"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="24"/>
+      <c r="G50" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2558,17 +2562,17 @@
       <selection activeCell="B16" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="23.6380952380952" customWidth="1"/>
+    <col min="2" max="2" width="29.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2587,68 +2591,68 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="13.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="23.2761904761905" customWidth="1"/>
+    <col min="3" max="3" width="21.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="19.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="12.0952380952381" customWidth="1"/>
+    <col min="7" max="7" width="12.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="46.0952380952381" customWidth="1"/>
+    <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:8">
+      <c r="A1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="56" t="s">
+    <row r="2" ht="15.75" spans="1:8">
+      <c r="A2" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2678,19 +2682,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="12" t="s">
+    <row r="6" ht="17.25" spans="7:8">
+      <c r="G6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="12" t="s">
+    <row r="7" ht="17.25" spans="7:8">
+      <c r="G7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2709,71 +2713,71 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="13.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="23.2761904761905" customWidth="1"/>
+    <col min="3" max="3" width="21.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="19.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="12.0952380952381" customWidth="1"/>
+    <col min="7" max="7" width="12.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="46.0952380952381" customWidth="1"/>
+    <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:9">
+      <c r="A1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:9">
+    <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="60" t="s">
         <v>161</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2809,19 +2813,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="12" t="s">
+    <row r="6" ht="17.25" spans="7:8">
+      <c r="G6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="12" t="s">
+    <row r="7" ht="17.25" spans="7:8">
+      <c r="G7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2836,25 +2840,25 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="20.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
-    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
-    <col min="12" max="16384" width="20.0909090909091" customWidth="1"/>
+    <col min="1" max="2" width="20.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="24.2761904761905" customWidth="1"/>
+    <col min="4" max="4" width="20.0952380952381" customWidth="1"/>
+    <col min="5" max="5" width="24.2761904761905" customWidth="1"/>
+    <col min="6" max="6" width="25.5428571428571" customWidth="1"/>
+    <col min="7" max="7" width="25.2761904761905" customWidth="1"/>
+    <col min="8" max="9" width="20.0952380952381" customWidth="1"/>
+    <col min="10" max="10" width="30.6380952380952" customWidth="1"/>
+    <col min="11" max="11" width="18.5428571428571" customWidth="1"/>
+    <col min="12" max="16384" width="20.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" ht="87" spans="1:18">
+    <row r="2" ht="90" spans="1:18">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2926,7 +2930,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>184</v>
       </c>
       <c r="K2" s="5"/>
@@ -2939,9 +2943,21 @@
       <c r="R2" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"Red,Green,Black,Brown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"Light,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
+      <formula1>"Guardian,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>"Phone Call,Email,Text Message"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2958,29 +2974,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="31.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="27.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="14.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
@@ -3003,7 +3019,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -3011,57 +3027,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3084,56 +3100,56 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="30" customWidth="1"/>
-    <col min="2" max="2" width="28.7272727272727" style="30" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="30" customWidth="1"/>
-    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
-    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="12.6380952380952" style="31" customWidth="1"/>
+    <col min="2" max="2" width="28.7238095238095" style="31" customWidth="1"/>
+    <col min="3" max="5" width="12.6380952380952" style="31" customWidth="1"/>
+    <col min="6" max="6" width="20.2761904761905" customWidth="1"/>
+    <col min="7" max="7" width="16.8190476190476" customWidth="1"/>
+    <col min="8" max="16381" width="12.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="38" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="40" t="s">
+    <row r="2" ht="15.75" spans="1:7">
+      <c r="A2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="5"/>
@@ -3142,19 +3158,19 @@
       <c r="G3" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>0</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>4</v>
       </c>
       <c r="F6">
@@ -3179,63 +3195,63 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.9047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="32.3619047619048" customWidth="1"/>
+    <col min="3" max="5" width="12.9047619047619" style="31" customWidth="1"/>
+    <col min="6" max="6" width="30.9047619047619" customWidth="1"/>
+    <col min="7" max="7" width="22.2761904761905" customWidth="1"/>
+    <col min="8" max="16379" width="12.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="34" t="s">
+    <row r="2" ht="15.75" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="B3" s="31"/>
+      <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="5"/>
@@ -3247,13 +3263,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="31">
         <v>3</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3278,13 +3294,13 @@
       <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3303,17 +3319,17 @@
       <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.0952380952381" customWidth="1"/>
+    <col min="2" max="2" width="22.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3329,41 +3345,41 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
-    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
+    <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.6380952380952" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
+    <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
+    <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
+    <col min="24" max="24" width="19.7238095238095" customWidth="1"/>
+    <col min="25" max="25" width="21.6380952380952" customWidth="1"/>
+    <col min="26" max="26" width="18.9047619047619" customWidth="1"/>
+    <col min="27" max="27" width="20.5428571428571" customWidth="1"/>
+    <col min="28" max="16384" width="10.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="17" customFormat="1" ht="18" spans="1:27">
+      <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3378,22 +3394,22 @@
       <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -3414,30 +3430,30 @@
       <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3446,13 +3462,13 @@
       <c r="E2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3461,13 +3477,13 @@
       <c r="J2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>88</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -3482,7 +3498,7 @@
       <c r="Q2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="21" t="s">
         <v>93</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -3491,20 +3507,20 @@
       <c r="T2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="56" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="57" t="s">
         <v>100</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -3515,13 +3531,13 @@
       <c r="E3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -3532,16 +3548,16 @@
       <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3562,7 +3578,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3627,130 +3643,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="24"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="24"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="24"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="24"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="24"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="24"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="24"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="24"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="24"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="24"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="24"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="24"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="24"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="24"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="24"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="24"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="24"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="24"/>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="24"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="24"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="24"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="24"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="24"/>
+      <c r="G50" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3767,21 +3783,21 @@
       <selection activeCell="C17" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="19.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="20.6380952380952" customWidth="1"/>
+    <col min="3" max="3" width="11.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="18350" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="196">
   <si>
     <t>Environment Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://gha.qa.xealei.com/</t>
+    <t>https://xat.qa.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -65,22 +65,55 @@
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://gha.qa.xealei.com/login</t>
+    <t>https://xat.qa.xealei.com/login</t>
   </si>
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Email / Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <t>FACILITY ADMIN</t>
+  </si>
+  <si>
     <t>mohamedra</t>
   </si>
   <si>
-    <t>xealei@23</t>
+    <t>auto@123</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>AStaff</t>
+  </si>
+  <si>
+    <t>CHIEF NURSE</t>
+  </si>
+  <si>
+    <t>AChief_Nu</t>
+  </si>
+  <si>
+    <t>RESIDENT MANAGER</t>
+  </si>
+  <si>
+    <t>AManager</t>
+  </si>
+  <si>
+    <t>CLINICAL COORDINATOR</t>
+  </si>
+  <si>
+    <t>AClinical</t>
+  </si>
+  <si>
+    <t>SOCIAL WORKER</t>
+  </si>
+  <si>
+    <t>ASWorker</t>
   </si>
   <si>
     <t>ALPHIND</t>
@@ -807,7 +840,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,13 +965,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1321,7 +1347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1368,19 +1394,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1499,133 +1512,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1704,16 +1717,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2062,7 +2075,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2107,7 +2120,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://gha.qa.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://xat.qa.xealei.com/" tooltip="https://xat.qa.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2119,7 +2132,7 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -2140,188 +2153,188 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="19" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>105</v>
-      </c>
       <c r="M2" s="26" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="U2" s="55" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="56" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="X2" s="56" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="56" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="56" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G4" s="24"/>
     </row>
@@ -2566,10 +2579,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2602,54 +2615,54 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:8">
       <c r="A1" s="8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="56" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2680,18 +2693,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2724,60 +2737,60 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -2811,18 +2824,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="12" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2836,8 +2849,8 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -2856,58 +2869,58 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" ht="87" spans="1:18">
@@ -2916,18 +2929,18 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -2955,7 +2968,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2987,7 +3000,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://gha.qa.xealei.com/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://xat.qa.xealei.com/login" tooltip="https://xat.qa.xealei.com/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2997,15 +3010,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="16382" width="18" customWidth="1"/>
   </cols>
@@ -3023,52 +3036,111 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="45" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>20</v>
+      <c r="C4" s="45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>20</v>
+      <c r="C5" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mohamedra" tooltip="mailto:fa@xealei.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="xealei@23"/>
+    <hyperlink ref="C3" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C4" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C5" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C6" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C7" r:id="rId1" display="auto@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3096,45 +3168,45 @@
   <sheetData>
     <row r="1" s="37" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="31" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="40" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -3191,52 +3263,52 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="31" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="34" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="30"/>
       <c r="F3" s="36" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -3285,7 +3357,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3311,10 +3383,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3349,188 +3421,188 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="19" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="U2" s="55" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="56" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="X2" s="56" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="56" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="56" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G4" s="24"/>
     </row>
@@ -3776,13 +3848,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="197">
   <si>
     <t>Environment Name</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>Notification Method</t>
+  </si>
+  <si>
+    <t>Created Injury Description</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1642,7 +1645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1652,6 +1655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2085,34 +2090,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2140,7 +2145,7 @@
   <cols>
     <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
     <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
     <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
@@ -2151,23 +2156,23 @@
     <col min="28" max="16383" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="18" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2182,22 +2187,22 @@
       <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2218,30 +2223,30 @@
       <c r="V1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2250,13 +2255,13 @@
       <c r="E2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>126</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2265,13 +2270,13 @@
       <c r="J2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>129</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2286,29 +2291,29 @@
       <c r="Q2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="30" t="s">
         <v>135</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="57" t="s">
         <v>107</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="58" t="s">
         <v>111</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -2319,13 +2324,13 @@
       <c r="E3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="29" t="s">
         <v>98</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -2336,16 +2341,16 @@
       <c r="E4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="24"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="24"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="24"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2366,7 +2371,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2431,130 +2436,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="24"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="24"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="24"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="24"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="24"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="24"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="24"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="24"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="24"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="24"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="24"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="24"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="24"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="24"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="24"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="24"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="24"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="24"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="24"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="24"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="24"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="24"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="24"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="24"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="24"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="24"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="24"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="24"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="24"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="24"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="24"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="24"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="24"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="24"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="24"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="24"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="24"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="24"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="24"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="24"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="24"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="24"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2578,10 +2583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2613,55 +2618,55 @@
     <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="60" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2692,18 +2697,18 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2735,32 +2740,32 @@
     <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2771,22 +2776,22 @@
       <c r="B2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="61" t="s">
         <v>172</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2823,18 +2828,18 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2847,10 +2852,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -2864,10 +2869,13 @@
     <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
     <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
     <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
-    <col min="12" max="16384" width="20.0909090909091" customWidth="1"/>
+    <col min="12" max="17" width="20.0909090909091" customWidth="1"/>
+    <col min="18" max="18" width="20.8181818181818" customWidth="1"/>
+    <col min="19" max="19" width="29.4545454545455" customWidth="1"/>
+    <col min="20" max="16384" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
@@ -2922,25 +2930,28 @@
       <c r="R1" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" ht="87" spans="1:18">
+      <c r="S1" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" ht="87" spans="1:19">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -2950,6 +2961,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
+      <c r="S2" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2979,21 +2991,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
@@ -3012,7 +3024,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3024,112 +3036,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3158,54 +3170,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="30" customWidth="1"/>
-    <col min="2" max="2" width="28.7272727272727" style="30" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12.6363636363636" style="32" customWidth="1"/>
+    <col min="2" max="2" width="28.7272727272727" style="32" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="32" customWidth="1"/>
     <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="39" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="44" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="5"/>
@@ -3214,19 +3226,19 @@
       <c r="G3" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30">
+      <c r="A6" s="32">
         <v>0</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="32">
         <v>3</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="32">
         <v>4</v>
       </c>
       <c r="F6">
@@ -3255,59 +3267,59 @@
   <cols>
     <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="30" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="32" customWidth="1"/>
     <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
     <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="30"/>
-      <c r="F3" s="36" t="s">
+      <c r="B3" s="32"/>
+      <c r="F3" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="5"/>
@@ -3319,13 +3331,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="32">
         <v>3</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="32">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3356,7 +3368,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3382,10 +3394,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3408,7 +3420,7 @@
   <cols>
     <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
     <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="16" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
     <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
     <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
@@ -3419,23 +3431,23 @@
     <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="18" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3450,22 +3462,22 @@
       <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="20" t="s">
         <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -3486,30 +3498,30 @@
       <c r="V1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3518,13 +3530,13 @@
       <c r="E2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>94</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3533,13 +3545,13 @@
       <c r="J2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>99</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -3554,7 +3566,7 @@
       <c r="Q2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="22" t="s">
         <v>104</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -3563,20 +3575,20 @@
       <c r="T2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="57" t="s">
         <v>107</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="58" t="s">
         <v>111</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -3587,13 +3599,13 @@
       <c r="E3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="27" t="s">
         <v>116</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -3604,16 +3616,16 @@
       <c r="E4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="24"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="24"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="24"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3634,7 +3646,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3699,130 +3711,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="24"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="24"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="24"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="24"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="24"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="24"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="24"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="24"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="24"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="24"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="24"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="24"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="24"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="24"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="24"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="24"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="24"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="24"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="24"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="24"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="24"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="24"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="24"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="24"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="24"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="24"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="24"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="24"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="24"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="24"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="24"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="24"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="24"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="24"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="24"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="24"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="24"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="24"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="24"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="24"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="24"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="24"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3847,13 +3859,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>120</v>
       </c>
     </row>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7200" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="195">
   <si>
     <t>Environment Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://gha.qa.xealei.com/</t>
+    <t>https://xat.qa.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -785,6 +785,18 @@
     <t>Notification Method</t>
   </si>
   <si>
+    <t>Created Inj.Description</t>
+  </si>
+  <si>
+    <t>Albert Nicholas</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -794,7 +806,25 @@
     <t>Head , Face , Left Shoulder , Right Shoulder , Left Arm , Right Arm ,  Back , Hip , Left Wrist , Right Wrist , Left Knee , Right Knee , Left Foot , Right Foot</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>Abrasion , Bleeding , Bruise , Scratch</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Phone Call</t>
   </si>
 </sst>
 </file>
@@ -1630,19 +1660,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2066,7 +2099,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2076,34 +2109,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2111,7 +2144,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://gha.qa.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://xat.qa.xealei.com/" tooltip="https://xat.qa.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2131,7 +2164,7 @@
   <cols>
     <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
     <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
-    <col min="7" max="7" width="27.6380952380952" style="17" customWidth="1"/>
+    <col min="7" max="7" width="27.6380952380952" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
     <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
     <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
@@ -2142,23 +2175,23 @@
     <col min="28" max="16383" width="10.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="18" spans="1:27">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="20" customFormat="1" ht="18" spans="1:27">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2173,22 +2206,22 @@
       <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2209,30 +2242,30 @@
       <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:27">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2241,13 +2274,13 @@
       <c r="E2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="27" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2256,13 +2289,13 @@
       <c r="J2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="30" t="s">
         <v>118</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2277,29 +2310,29 @@
       <c r="Q2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="32" t="s">
         <v>124</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="59" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="57" t="s">
+      <c r="W2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="Z2" s="60" t="s">
         <v>100</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -2310,13 +2343,13 @@
       <c r="E3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="31" t="s">
         <v>87</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -2327,16 +2360,16 @@
       <c r="E4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="25"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="25"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="25"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2357,7 +2390,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="28">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2422,130 +2455,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="25"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="25"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="25"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="25"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="25"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="25"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="25"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="25"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="25"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="25"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="25"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="25"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="25"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="25"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="25"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="25"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="25"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="25"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="25"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="25"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="25"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="25"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="25"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="25"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="25"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="25"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="25"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="25"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="25"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="25"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="25"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="25"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="25"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="25"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="25"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="25"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="25"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="25"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="25"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="25"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="25"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="25"/>
+      <c r="G50" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2569,10 +2602,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2604,55 +2637,55 @@
     <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:8">
+      <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2683,18 +2716,18 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="7:8">
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="7:8">
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2726,32 +2759,32 @@
     <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:9">
+      <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2762,22 +2795,22 @@
       <c r="B2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="63" t="s">
         <v>161</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2814,18 +2847,18 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="7:8">
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="7:8">
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2838,10 +2871,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2855,10 +2888,12 @@
     <col min="8" max="9" width="20.0952380952381" customWidth="1"/>
     <col min="10" max="10" width="30.6380952380952" customWidth="1"/>
     <col min="11" max="11" width="18.5428571428571" customWidth="1"/>
-    <col min="12" max="16384" width="20.0952380952381" customWidth="1"/>
+    <col min="12" max="18" width="20.0952380952381" customWidth="1"/>
+    <col min="19" max="19" width="26.4285714285714" customWidth="1"/>
+    <col min="20" max="16384" width="20.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
@@ -2913,34 +2948,66 @@
       <c r="R1" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" ht="90" spans="1:18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="S1" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44938</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="6">
+        <v>44938</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1134</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2982,21 +3049,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
@@ -3027,57 +3094,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3102,54 +3169,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6380952380952" style="31" customWidth="1"/>
-    <col min="2" max="2" width="28.7238095238095" style="31" customWidth="1"/>
-    <col min="3" max="5" width="12.6380952380952" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.6380952380952" style="34" customWidth="1"/>
+    <col min="2" max="2" width="28.7238095238095" style="34" customWidth="1"/>
+    <col min="3" max="5" width="12.6380952380952" style="34" customWidth="1"/>
     <col min="6" max="6" width="20.2761904761905" customWidth="1"/>
     <col min="7" max="7" width="16.8190476190476" customWidth="1"/>
     <col min="8" max="16381" width="12.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="46" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="5"/>
@@ -3158,19 +3225,19 @@
       <c r="G3" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31">
+      <c r="A6" s="34">
         <v>0</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
       <c r="F6">
@@ -3199,59 +3266,59 @@
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="32.3619047619048" customWidth="1"/>
-    <col min="3" max="5" width="12.9047619047619" style="31" customWidth="1"/>
+    <col min="3" max="5" width="12.9047619047619" style="34" customWidth="1"/>
     <col min="6" max="6" width="30.9047619047619" customWidth="1"/>
     <col min="7" max="7" width="22.2761904761905" customWidth="1"/>
     <col min="8" max="16379" width="12.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="38" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="34"/>
+      <c r="F3" s="40" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="5"/>
@@ -3263,13 +3330,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3300,7 +3367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3326,10 +3393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3352,7 +3419,7 @@
   <cols>
     <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
     <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
-    <col min="7" max="7" width="27.6380952380952" style="17" customWidth="1"/>
+    <col min="7" max="7" width="27.6380952380952" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
     <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
     <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
@@ -3363,23 +3430,23 @@
     <col min="28" max="16384" width="10.9047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="18" spans="1:27">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="20" customFormat="1" ht="18" spans="1:27">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3394,22 +3461,22 @@
       <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -3430,30 +3497,30 @@
       <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3462,13 +3529,13 @@
       <c r="E2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3477,13 +3544,13 @@
       <c r="J2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="30" t="s">
         <v>88</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -3498,7 +3565,7 @@
       <c r="Q2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="24" t="s">
         <v>93</v>
       </c>
       <c r="S2" s="5" t="s">
@@ -3507,20 +3574,20 @@
       <c r="T2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="59" t="s">
         <v>96</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="57" t="s">
+      <c r="W2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="Z2" s="60" t="s">
         <v>100</v>
       </c>
       <c r="AA2" s="5" t="s">
@@ -3531,13 +3598,13 @@
       <c r="E3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="29" t="s">
         <v>105</v>
       </c>
       <c r="U3" s="5" t="s">
@@ -3548,16 +3615,16 @@
       <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="25"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="25"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="25"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3578,7 +3645,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="28">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3643,130 +3710,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="25"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="25"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="25"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="25"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="25"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="25"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="25"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="25"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="25"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="25"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="25"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="25"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="25"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="25"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="25"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="25"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="25"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="25"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="25"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="25"/>
+      <c r="G28" s="28"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="25"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="25"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="25"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="25"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="25"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="25"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="25"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="25"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="25"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="25"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="25"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="25"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="25"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="25"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="25"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="25"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="25"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="25"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="25"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="25"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="25"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="25"/>
+      <c r="G50" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3791,13 +3858,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="194">
   <si>
     <t>Environment Name</t>
   </si>
@@ -822,9 +822,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>Phone Call</t>
   </si>
 </sst>
 </file>
@@ -2871,8 +2868,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3003,7 +3000,7 @@
         <v>193</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="S2" s="5"/>
     </row>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="225">
   <si>
     <t>Environment Name</t>
   </si>
@@ -788,6 +788,18 @@
     <t>Created Inj.Description</t>
   </si>
   <si>
+    <t>Created Report ID</t>
+  </si>
+  <si>
+    <t>Cheif Nurse reviewer approved comments</t>
+  </si>
+  <si>
+    <t>Residential Manager reviewer approved comments</t>
+  </si>
+  <si>
+    <t>Social Worker reviewer approved comments</t>
+  </si>
+  <si>
     <t>Arlia Thomas</t>
   </si>
   <si>
@@ -822,6 +834,87 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>test - -51:44</t>
+  </si>
+  <si>
+    <t>IR00029</t>
+  </si>
+  <si>
+    <t>cheif nurse approved.</t>
+  </si>
+  <si>
+    <t>Residential Manager approved.</t>
+  </si>
+  <si>
+    <t>Social Worker approved.</t>
+  </si>
+  <si>
+    <t>Cheif nurse rejected.</t>
+  </si>
+  <si>
+    <t>Residential Manager rejected.</t>
+  </si>
+  <si>
+    <t>Social Worker rejected.</t>
+  </si>
+  <si>
+    <t>test - -57:40</t>
+  </si>
+  <si>
+    <t>IR00032</t>
+  </si>
+  <si>
+    <t>test - -00:23</t>
+  </si>
+  <si>
+    <t>test - -01:57</t>
+  </si>
+  <si>
+    <t>IR00033</t>
+  </si>
+  <si>
+    <t>test - -16:21</t>
+  </si>
+  <si>
+    <t>IR00034</t>
+  </si>
+  <si>
+    <t>test - -17:55</t>
+  </si>
+  <si>
+    <t>IR00035</t>
+  </si>
+  <si>
+    <t>test - -20:08</t>
+  </si>
+  <si>
+    <t>IR00036</t>
+  </si>
+  <si>
+    <t>test - -22:23</t>
+  </si>
+  <si>
+    <t>IR00037</t>
+  </si>
+  <si>
+    <t>test - -26:48</t>
+  </si>
+  <si>
+    <t>IR00038</t>
+  </si>
+  <si>
+    <t>test - -28:04</t>
+  </si>
+  <si>
+    <t>IR00039</t>
+  </si>
+  <si>
+    <t>test - -44:32</t>
+  </si>
+  <si>
+    <t>IR00040</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2099,8 +2192,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.3619047619048" customWidth="1"/>
-    <col min="2" max="2" width="29.0952380952381" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.3619047619048"/>
+    <col min="2" max="2" customWidth="true" width="29.0952380952381"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2157,17 +2250,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
-    <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
-    <col min="7" max="7" width="27.6380952380952" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
-    <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
-    <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
-    <col min="24" max="24" width="19.7238095238095" customWidth="1"/>
-    <col min="25" max="25" width="21.6380952380952" customWidth="1"/>
-    <col min="26" max="26" width="18.9047619047619" customWidth="1"/>
-    <col min="27" max="27" width="20.5428571428571" customWidth="1"/>
-    <col min="28" max="16383" width="10.9047619047619" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.3619047619048"/>
+    <col min="6" max="6" customWidth="true" width="11.4571428571429"/>
+    <col min="7" max="7" customWidth="true" style="18" width="27.6380952380952"/>
+    <col min="8" max="8" customWidth="true" width="9.36190476190476"/>
+    <col min="9" max="22" customWidth="true" width="21.3619047619048"/>
+    <col min="23" max="23" customWidth="true" width="16.4571428571429"/>
+    <col min="24" max="24" customWidth="true" width="19.7238095238095"/>
+    <col min="25" max="25" customWidth="true" width="21.6380952380952"/>
+    <col min="26" max="26" customWidth="true" width="18.9047619047619"/>
+    <col min="27" max="27" customWidth="true" width="20.5428571428571"/>
+    <col min="28" max="16383" customWidth="true" width="10.9047619047619"/>
   </cols>
   <sheetData>
     <row r="1" s="18" customFormat="1" ht="18" spans="1:27">
@@ -2592,8 +2685,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.6380952380952" customWidth="1"/>
-    <col min="2" max="2" width="29.2761904761905" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.6380952380952"/>
+    <col min="2" max="2" customWidth="true" width="29.2761904761905"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2621,15 +2714,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="23.2761904761905" customWidth="1"/>
-    <col min="3" max="3" width="21.3619047619048" customWidth="1"/>
-    <col min="4" max="4" width="19.1809523809524" customWidth="1"/>
-    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.0952380952381" customWidth="1"/>
-    <col min="7" max="7" width="12.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="46.0952380952381" customWidth="1"/>
-    <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2761904761905"/>
+    <col min="2" max="2" customWidth="true" width="23.2761904761905"/>
+    <col min="3" max="3" customWidth="true" width="21.3619047619048"/>
+    <col min="4" max="4" customWidth="true" width="19.1809523809524"/>
+    <col min="5" max="5" customWidth="true" width="12.6380952380952"/>
+    <col min="6" max="6" customWidth="true" width="12.0952380952381"/>
+    <col min="7" max="7" customWidth="true" width="12.1809523809524"/>
+    <col min="8" max="8" customWidth="true" width="46.0952380952381"/>
+    <col min="9" max="16384" customWidth="true" width="19.1809523809524"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:8">
@@ -2743,15 +2836,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="23.2761904761905" customWidth="1"/>
-    <col min="3" max="3" width="21.3619047619048" customWidth="1"/>
-    <col min="4" max="4" width="19.1809523809524" customWidth="1"/>
-    <col min="5" max="5" width="12.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.0952380952381" customWidth="1"/>
-    <col min="7" max="7" width="12.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="46.0952380952381" customWidth="1"/>
-    <col min="9" max="16384" width="19.1809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2761904761905"/>
+    <col min="2" max="2" customWidth="true" width="23.2761904761905"/>
+    <col min="3" max="3" customWidth="true" width="21.3619047619048"/>
+    <col min="4" max="4" customWidth="true" width="19.1809523809524"/>
+    <col min="5" max="5" customWidth="true" width="12.6380952380952"/>
+    <col min="6" max="6" customWidth="true" width="12.0952380952381"/>
+    <col min="7" max="7" customWidth="true" width="12.1809523809524"/>
+    <col min="8" max="8" customWidth="true" width="46.0952380952381"/>
+    <col min="9" max="16384" customWidth="true" width="19.1809523809524"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" spans="1:9">
@@ -2866,29 +2959,36 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="20.0952380952381" customWidth="1"/>
-    <col min="3" max="3" width="24.2761904761905" customWidth="1"/>
-    <col min="4" max="4" width="20.0952380952381" customWidth="1"/>
-    <col min="5" max="5" width="24.2761904761905" customWidth="1"/>
-    <col min="6" max="6" width="25.5428571428571" customWidth="1"/>
-    <col min="7" max="7" width="25.2761904761905" customWidth="1"/>
-    <col min="8" max="9" width="20.0952380952381" customWidth="1"/>
-    <col min="10" max="10" width="30.6380952380952" customWidth="1"/>
-    <col min="11" max="11" width="18.5428571428571" customWidth="1"/>
-    <col min="12" max="18" width="20.0952380952381" customWidth="1"/>
-    <col min="19" max="19" width="26.4285714285714" customWidth="1"/>
-    <col min="20" max="16384" width="20.0952380952381" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="20.0952380952381"/>
+    <col min="3" max="3" customWidth="true" width="24.2761904761905"/>
+    <col min="4" max="4" customWidth="true" width="20.0952380952381"/>
+    <col min="5" max="5" customWidth="true" width="24.2761904761905"/>
+    <col min="6" max="6" customWidth="true" width="25.5428571428571"/>
+    <col min="7" max="7" customWidth="true" width="25.2761904761905"/>
+    <col min="8" max="9" customWidth="true" width="20.0952380952381"/>
+    <col min="10" max="10" customWidth="true" width="30.6380952380952"/>
+    <col min="11" max="11" customWidth="true" width="18.5428571428571"/>
+    <col min="12" max="18" customWidth="true" width="20.0952380952381"/>
+    <col min="19" max="19" customWidth="true" width="26.4285714285714"/>
+    <col min="20" max="20" customWidth="true" width="22.1428571428571"/>
+    <col min="21" max="21" customWidth="true" width="47.1428571428571"/>
+    <col min="22" max="22" customWidth="true" width="54.7142857142857"/>
+    <col min="23" max="23" customWidth="true" width="47.1428571428571"/>
+    <col min="24" max="24" customWidth="true" width="44.8571428571429"/>
+    <col min="25" max="25" customWidth="true" width="55.0"/>
+    <col min="26" max="26" customWidth="true" width="46.7142857142857"/>
+    <col min="27" max="16384" customWidth="true" width="20.0952380952381"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
@@ -2946,46 +3046,67 @@
       <c r="S1" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" ht="90" spans="1:19">
+      <c r="T1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:26">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6">
         <v>44938</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>95</v>
@@ -2997,12 +3118,35 @@
         <v>1134</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3038,9 +3182,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="27.3619047619048" customWidth="1"/>
-    <col min="3" max="3" width="14.2761904761905" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.2761904761905"/>
+    <col min="2" max="2" customWidth="true" width="27.3619047619048"/>
+    <col min="3" max="3" customWidth="true" width="14.2761904761905"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3083,9 +3227,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="16382" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="34.0"/>
+    <col min="3" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3164,12 +3308,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.6380952380952" style="32" customWidth="1"/>
-    <col min="2" max="2" width="28.7238095238095" style="32" customWidth="1"/>
-    <col min="3" max="5" width="12.6380952380952" style="32" customWidth="1"/>
-    <col min="6" max="6" width="20.2761904761905" customWidth="1"/>
-    <col min="7" max="7" width="16.8190476190476" customWidth="1"/>
-    <col min="8" max="16381" width="12.6380952380952" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="32" width="12.6380952380952"/>
+    <col min="2" max="2" customWidth="true" style="32" width="28.7238095238095"/>
+    <col min="3" max="5" customWidth="true" style="32" width="12.6380952380952"/>
+    <col min="6" max="6" customWidth="true" width="20.2761904761905"/>
+    <col min="7" max="7" customWidth="true" width="16.8190476190476"/>
+    <col min="8" max="16381" customWidth="true" width="12.6380952380952"/>
   </cols>
   <sheetData>
     <row r="1" s="39" customFormat="1" ht="19.5" spans="1:7">
@@ -3259,12 +3403,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
-    <col min="2" max="2" width="32.3619047619048" customWidth="1"/>
-    <col min="3" max="5" width="12.9047619047619" style="32" customWidth="1"/>
-    <col min="6" max="6" width="30.9047619047619" customWidth="1"/>
-    <col min="7" max="7" width="22.2761904761905" customWidth="1"/>
-    <col min="8" max="16379" width="12.9047619047619" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7238095238095"/>
+    <col min="2" max="2" customWidth="true" width="32.3619047619048"/>
+    <col min="3" max="5" customWidth="true" style="32" width="12.9047619047619"/>
+    <col min="6" max="6" customWidth="true" width="30.9047619047619"/>
+    <col min="7" max="7" customWidth="true" width="22.2761904761905"/>
+    <col min="8" max="16379" customWidth="true" width="12.9047619047619"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
@@ -3358,7 +3502,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.9047619047619" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.9047619047619"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3383,8 +3527,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.0952380952381" customWidth="1"/>
-    <col min="2" max="2" width="22.4571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0952380952381"/>
+    <col min="2" max="2" customWidth="true" width="22.4571428571429"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3412,17 +3556,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="21.3619047619048" customWidth="1"/>
-    <col min="6" max="6" width="11.4571428571429" customWidth="1"/>
-    <col min="7" max="7" width="27.6380952380952" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.36190476190476" customWidth="1"/>
-    <col min="9" max="22" width="21.3619047619048" customWidth="1"/>
-    <col min="23" max="23" width="16.4571428571429" customWidth="1"/>
-    <col min="24" max="24" width="19.7238095238095" customWidth="1"/>
-    <col min="25" max="25" width="21.6380952380952" customWidth="1"/>
-    <col min="26" max="26" width="18.9047619047619" customWidth="1"/>
-    <col min="27" max="27" width="20.5428571428571" customWidth="1"/>
-    <col min="28" max="16384" width="10.9047619047619" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.3619047619048"/>
+    <col min="6" max="6" customWidth="true" width="11.4571428571429"/>
+    <col min="7" max="7" customWidth="true" style="18" width="27.6380952380952"/>
+    <col min="8" max="8" customWidth="true" width="9.36190476190476"/>
+    <col min="9" max="22" customWidth="true" width="21.3619047619048"/>
+    <col min="23" max="23" customWidth="true" width="16.4571428571429"/>
+    <col min="24" max="24" customWidth="true" width="19.7238095238095"/>
+    <col min="25" max="25" customWidth="true" width="21.6380952380952"/>
+    <col min="26" max="26" customWidth="true" width="18.9047619047619"/>
+    <col min="27" max="27" customWidth="true" width="20.5428571428571"/>
+    <col min="28" max="16384" customWidth="true" width="10.9047619047619"/>
   </cols>
   <sheetData>
     <row r="1" s="18" customFormat="1" ht="18" spans="1:27">
@@ -3847,9 +3991,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="20.6380952380952" customWidth="1"/>
-    <col min="3" max="3" width="11.1809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.2761904761905"/>
+    <col min="2" max="2" customWidth="true" width="20.6380952380952"/>
+    <col min="3" max="3" customWidth="true" width="11.1809523809524"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="249">
   <si>
     <t>Environment Name</t>
   </si>
@@ -915,6 +915,78 @@
   </si>
   <si>
     <t>IR00040</t>
+  </si>
+  <si>
+    <t>test - -55:34</t>
+  </si>
+  <si>
+    <t>IR00041</t>
+  </si>
+  <si>
+    <t>test - -58:04</t>
+  </si>
+  <si>
+    <t>IR00042</t>
+  </si>
+  <si>
+    <t>test - -03:17</t>
+  </si>
+  <si>
+    <t>IR00043</t>
+  </si>
+  <si>
+    <t>test - -10:12</t>
+  </si>
+  <si>
+    <t>IR00045</t>
+  </si>
+  <si>
+    <t>test - -12:48</t>
+  </si>
+  <si>
+    <t>IR00046</t>
+  </si>
+  <si>
+    <t>test - -18:45</t>
+  </si>
+  <si>
+    <t>IR00047</t>
+  </si>
+  <si>
+    <t>test - -22:05</t>
+  </si>
+  <si>
+    <t>IR00048</t>
+  </si>
+  <si>
+    <t>test - -28:11</t>
+  </si>
+  <si>
+    <t>IR00049</t>
+  </si>
+  <si>
+    <t>test - -04:03</t>
+  </si>
+  <si>
+    <t>IR00050</t>
+  </si>
+  <si>
+    <t>test - -10:37</t>
+  </si>
+  <si>
+    <t>IR00051</t>
+  </si>
+  <si>
+    <t>test - -36:24</t>
+  </si>
+  <si>
+    <t>IR00052</t>
+  </si>
+  <si>
+    <t>test - -40:59</t>
+  </si>
+  <si>
+    <t>IR00053</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +3196,10 @@
         <v>14</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>200</v>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="215">
   <si>
     <t>Environment Name</t>
   </si>
@@ -791,15 +791,30 @@
     <t>Created Report ID</t>
   </si>
   <si>
-    <t>Cheif Nurse reviewer approved comments</t>
+    <t>Chief Nurse reviewer approved comments</t>
   </si>
   <si>
     <t>Residential Manager reviewer approved comments</t>
   </si>
   <si>
+    <t>Clinical Coordinator reviewer approved comments</t>
+  </si>
+  <si>
     <t>Social Worker reviewer approved comments</t>
   </si>
   <si>
+    <t>Chief Nurse reviewer rejected comments</t>
+  </si>
+  <si>
+    <t>Residential Manager reviewer rejected comments</t>
+  </si>
+  <si>
+    <t>Clinical Coordinator reviewer rejected comments</t>
+  </si>
+  <si>
+    <t>Social Worker reviewer rejected comments</t>
+  </si>
+  <si>
     <t>Arlia Thomas</t>
   </si>
   <si>
@@ -836,157 +851,40 @@
     <t>a</t>
   </si>
   <si>
-    <t>test - -51:44</t>
-  </si>
-  <si>
-    <t>IR00029</t>
-  </si>
-  <si>
-    <t>cheif nurse approved.</t>
+    <t>test - -57:47</t>
+  </si>
+  <si>
+    <t>IR00069</t>
+  </si>
+  <si>
+    <t>Chief nurse approved.</t>
   </si>
   <si>
     <t>Residential Manager approved.</t>
   </si>
   <si>
+    <t>Clinical Coordinator approved.</t>
+  </si>
+  <si>
     <t>Social Worker approved.</t>
   </si>
   <si>
-    <t>Cheif nurse rejected.</t>
+    <t>Chief nurse rejected.</t>
   </si>
   <si>
     <t>Residential Manager rejected.</t>
   </si>
   <si>
+    <t>Clinical Coordinator rejeccted.</t>
+  </si>
+  <si>
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>test - -57:40</t>
-  </si>
-  <si>
-    <t>IR00032</t>
-  </si>
-  <si>
-    <t>test - -00:23</t>
-  </si>
-  <si>
-    <t>test - -01:57</t>
-  </si>
-  <si>
-    <t>IR00033</t>
-  </si>
-  <si>
-    <t>test - -16:21</t>
-  </si>
-  <si>
-    <t>IR00034</t>
-  </si>
-  <si>
-    <t>test - -17:55</t>
-  </si>
-  <si>
-    <t>IR00035</t>
-  </si>
-  <si>
-    <t>test - -20:08</t>
-  </si>
-  <si>
-    <t>IR00036</t>
-  </si>
-  <si>
-    <t>test - -22:23</t>
-  </si>
-  <si>
-    <t>IR00037</t>
-  </si>
-  <si>
-    <t>test - -26:48</t>
-  </si>
-  <si>
-    <t>IR00038</t>
-  </si>
-  <si>
-    <t>test - -28:04</t>
-  </si>
-  <si>
-    <t>IR00039</t>
-  </si>
-  <si>
-    <t>test - -44:32</t>
-  </si>
-  <si>
-    <t>IR00040</t>
-  </si>
-  <si>
-    <t>test - -55:34</t>
-  </si>
-  <si>
-    <t>IR00041</t>
-  </si>
-  <si>
-    <t>test - -58:04</t>
-  </si>
-  <si>
-    <t>IR00042</t>
-  </si>
-  <si>
-    <t>test - -03:17</t>
-  </si>
-  <si>
-    <t>IR00043</t>
-  </si>
-  <si>
-    <t>test - -10:12</t>
-  </si>
-  <si>
-    <t>IR00045</t>
-  </si>
-  <si>
-    <t>test - -12:48</t>
-  </si>
-  <si>
-    <t>IR00046</t>
-  </si>
-  <si>
-    <t>test - -18:45</t>
-  </si>
-  <si>
-    <t>IR00047</t>
-  </si>
-  <si>
-    <t>test - -22:05</t>
-  </si>
-  <si>
-    <t>IR00048</t>
-  </si>
-  <si>
-    <t>test - -28:11</t>
-  </si>
-  <si>
-    <t>IR00049</t>
-  </si>
-  <si>
-    <t>test - -04:03</t>
-  </si>
-  <si>
-    <t>IR00050</t>
-  </si>
-  <si>
-    <t>test - -10:37</t>
-  </si>
-  <si>
-    <t>IR00051</t>
-  </si>
-  <si>
-    <t>test - -36:24</t>
-  </si>
-  <si>
-    <t>IR00052</t>
-  </si>
-  <si>
-    <t>test - -40:59</t>
-  </si>
-  <si>
-    <t>IR00053</t>
+    <t>test - -17:02</t>
+  </si>
+  <si>
+    <t>IR00070</t>
   </si>
 </sst>
 </file>
@@ -3031,10 +2929,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -3052,15 +2950,15 @@
     <col min="19" max="19" customWidth="true" width="26.4285714285714"/>
     <col min="20" max="20" customWidth="true" width="22.1428571428571"/>
     <col min="21" max="21" customWidth="true" width="47.1428571428571"/>
-    <col min="22" max="22" customWidth="true" width="54.7142857142857"/>
-    <col min="23" max="23" customWidth="true" width="47.1428571428571"/>
-    <col min="24" max="24" customWidth="true" width="44.8571428571429"/>
-    <col min="25" max="25" customWidth="true" width="55.0"/>
-    <col min="26" max="26" customWidth="true" width="46.7142857142857"/>
-    <col min="27" max="16384" customWidth="true" width="20.0952380952381"/>
+    <col min="22" max="23" customWidth="true" width="54.7142857142857"/>
+    <col min="24" max="24" customWidth="true" width="47.1428571428571"/>
+    <col min="25" max="25" customWidth="true" width="44.8571428571429"/>
+    <col min="26" max="27" customWidth="true" width="55.0"/>
+    <col min="28" max="28" customWidth="true" width="46.7142857142857"/>
+    <col min="29" max="16384" customWidth="true" width="20.0952380952381"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:26">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
@@ -3131,54 +3029,60 @@
         <v>185</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" ht="90" spans="1:26">
+        <v>188</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:28">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B2" s="6">
         <v>44938</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>95</v>
@@ -3190,34 +3094,40 @@
         <v>1134</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="290">
   <si>
     <t>Environment Name</t>
   </si>
@@ -75,15 +75,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>mohamedra</t>
-  </si>
-  <si>
-    <t>xealei@23</t>
-  </si>
-  <si>
-    <t>ALPHIND</t>
   </si>
   <si>
     <r>
@@ -94,7 +85,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>alphindadmin@xealei.com</t>
+      <t>FACILITY ADMIN</t>
     </r>
   </si>
   <si>
@@ -106,11 +97,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A!ph!nd@dm!n</t>
+      <t>mohamedra</t>
     </r>
   </si>
   <si>
-    <t>GHA</t>
+    <t>auto@123</t>
   </si>
   <si>
     <r>
@@ -121,11 +112,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ghaadmin@xealei.com</t>
+      <t>STAFF</t>
     </r>
-  </si>
-  <si>
-    <t>XEALEI</t>
   </si>
   <si>
     <r>
@@ -136,10 +124,106 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xliadmin@xealei.com</t>
+      <t>AStaff</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHIEF NURSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AChief_Nu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESIDENT MANAGER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AManager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLINICAL COORDINATOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AClinical</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOCIAL WORKER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASWorker</t>
+    </r>
+  </si>
+  <si>
     <t>SuiteName*</t>
   </si>
   <si>
@@ -179,6 +263,12 @@
     <t>Available</t>
   </si>
   <si>
+    <t>Suite-10:48:51</t>
+  </si>
+  <si>
+    <t>Suite-10:41:56</t>
+  </si>
+  <si>
     <t>Update SuiteName</t>
   </si>
   <si>
@@ -204,6 +294,9 @@
   </si>
   <si>
     <t>CreatedSuites</t>
+  </si>
+  <si>
+    <t>Suite-10:37:23</t>
   </si>
   <si>
     <t>Created SuiteName</t>
@@ -788,13 +881,19 @@
     <t>Created Inj.Description</t>
   </si>
   <si>
-    <t>Albert Nicholas</t>
+    <t>Selected Individual</t>
+  </si>
+  <si>
+    <t>Arlia Thomas</t>
+  </si>
+  <si>
+    <t>01/05/202406:47PM</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Twisted Ankle</t>
   </si>
   <si>
     <t>Yes</t>
@@ -824,10 +923,265 @@
     <t>a</t>
   </si>
   <si>
-    <t>Phone Call</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-19:57</t>
+    <t>Twisted Ankle-40:36</t>
+  </si>
+  <si>
+    <t>01/08/202412:48PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-48:27</t>
+  </si>
+  <si>
+    <t>01/08/202412:53PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-53:39</t>
+  </si>
+  <si>
+    <t>01/08/202412:54PM</t>
+  </si>
+  <si>
+    <t>01/08/202412:58PM</t>
+  </si>
+  <si>
+    <t>01/08/202412:59PM</t>
+  </si>
+  <si>
+    <t>01/08/202401:19PM</t>
+  </si>
+  <si>
+    <t>01/08/202401:20PM</t>
+  </si>
+  <si>
+    <t>01/08/202401:24PM</t>
+  </si>
+  <si>
+    <t>01/08/202401:25PM</t>
+  </si>
+  <si>
+    <t>01/08/202401:40PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:11PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:15PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:32PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:33PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:38PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:40PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:41PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:45PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:48PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:51PM</t>
+  </si>
+  <si>
+    <t>01/08/202403:52PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:06PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:07PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:09PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:10PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:13PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:14PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:15PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:16PM</t>
+  </si>
+  <si>
+    <t>01/08/202404:17PM</t>
+  </si>
+  <si>
+    <t>01/08/202405:41PM</t>
+  </si>
+  <si>
+    <t>01/08/202405:46PM</t>
+  </si>
+  <si>
+    <t>01/08/202406:20PM</t>
+  </si>
+  <si>
+    <t>01/08/202406:31PM</t>
+  </si>
+  <si>
+    <t>01/09/202411:43AM</t>
+  </si>
+  <si>
+    <t>01/09/202411:45AM</t>
+  </si>
+  <si>
+    <t>01/09/202411:59AM</t>
+  </si>
+  <si>
+    <t>01/09/202412:02PM</t>
+  </si>
+  <si>
+    <t>01/10/202411:41AM</t>
+  </si>
+  <si>
+    <t>01/10/202411:46AM</t>
+  </si>
+  <si>
+    <t>01/10/202411:53AM</t>
+  </si>
+  <si>
+    <t>01/10/202412:03PM</t>
+  </si>
+  <si>
+    <t>01/10/202412:09PM</t>
+  </si>
+  <si>
+    <t>01/10/202412:12PM</t>
+  </si>
+  <si>
+    <t>01/10/202412:13PM</t>
+  </si>
+  <si>
+    <t>01/10/202412:22PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:02PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:04PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:06PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:09PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:10PM</t>
+  </si>
+  <si>
+    <t>01/10/202401:12PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:00PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:02PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:04PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:08PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:15PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:23PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:25PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:28PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:31PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:33PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:34PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:40PM</t>
+  </si>
+  <si>
+    <t>01/10/202406:42PM</t>
+  </si>
+  <si>
+    <t>01/11/202411:37AM</t>
+  </si>
+  <si>
+    <t>01/11/202401:30PM</t>
+  </si>
+  <si>
+    <t>01/11/202401:34PM</t>
+  </si>
+  <si>
+    <t>01/11/202403:39PM</t>
+  </si>
+  <si>
+    <t>01/11/202404:31PM</t>
+  </si>
+  <si>
+    <t>01/11/202404:39PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-39:22</t>
+  </si>
+  <si>
+    <t>01/11/202404:47PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-47:53</t>
+  </si>
+  <si>
+    <t>01/11/202404:48PM</t>
+  </si>
+  <si>
+    <t>01/11/202404:54PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-54:44</t>
+  </si>
+  <si>
+    <t>01/11/202405:04PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-04:37</t>
+  </si>
+  <si>
+    <t>01/11/202406:00PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-00:07</t>
+  </si>
+  <si>
+    <t>01/11/202406:46PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-46:48</t>
+  </si>
+  <si>
+    <t>01/11/202406:47PM</t>
   </si>
 </sst>
 </file>
@@ -835,13 +1189,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,22 +1321,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1355,7 +1702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1402,19 +1749,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1521,164 +1855,162 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1701,7 +2033,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1744,24 +2076,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1770,7 +2093,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -2102,44 +2425,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.3619047619048"/>
-    <col min="2" max="2" customWidth="true" width="29.0952380952381"/>
+    <col min="1" max="1" customWidth="true" width="17.3636363636364"/>
+    <col min="2" max="2" customWidth="true" width="29.0909090909091"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2159,220 +2482,220 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3619047619048"/>
-    <col min="6" max="6" customWidth="true" width="11.4571428571429"/>
-    <col min="7" max="7" customWidth="true" style="20" width="27.6380952380952"/>
-    <col min="8" max="8" customWidth="true" width="9.36190476190476"/>
-    <col min="9" max="22" customWidth="true" width="21.3619047619048"/>
-    <col min="23" max="23" customWidth="true" width="16.4571428571429"/>
-    <col min="24" max="24" customWidth="true" width="19.7238095238095"/>
-    <col min="25" max="25" customWidth="true" width="21.6380952380952"/>
-    <col min="26" max="26" customWidth="true" width="18.9047619047619"/>
-    <col min="27" max="27" customWidth="true" width="20.5428571428571"/>
-    <col min="28" max="16383" customWidth="true" width="10.9047619047619"/>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="18" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
+    <col min="28" max="16383" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="18" spans="1:27">
-      <c r="A1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>54</v>
+    <row r="1" s="18" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:27">
-      <c r="A2" s="23" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" ht="17.5" spans="1:27">
+      <c r="A2" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="L2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="M2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="X2" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>100</v>
+      <c r="Y2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>107</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>87</v>
+        <v>134</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="28"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="28"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="28"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2393,7 +2716,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2458,130 +2781,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="28"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="28"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="28"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="28"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="28"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="28"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="28"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="28"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="28"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="28"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="28"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="28"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="28"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="28"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="28"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="28"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="28"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2595,21 +2918,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A2:B16"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6380952380952"/>
-    <col min="2" max="2" customWidth="true" width="29.2761904761905"/>
+    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>132</v>
+      <c r="A1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2624,72 +2947,72 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2761904761905"/>
-    <col min="2" max="2" customWidth="true" width="23.2761904761905"/>
-    <col min="3" max="3" customWidth="true" width="21.3619047619048"/>
-    <col min="4" max="4" customWidth="true" width="19.1809523809524"/>
-    <col min="5" max="5" customWidth="true" width="12.6380952380952"/>
-    <col min="6" max="6" customWidth="true" width="12.0952380952381"/>
-    <col min="7" max="7" customWidth="true" width="12.1809523809524"/>
-    <col min="8" max="8" customWidth="true" width="46.0952380952381"/>
-    <col min="9" max="16384" customWidth="true" width="19.1809523809524"/>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:8">
-      <c r="A1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="13" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:8">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:8">
+      <c r="A2" s="55" t="s">
+        <v>148</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2718,20 +3041,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="7:8">
-      <c r="G6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="7:8">
-      <c r="G7" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>152</v>
+    <row r="6" ht="17.5" spans="7:8">
+      <c r="G6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" ht="17.5" spans="7:8">
+      <c r="G7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2746,78 +3069,78 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1809523809524" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2761904761905"/>
-    <col min="2" max="2" customWidth="true" width="23.2761904761905"/>
-    <col min="3" max="3" customWidth="true" width="21.3619047619048"/>
-    <col min="4" max="4" customWidth="true" width="19.1809523809524"/>
-    <col min="5" max="5" customWidth="true" width="12.6380952380952"/>
-    <col min="6" max="6" customWidth="true" width="12.0952380952381"/>
-    <col min="7" max="7" customWidth="true" width="12.1809523809524"/>
-    <col min="8" max="8" customWidth="true" width="46.0952380952381"/>
-    <col min="9" max="16384" customWidth="true" width="19.1809523809524"/>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="13" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:9">
+      <c r="B1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -2849,20 +3172,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="7:8">
-      <c r="G6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="7:8">
-      <c r="G7" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>152</v>
+    <row r="6" ht="17.5" spans="7:8">
+      <c r="G6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" ht="17.5" spans="7:8">
+      <c r="G7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2874,129 +3197,133 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.0952380952381"/>
-    <col min="3" max="3" customWidth="true" width="24.2761904761905"/>
-    <col min="4" max="4" customWidth="true" width="20.0952380952381"/>
-    <col min="5" max="5" customWidth="true" width="24.2761904761905"/>
-    <col min="6" max="6" customWidth="true" width="25.5428571428571"/>
-    <col min="7" max="7" customWidth="true" width="25.2761904761905"/>
-    <col min="8" max="9" customWidth="true" width="20.0952380952381"/>
-    <col min="10" max="10" customWidth="true" width="30.6380952380952"/>
-    <col min="11" max="11" customWidth="true" width="18.5428571428571"/>
-    <col min="12" max="18" customWidth="true" width="20.0952380952381"/>
-    <col min="19" max="19" customWidth="true" width="26.4285714285714"/>
-    <col min="20" max="16384" customWidth="true" width="20.0952380952381"/>
+    <col min="1" max="2" customWidth="true" width="20.0909090909091"/>
+    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
+    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
+    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
+    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
+    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
+    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
+    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
+    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
+    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
+    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
+    <col min="20" max="20" customWidth="true" width="23.0"/>
+    <col min="21" max="16383" customWidth="true" width="20.0909090909091"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" ht="90" spans="1:19">
+        <v>187</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" ht="87" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="6">
-        <v>44938</v>
+        <v>190</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O2" s="6">
         <v>44938</v>
@@ -3005,13 +3332,16 @@
         <v>1134</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3043,32 +3373,32 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.2761904761905"/>
-    <col min="2" max="2" customWidth="true" width="27.3619047619048"/>
-    <col min="3" max="3" customWidth="true" width="14.2761904761905"/>
+    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
+    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
@@ -3085,78 +3415,105 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0"/>
-    <col min="2" max="2" customWidth="true" width="34.0"/>
-    <col min="3" max="16382" customWidth="true" width="18.0"/>
+    <col min="1" max="1" customWidth="true" width="22.8181818181818"/>
+    <col min="2" max="2" customWidth="true" width="21.5454545454545"/>
+    <col min="3" max="3" customWidth="true" width="16.5454545454545"/>
+    <col min="4" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>20</v>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>20</v>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mohamedra" tooltip="mailto:fa@xealei.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="xealei@23"/>
+    <hyperlink ref="C2" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
+    <hyperlink ref="C3" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
+    <hyperlink ref="C4" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
+    <hyperlink ref="C5" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
+    <hyperlink ref="C6" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
+    <hyperlink ref="C7" r:id="rId1" display="auto@123" tooltip="mailto:auto@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3169,80 +3526,84 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6380952380952" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="12.6380952380952"/>
-    <col min="2" max="2" customWidth="true" style="34" width="28.7238095238095"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.6380952380952"/>
-    <col min="6" max="6" customWidth="true" width="20.2761904761905"/>
-    <col min="7" max="7" customWidth="true" width="16.8190476190476"/>
-    <col min="8" max="16381" customWidth="true" width="12.6380952380952"/>
+    <col min="1" max="1" customWidth="true" style="32" width="12.6363636363636"/>
+    <col min="2" max="2" customWidth="true" style="32" width="28.7272727272727"/>
+    <col min="3" max="5" customWidth="true" style="32" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
+    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
+    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="36" t="s">
+    <row r="1" s="39" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="B1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="C1" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="44" t="s">
+      <c r="D1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="E1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="F1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="G1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="56" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="C2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34">
+      <c r="A6" s="32">
         <v>0</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <v>4</v>
       </c>
       <c r="F6">
@@ -3264,67 +3625,67 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7238095238095"/>
-    <col min="2" max="2" customWidth="true" width="32.3619047619048"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.9047619047619"/>
-    <col min="6" max="6" customWidth="true" width="30.9047619047619"/>
-    <col min="7" max="7" customWidth="true" width="22.2761904761905"/>
-    <col min="8" max="16379" customWidth="true" width="12.9047619047619"/>
+    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
+    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
+    <col min="3" max="5" customWidth="true" style="32" width="12.9090909090909"/>
+    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
+    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
+    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="A1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>44</v>
+      <c r="D2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
-      <c r="F3" s="40" t="s">
-        <v>45</v>
+      <c r="B3" s="32"/>
+      <c r="F3" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -3335,13 +3696,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3360,20 +3721,35 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.9047619047619"/>
+    <col min="1" max="1" customWidth="true" width="22.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
-        <v>46</v>
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3388,21 +3764,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0952380952381"/>
-    <col min="2" max="2" customWidth="true" width="22.4571428571429"/>
+    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
+    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>48</v>
+      <c r="A1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3416,220 +3792,220 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3619047619048"/>
-    <col min="6" max="6" customWidth="true" width="11.4571428571429"/>
-    <col min="7" max="7" customWidth="true" style="20" width="27.6380952380952"/>
-    <col min="8" max="8" customWidth="true" width="9.36190476190476"/>
-    <col min="9" max="22" customWidth="true" width="21.3619047619048"/>
-    <col min="23" max="23" customWidth="true" width="16.4571428571429"/>
-    <col min="24" max="24" customWidth="true" width="19.7238095238095"/>
-    <col min="25" max="25" customWidth="true" width="21.6380952380952"/>
-    <col min="26" max="26" customWidth="true" width="18.9047619047619"/>
-    <col min="27" max="27" customWidth="true" width="20.5428571428571"/>
-    <col min="28" max="16384" customWidth="true" width="10.9047619047619"/>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="18" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
+    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="18" spans="1:27">
-      <c r="A1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>54</v>
+    <row r="1" s="18" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="23" t="s">
-        <v>76</v>
+      <c r="A2" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="U2" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="V2" s="5"/>
-      <c r="W2" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>100</v>
+      <c r="W2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>107</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="28"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="28"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="28"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3650,7 +4026,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3715,130 +4091,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="28"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="28"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="28"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="28"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="28"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="28"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="28"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="28"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="28"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="28"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="28"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="28"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="28"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="28"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="28"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="28"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="28"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="28"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="28"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="28"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="28"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="28"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="28"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="28"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="28"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="28"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="28"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="28"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="28"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="28"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="28"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="28"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="28"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3852,25 +4228,25 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="A2:C17"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.2761904761905"/>
-    <col min="2" max="2" customWidth="true" width="20.6380952380952"/>
-    <col min="3" max="3" customWidth="true" width="11.1809523809524"/>
+    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
+    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>109</v>
+      <c r="A1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="308">
   <si>
     <t>Environment Name</t>
   </si>
@@ -1182,6 +1182,60 @@
   </si>
   <si>
     <t>01/11/202406:47PM</t>
+  </si>
+  <si>
+    <t>01/12/202412:13PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-13:32</t>
+  </si>
+  <si>
+    <t>01/12/202412:17PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-17:52</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-21:24</t>
+  </si>
+  <si>
+    <t>01/12/202412:21PM</t>
+  </si>
+  <si>
+    <t>01/12/202401:18PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-18:18</t>
+  </si>
+  <si>
+    <t>01/12/202402:10PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-10:24</t>
+  </si>
+  <si>
+    <t>01/12/202402:18PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-18:40</t>
+  </si>
+  <si>
+    <t>01/12/202402:40PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-40:38</t>
+  </si>
+  <si>
+    <t>01/12/202402:41PM</t>
+  </si>
+  <si>
+    <t>01/12/202402:47PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-47:27</t>
+  </si>
+  <si>
+    <t>01/12/202402:48PM</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +3341,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>192</v>
@@ -3338,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="T2" s="55" t="s">
         <v>190</v>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="276">
   <si>
     <t>Environment Name</t>
   </si>
@@ -885,6 +885,189 @@
   </si>
   <si>
     <t>IR00070</t>
+  </si>
+  <si>
+    <t>test - -07:21</t>
+  </si>
+  <si>
+    <t>IR00075</t>
+  </si>
+  <si>
+    <t>test - -08:55</t>
+  </si>
+  <si>
+    <t>IR00076</t>
+  </si>
+  <si>
+    <t>test - -11:05</t>
+  </si>
+  <si>
+    <t>IR00077</t>
+  </si>
+  <si>
+    <t>test - -20:39</t>
+  </si>
+  <si>
+    <t>IR00078</t>
+  </si>
+  <si>
+    <t>test - -22:32</t>
+  </si>
+  <si>
+    <t>IR00079</t>
+  </si>
+  <si>
+    <t>test - -35:44</t>
+  </si>
+  <si>
+    <t>IR00082</t>
+  </si>
+  <si>
+    <t>test - -48:11</t>
+  </si>
+  <si>
+    <t>IR00083</t>
+  </si>
+  <si>
+    <t>test - -02:04</t>
+  </si>
+  <si>
+    <t>IR00084</t>
+  </si>
+  <si>
+    <t>test - -19:06</t>
+  </si>
+  <si>
+    <t>IR00085</t>
+  </si>
+  <si>
+    <t>test - -21:42</t>
+  </si>
+  <si>
+    <t>IR00086</t>
+  </si>
+  <si>
+    <t>test - -24:38</t>
+  </si>
+  <si>
+    <t>IR00087</t>
+  </si>
+  <si>
+    <t>test - -46:02</t>
+  </si>
+  <si>
+    <t>IR00088</t>
+  </si>
+  <si>
+    <t>test - -25:00</t>
+  </si>
+  <si>
+    <t>IR00089</t>
+  </si>
+  <si>
+    <t>test - -34:55</t>
+  </si>
+  <si>
+    <t>IR00090</t>
+  </si>
+  <si>
+    <t>test - -37:48</t>
+  </si>
+  <si>
+    <t>IR00091</t>
+  </si>
+  <si>
+    <t>test - -23:55</t>
+  </si>
+  <si>
+    <t>IR00093</t>
+  </si>
+  <si>
+    <t>test - -26:11</t>
+  </si>
+  <si>
+    <t>IR00094</t>
+  </si>
+  <si>
+    <t>test - -30:42</t>
+  </si>
+  <si>
+    <t>IR00095</t>
+  </si>
+  <si>
+    <t>test - -55:19</t>
+  </si>
+  <si>
+    <t>test - -15:52</t>
+  </si>
+  <si>
+    <t>IR00112</t>
+  </si>
+  <si>
+    <t>test - -17:51</t>
+  </si>
+  <si>
+    <t>IR00113</t>
+  </si>
+  <si>
+    <t>test - -45:11</t>
+  </si>
+  <si>
+    <t>IR00142</t>
+  </si>
+  <si>
+    <t>test - -04:05</t>
+  </si>
+  <si>
+    <t>IR00143</t>
+  </si>
+  <si>
+    <t>test - -05:22</t>
+  </si>
+  <si>
+    <t>IR00144</t>
+  </si>
+  <si>
+    <t>test - -13:45</t>
+  </si>
+  <si>
+    <t>IR00145</t>
+  </si>
+  <si>
+    <t>test - -48:45</t>
+  </si>
+  <si>
+    <t>IR00146</t>
+  </si>
+  <si>
+    <t>test - -58:49</t>
+  </si>
+  <si>
+    <t>IR00147</t>
+  </si>
+  <si>
+    <t>test - -06:53</t>
+  </si>
+  <si>
+    <t>IR00148</t>
+  </si>
+  <si>
+    <t>test - -11:06</t>
+  </si>
+  <si>
+    <t>IR00149</t>
+  </si>
+  <si>
+    <t>test - -18:44</t>
+  </si>
+  <si>
+    <t>IR00150</t>
+  </si>
+  <si>
+    <t>test - -34:21</t>
+  </si>
+  <si>
+    <t>IR00151</t>
   </si>
 </sst>
 </file>
@@ -3100,10 +3283,10 @@
         <v>14</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>205</v>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="10" activeTab="13"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="236">
   <si>
     <t>Environment Name</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Login Names</t>
+  </si>
+  <si>
     <t>FACILITY ADMIN</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>ATFacilityAdmin</t>
   </si>
   <si>
+    <t>Staff</t>
+  </si>
+  <si>
     <t>STAFF</t>
   </si>
   <si>
@@ -104,22 +110,34 @@
     <t>AChief_Nu</t>
   </si>
   <si>
+    <t>Chief Nurse</t>
+  </si>
+  <si>
     <t>RESIDENT MANAGER</t>
   </si>
   <si>
     <t>AManager</t>
   </si>
   <si>
+    <t>Resident Manager</t>
+  </si>
+  <si>
     <t>CLINICAL COORDINATOR</t>
   </si>
   <si>
     <t>AClinical</t>
   </si>
   <si>
+    <t>Clinical Coordinator</t>
+  </si>
+  <si>
     <t>SOCIAL WORKER</t>
   </si>
   <si>
     <t>ASWorker</t>
+  </si>
+  <si>
+    <t>Social Worker</t>
   </si>
   <si>
     <t>SuiteName*</t>
@@ -800,7 +818,7 @@
     <t>Arlia Thomas</t>
   </si>
   <si>
-    <t>01/18/202408:53PM</t>
+    <t>01/22/202403:16PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -833,19 +851,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>1/18/2024</t>
-  </si>
-  <si>
-    <t>08:54PM</t>
+    <t>1/22/2024</t>
+  </si>
+  <si>
+    <t>03:16PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-54:03</t>
-  </si>
-  <si>
-    <t>IR00125</t>
+    <t>Twisted Ankle-16:14</t>
+  </si>
+  <si>
+    <t>IR00163</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -872,160 +890,28 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>01/18/202409:02PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-02:53</t>
-  </si>
-  <si>
-    <t>01/18/202409:06PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-06:29</t>
-  </si>
-  <si>
-    <t>01/18/202409:09PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-09:49</t>
-  </si>
-  <si>
-    <t>01/18/202409:10PM</t>
-  </si>
-  <si>
-    <t>09:10PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-10:47</t>
-  </si>
-  <si>
-    <t>01/18/202409:30PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-30:44</t>
-  </si>
-  <si>
-    <t>01/18/202409:31PM</t>
-  </si>
-  <si>
-    <t>09:31PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-31:42</t>
-  </si>
-  <si>
-    <t>01/18/202409:40PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-40:51</t>
-  </si>
-  <si>
-    <t>01/18/202409:41PM</t>
-  </si>
-  <si>
-    <t>09:41PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-41:50</t>
-  </si>
-  <si>
-    <t>01/19/202404:48PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-48:38</t>
-  </si>
-  <si>
-    <t>1/19/2024</t>
-  </si>
-  <si>
-    <t>04:48PM</t>
-  </si>
-  <si>
-    <t>IR00152</t>
-  </si>
-  <si>
-    <t>01/19/202404:53PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-53:48</t>
-  </si>
-  <si>
-    <t>04:53PM</t>
-  </si>
-  <si>
-    <t>IR00153</t>
-  </si>
-  <si>
-    <t>01/19/202404:56PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-56:30</t>
-  </si>
-  <si>
-    <t>04:56PM</t>
-  </si>
-  <si>
-    <t>IR00154</t>
-  </si>
-  <si>
-    <t>01/19/202405:02PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-02:08</t>
-  </si>
-  <si>
-    <t>05:02PM</t>
-  </si>
-  <si>
-    <t>IR00155</t>
-  </si>
-  <si>
-    <t>01/19/202405:06PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-06:45</t>
-  </si>
-  <si>
-    <t>05:06PM</t>
-  </si>
-  <si>
-    <t>IR00156</t>
-  </si>
-  <si>
-    <t>01/19/202405:10PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-10:33</t>
-  </si>
-  <si>
-    <t>05:10PM</t>
-  </si>
-  <si>
-    <t>IR00157</t>
-  </si>
-  <si>
-    <t>01/19/202405:13PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-13:27</t>
-  </si>
-  <si>
-    <t>05:13PM</t>
-  </si>
-  <si>
-    <t>IR00158</t>
-  </si>
-  <si>
-    <t>01/19/202405:16PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-16:28</t>
-  </si>
-  <si>
-    <t>05:16PM</t>
-  </si>
-  <si>
-    <t>IR00159</t>
+    <t>01/22/202403:36PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-36:38</t>
+  </si>
+  <si>
+    <t>03:36PM</t>
+  </si>
+  <si>
+    <t>IR00177</t>
+  </si>
+  <si>
+    <t>01/22/202403:40PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-41:06</t>
+  </si>
+  <si>
+    <t>03:41PM</t>
+  </si>
+  <si>
+    <t>IR00178</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1923,12 +1809,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2294,31 +2182,31 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2359,188 +2247,188 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="L2" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="Y2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>105</v>
+      <c r="Z2" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2785,10 +2673,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2821,54 +2709,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="59" t="s">
-        <v>146</v>
+      <c r="A2" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="61" t="s">
         <v>153</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2899,18 +2787,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2943,60 +2831,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="62" t="s">
         <v>166</v>
       </c>
+      <c r="C2" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>172</v>
+      </c>
       <c r="I2" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3030,18 +2918,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3055,8 +2943,8 @@
   <sheetPr/>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
@@ -3084,180 +2972,180 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:29">
       <c r="A1" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:29">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:29">
@@ -3385,10 +3273,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6"/>
@@ -3405,20 +3293,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="1" max="1" customWidth="true" width="22.5454545454545"/>
     <col min="2" max="2" customWidth="true" width="34.0"/>
     <col min="3" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
@@ -3431,80 +3319,111 @@
       <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="47" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
+      <c r="C2" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="47" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="47" t="s">
+      <c r="C4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="47" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="C5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3541,45 +3460,45 @@
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -3636,52 +3555,52 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>48</v>
+      <c r="D2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -3730,7 +3649,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3756,10 +3675,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3794,188 +3713,188 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>107</v>
       </c>
       <c r="V2" s="6"/>
-      <c r="W2" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>105</v>
+      <c r="W2" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -4221,13 +4140,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="5" r:id="rId2"/>
     <sheet name="Login" sheetId="2" r:id="rId3"/>
-    <sheet name="AddSuites" sheetId="3" r:id="rId4"/>
-    <sheet name="EditSuites" sheetId="4" r:id="rId5"/>
-    <sheet name="CreatedSuites" sheetId="6" r:id="rId6"/>
-    <sheet name="UpdatedSuites" sheetId="7" r:id="rId7"/>
-    <sheet name="AddIndividuals" sheetId="8" r:id="rId8"/>
-    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId9"/>
-    <sheet name="EditIndividuals" sheetId="10" r:id="rId10"/>
-    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId11"/>
-    <sheet name="AddVitals" sheetId="11" r:id="rId12"/>
-    <sheet name="EditVitals" sheetId="13" r:id="rId13"/>
-    <sheet name="Incident Reports" sheetId="15" r:id="rId14"/>
+    <sheet name="Forgot Password" sheetId="16" r:id="rId4"/>
+    <sheet name="AddSuites" sheetId="3" r:id="rId5"/>
+    <sheet name="EditSuites" sheetId="4" r:id="rId6"/>
+    <sheet name="CreatedSuites" sheetId="6" r:id="rId7"/>
+    <sheet name="UpdatedSuites" sheetId="7" r:id="rId8"/>
+    <sheet name="AddIndividuals" sheetId="8" r:id="rId9"/>
+    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId10"/>
+    <sheet name="EditIndividuals" sheetId="10" r:id="rId11"/>
+    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId12"/>
+    <sheet name="AddVitals" sheetId="11" r:id="rId13"/>
+    <sheet name="EditVitals" sheetId="13" r:id="rId14"/>
+    <sheet name="Incident Reports" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="236">
   <si>
     <t>Environment Name</t>
   </si>
@@ -59,15 +60,12 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>Suite Page</t>
+    <t>Forgot Password Page</t>
   </si>
   <si>
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://gha.qa.xealei.com/login</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
@@ -138,6 +136,33 @@
   </si>
   <si>
     <t>Social Worker</t>
+  </si>
+  <si>
+    <t>Invalid Email formats</t>
+  </si>
+  <si>
+    <t>UnRegistered Email</t>
+  </si>
+  <si>
+    <t>Blocked Email</t>
+  </si>
+  <si>
+    <t>In-Active Email</t>
+  </si>
+  <si>
+    <t>anjelaJ</t>
+  </si>
+  <si>
+    <t>mohamedrazul.s@gmail.com</t>
+  </si>
+  <si>
+    <t>mohamedrazul.s+1@alphind.com</t>
+  </si>
+  <si>
+    <t>anjelaJ@Gha</t>
+  </si>
+  <si>
+    <t>123@g.in</t>
   </si>
   <si>
     <t>SuiteName*</t>
@@ -818,7 +843,7 @@
     <t>Arlia Thomas</t>
   </si>
   <si>
-    <t>01/22/202403:16PM</t>
+    <t>01/22/202403:40PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -854,16 +879,16 @@
     <t>1/22/2024</t>
   </si>
   <si>
-    <t>03:16PM</t>
+    <t>03:41PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-16:14</t>
-  </si>
-  <si>
-    <t>IR00163</t>
+    <t>Twisted Ankle-41:06</t>
+  </si>
+  <si>
+    <t>IR00178</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -888,30 +913,6 @@
   </si>
   <si>
     <t>Social Worker rejected.</t>
-  </si>
-  <si>
-    <t>01/22/202403:36PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-36:38</t>
-  </si>
-  <si>
-    <t>03:36PM</t>
-  </si>
-  <si>
-    <t>IR00177</t>
-  </si>
-  <si>
-    <t>01/22/202403:40PM</t>
-  </si>
-  <si>
-    <t>Twisted Ankle-41:06</t>
-  </si>
-  <si>
-    <t>03:41PM</t>
-  </si>
-  <si>
-    <t>IR00178</t>
   </si>
 </sst>
 </file>
@@ -925,7 +926,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1055,13 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1597,137 +1605,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1809,19 +1817,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1831,6 +1839,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1839,7 +1849,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2169,13 +2178,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.3636363636364"/>
-    <col min="2" max="2" customWidth="true" width="29.0909090909091"/>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="29.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2224,6 +2233,39 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="A2:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -2232,203 +2274,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
-    <col min="28" max="16383" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
+    <col min="28" max="16383" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="L2" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>111</v>
+      <c r="X2" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2656,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B1"/>
@@ -2667,16 +2709,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
+    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H7"/>
@@ -2696,67 +2738,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="61" t="s">
-        <v>152</v>
+      <c r="A2" s="57" t="s">
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2787,18 +2829,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -2818,73 +2860,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>180</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -2918,18 +2960,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AC11"/>
@@ -2949,203 +2991,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.0909090909091"/>
-    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
-    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
-    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
-    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
-    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
-    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
-    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
-    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
-    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
-    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
-    <col min="20" max="20" customWidth="true" width="22.1454545454545"/>
-    <col min="21" max="21" customWidth="true" width="47.1454545454545"/>
-    <col min="22" max="23" customWidth="true" width="54.7181818181818"/>
-    <col min="24" max="24" customWidth="true" width="47.1454545454545"/>
-    <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
-    <col min="26" max="27" customWidth="true" width="55.0"/>
-    <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
-    <col min="29" max="16384" customWidth="true" width="20.0909090909091"/>
+    <col min="1" max="2" width="20.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
+    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
+    <col min="12" max="18" width="20.0909090909091" customWidth="1"/>
+    <col min="19" max="19" width="26.4272727272727" customWidth="1"/>
+    <col min="20" max="20" width="22.1454545454545" customWidth="1"/>
+    <col min="21" max="21" width="47.1454545454545" customWidth="1"/>
+    <col min="22" max="23" width="54.7181818181818" customWidth="1"/>
+    <col min="24" max="24" width="47.1454545454545" customWidth="1"/>
+    <col min="25" max="25" width="44.8545454545455" customWidth="1"/>
+    <col min="26" max="27" width="55" customWidth="1"/>
+    <col min="28" max="28" width="46.7181818181818" customWidth="1"/>
+    <col min="29" max="16384" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:29">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:29">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:29">
@@ -3251,14 +3293,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
-    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
+    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3273,17 +3315,19 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="B2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://gha.qa.xealei.com/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://xat.qa.xealei.com/" tooltip="https://xat.qa.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3295,134 +3339,134 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5454545454545"/>
-    <col min="2" max="2" customWidth="true" width="34.0"/>
-    <col min="3" max="16382" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="22.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="16382" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="47" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="B4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="49" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="49" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="49" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="48" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3442,6 +3486,74 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="26.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="17.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="24.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="33.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mohamedrazul.s@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="123@g.in"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,55 +3562,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="12.6363636363636"/>
-    <col min="2" max="2" customWidth="true" style="33" width="28.7272727272727"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
-    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
-    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
+    <col min="1" max="1" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="2" max="2" width="28.7272727272727" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
+    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>55</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -3534,7 +3646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -3545,62 +3657,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
-    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
-    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
-    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
-    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
+    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
+    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>54</v>
       </c>
+      <c r="D2" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>62</v>
+      </c>
       <c r="F2" s="37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -3633,7 +3745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3644,12 +3756,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.9090909090909"/>
+    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B1"/>
@@ -3669,16 +3781,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
-    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA50"/>
@@ -3698,203 +3810,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
-    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
+    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="U2" s="62" t="s">
+        <v>115</v>
       </c>
       <c r="V2" s="6"/>
-      <c r="W2" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>111</v>
+      <c r="W2" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -4115,39 +4227,6 @@
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="A2:C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
-    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
   <si>
     <t>Environment Name</t>
   </si>
@@ -800,10 +800,19 @@
     <t>Alert Notification Description</t>
   </si>
   <si>
+    <t>Staff Message</t>
+  </si>
+  <si>
+    <t>Chief Nurse Message</t>
+  </si>
+  <si>
+    <t>Manager Message</t>
+  </si>
+  <si>
     <t>Arlia Thomas</t>
   </si>
   <si>
-    <t>01/29/202412:35</t>
+    <t>28/01/202412:35</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -836,19 +845,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>1/29/2024</t>
-  </si>
-  <si>
-    <t>12:35AM</t>
+    <t>1/28/2024</t>
+  </si>
+  <si>
+    <t>12:36AM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-35:37</t>
-  </si>
-  <si>
-    <t>IR00207</t>
+    <t>Twisted Ankle-44:51</t>
+  </si>
+  <si>
+    <t>IR00243</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -876,6 +885,15 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Staff Test Message</t>
+  </si>
+  <si>
+    <t>Chief Nurse Test Message</t>
+  </si>
+  <si>
+    <t>Manager Test Message</t>
   </si>
 </sst>
 </file>
@@ -2903,10 +2921,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15"/>
@@ -2931,10 +2949,13 @@
     <col min="28" max="28" width="46.7142857142857" customWidth="1"/>
     <col min="29" max="29" width="20.0952380952381" customWidth="1"/>
     <col min="30" max="30" width="33.5714285714286" customWidth="1"/>
-    <col min="31" max="16384" width="20.0952380952381" customWidth="1"/>
+    <col min="31" max="31" width="20.0952380952381" customWidth="1"/>
+    <col min="32" max="32" width="24.2857142857143" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
+    <col min="34" max="16384" width="20.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>168</v>
       </c>
@@ -3025,100 +3046,118 @@
       <c r="AD1" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" ht="105" spans="1:30">
+      <c r="AE1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" ht="105" spans="1:33">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:30">
+        <v>226</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3193,6 +3232,15 @@
       </c>
       <c r="AD11" s="2">
         <v>29</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,31 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="5" r:id="rId2"/>
     <sheet name="Login" sheetId="2" r:id="rId3"/>
-    <sheet name="Forgot Password" sheetId="16" r:id="rId4"/>
-    <sheet name="AddSuites" sheetId="3" r:id="rId5"/>
-    <sheet name="EditSuites" sheetId="4" r:id="rId6"/>
-    <sheet name="CreatedSuites" sheetId="6" r:id="rId7"/>
-    <sheet name="UpdatedSuites" sheetId="7" r:id="rId8"/>
-    <sheet name="AddIndividuals" sheetId="8" r:id="rId9"/>
-    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId10"/>
-    <sheet name="EditIndividuals" sheetId="10" r:id="rId11"/>
-    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId12"/>
-    <sheet name="AddVitals" sheetId="11" r:id="rId13"/>
-    <sheet name="EditVitals" sheetId="13" r:id="rId14"/>
-    <sheet name="Incident Reports" sheetId="15" r:id="rId15"/>
+    <sheet name="AddSuites" sheetId="3" r:id="rId4"/>
+    <sheet name="EditSuites" sheetId="4" r:id="rId5"/>
+    <sheet name="CreatedSuites" sheetId="6" r:id="rId6"/>
+    <sheet name="UpdatedSuites" sheetId="7" r:id="rId7"/>
+    <sheet name="AddIndividuals" sheetId="8" r:id="rId8"/>
+    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId9"/>
+    <sheet name="EditIndividuals" sheetId="10" r:id="rId10"/>
+    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId11"/>
+    <sheet name="AddVitals" sheetId="11" r:id="rId12"/>
+    <sheet name="EditVitals" sheetId="13" r:id="rId13"/>
+    <sheet name="Incident Reports" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="234">
   <si>
     <t>Environment Name</t>
   </si>
@@ -60,12 +59,15 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>Forgot Password Page</t>
+    <t>Suite Page</t>
   </si>
   <si>
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
+    <t>https://gha.qa.xealei.com/login</t>
+  </si>
+  <si>
     <t>Names</t>
   </si>
   <si>
@@ -78,9 +80,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Login Names</t>
-  </si>
-  <si>
     <t>FACILITY ADMIN</t>
   </si>
   <si>
@@ -93,9 +92,6 @@
     <t>ATFacilityAdmin</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>STAFF</t>
   </si>
   <si>
@@ -108,63 +104,24 @@
     <t>AChief_Nu</t>
   </si>
   <si>
-    <t>Chief Nurse</t>
-  </si>
-  <si>
     <t>RESIDENT MANAGER</t>
   </si>
   <si>
     <t>AManager</t>
   </si>
   <si>
-    <t>Resident Manager</t>
-  </si>
-  <si>
     <t>CLINICAL COORDINATOR</t>
   </si>
   <si>
     <t>AClinical</t>
   </si>
   <si>
-    <t>Clinical Coordinator</t>
-  </si>
-  <si>
     <t>SOCIAL WORKER</t>
   </si>
   <si>
     <t>ASWorker</t>
   </si>
   <si>
-    <t>Social Worker</t>
-  </si>
-  <si>
-    <t>Invalid Email formats</t>
-  </si>
-  <si>
-    <t>UnRegistered Email</t>
-  </si>
-  <si>
-    <t>Blocked Email</t>
-  </si>
-  <si>
-    <t>In-Active Email</t>
-  </si>
-  <si>
-    <t>anjelaJ</t>
-  </si>
-  <si>
-    <t>mohamedrazul.s@gmail.com</t>
-  </si>
-  <si>
-    <t>mohamedrazul.s+1@alphind.com</t>
-  </si>
-  <si>
-    <t>anjelaJ@Gha</t>
-  </si>
-  <si>
-    <t>123@g.in</t>
-  </si>
-  <si>
     <t>SuiteName*</t>
   </si>
   <si>
@@ -198,10 +155,10 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Suite-14:02:24</t>
-  </si>
-  <si>
-    <t>Suite-14:03:21</t>
+    <t>Suite-15:19:33</t>
+  </si>
+  <si>
+    <t>Suite-15:20:30</t>
   </si>
   <si>
     <t>Update SuiteName</t>
@@ -228,39 +185,18 @@
     <t>In-Active</t>
   </si>
   <si>
-    <t>Royal-14:05:07</t>
+    <t>Royal-15:22:39</t>
   </si>
   <si>
     <t>CreatedSuites</t>
   </si>
   <si>
-    <t>Suite-18:53:03</t>
-  </si>
-  <si>
-    <t>Royal-18:55:34</t>
-  </si>
-  <si>
-    <t>Suite-11:19:08</t>
-  </si>
-  <si>
-    <t>Suite-11:33:55</t>
-  </si>
-  <si>
-    <t>Royal-11:38:44</t>
-  </si>
-  <si>
     <t>Created SuiteName</t>
   </si>
   <si>
     <t>Updated SuiteName</t>
   </si>
   <si>
-    <t>Suite-18:53:49</t>
-  </si>
-  <si>
-    <t>Suite-11:34:48</t>
-  </si>
-  <si>
     <t>First Name*</t>
   </si>
   <si>
@@ -402,7 +338,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-06:04</t>
+    <t>David-24:59</t>
   </si>
   <si>
     <t>22</t>
@@ -417,7 +353,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-06:04</t>
+    <t>Johnson S David-24:59</t>
   </si>
   <si>
     <t>female</t>
@@ -437,22 +373,16 @@
     </r>
   </si>
   <si>
-    <t>9805195939</t>
+    <t>9410283942</t>
   </si>
   <si>
     <t>notspecify</t>
   </si>
   <si>
-    <t>Created Suite Name</t>
-  </si>
-  <si>
-    <t>Created Ind Name</t>
+    <t>Selected Suites</t>
   </si>
   <si>
     <t>Individual ID</t>
-  </si>
-  <si>
-    <t>Emily S Martin-10:25</t>
   </si>
   <si>
     <t>Emily</t>
@@ -519,7 +449,10 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-10:25</t>
+    <t>Martin-44:45</t>
+  </si>
+  <si>
+    <t>Emily S Martin-44:45</t>
   </si>
   <si>
     <t>Male</t>
@@ -528,7 +461,7 @@
     <t>Royal-21:49:51</t>
   </si>
   <si>
-    <t>9203841740</t>
+    <t>9312494783</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -538,12 +471,6 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
-  </si>
-  <si>
-    <t>Johnson S David-47:09</t>
-  </si>
-  <si>
-    <t>Emily S Martin-53:09</t>
   </si>
   <si>
     <r>
@@ -876,13 +803,22 @@
     <t>Individual Name</t>
   </si>
   <si>
-    <t>Fall Description</t>
-  </si>
-  <si>
-    <t>Emily S Martin-10:25(Royal-14:05:07)</t>
-  </si>
-  <si>
-    <t>01/29/202406:41PM</t>
+    <t>Alert Notification Description</t>
+  </si>
+  <si>
+    <t>Staff Message</t>
+  </si>
+  <si>
+    <t>Chief Nurse Message</t>
+  </si>
+  <si>
+    <t>Manager Message</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:59(Suite-15:19:33)</t>
+  </si>
+  <si>
+    <t>02/02/202401:24PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -915,19 +851,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>1/29/2024</t>
-  </si>
-  <si>
-    <t>06:42PM</t>
+    <t>2/2/2024</t>
+  </si>
+  <si>
+    <t>01:24PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-42:15</t>
-  </si>
-  <si>
-    <t>IR00240</t>
+    <t>Twisted Ankle-24:49</t>
+  </si>
+  <si>
+    <t>IR00361</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -954,46 +890,22 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Emily Martin-10:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Fall </t>
-  </si>
-  <si>
-    <t>Suite-17:00:45</t>
-  </si>
-  <si>
-    <t>Suite-17:01:34</t>
-  </si>
-  <si>
-    <t>Royal-17:02:54</t>
-  </si>
-  <si>
-    <t>Suite-17:07:28</t>
-  </si>
-  <si>
-    <t>Suite-17:08:17</t>
-  </si>
-  <si>
-    <t>Royal-17:10:20</t>
-  </si>
-  <si>
-    <t>David-11:21</t>
-  </si>
-  <si>
-    <t>Johnson S David-11:21</t>
-  </si>
-  <si>
-    <t>9843844755</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Johnson David-11:21</t>
-  </si>
-  <si>
-    <t>Johnson S David-11:21(Royal-17:10:20)</t>
+    <t>Johnson David-24:59</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Staff Test Message</t>
+  </si>
+  <si>
+    <t>Chief Nurse Test Message</t>
+  </si>
+  <si>
+    <t>Manager Test Message</t>
+  </si>
+  <si>
+    <t>Suite-13:04:03</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +919,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,12 +945,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00151D"/>
-      <name val="Comic Sans MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Comic Sans MS"/>
       <charset val="134"/>
     </font>
@@ -1109,25 +1015,6 @@
       <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SF-Pro-Display-Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1704,137 +1591,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1851,65 +1738,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1917,52 +1800,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2287,7 +2161,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2297,34 +2171,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2342,72 +2216,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
-    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
     <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="20" width="27.6363636363636"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
     <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
     <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
     <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
@@ -2418,203 +2237,203 @@
     <col min="28" max="16383" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="W1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="X1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="Y1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="Z1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="AA1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" ht="17.5" spans="1:27">
+      <c r="A2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z1" s="13" t="s">
+      <c r="E2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" ht="17.5" spans="1:27">
-      <c r="A2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="V2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="Y2" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>128</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>114</v>
+        <v>134</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -2635,7 +2454,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>6</v>
       </c>
       <c r="H8">
@@ -2700,130 +2519,159 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="28"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="28"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="28"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="28"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="28"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="28"/>
+      <c r="G50" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2832,51 +2680,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A2:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H7"/>
@@ -2898,56 +2701,56 @@
     <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:8">
-      <c r="A1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>171</v>
+    <row r="1" s="10" customFormat="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="60" t="s">
-        <v>172</v>
+      <c r="A2" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2977,19 +2780,19 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>181</v>
+      <c r="G6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>183</v>
+      <c r="G7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -3020,62 +2823,62 @@
     <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>184</v>
+    <row r="1" s="10" customFormat="1" spans="1:9">
+      <c r="A1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>192</v>
+        <v>162</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>168</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3108,19 +2911,19 @@
       </c>
     </row>
     <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>181</v>
+      <c r="G6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>183</v>
+      <c r="G7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3129,18 +2932,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.0909090909091"/>
+    <col min="1" max="1" customWidth="true" width="32.1818181818182"/>
+    <col min="2" max="2" customWidth="true" width="20.0909090909091"/>
     <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
     <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
     <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
@@ -3158,194 +2962,217 @@
     <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
     <col min="26" max="27" customWidth="true" width="55.0"/>
     <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
-    <col min="29" max="16384" customWidth="true" width="20.0909090909091"/>
+    <col min="29" max="29" customWidth="true" width="20.0909090909091"/>
+    <col min="30" max="30" customWidth="true" width="33.5727272727273"/>
+    <col min="31" max="31" customWidth="true" width="20.0909090909091"/>
+    <col min="32" max="32" customWidth="true" width="24.2818181818182"/>
+    <col min="33" max="33" customWidth="true" width="23.0"/>
+    <col min="34" max="16384" customWidth="true" width="20.0909090909091"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:33">
       <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="2" ht="101.5" spans="1:33">
+      <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="H2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="N2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="R2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="U2" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="W2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="X2" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" ht="101.5" spans="1:30">
-      <c r="A2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="AG2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:30">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:33">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3420,6 +3247,15 @@
       </c>
       <c r="AD11" s="2">
         <v>29</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3451,41 +3287,39 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
     <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
-    <col min="3" max="3" customWidth="true" width="23.3636363636364"/>
+    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://xat.qa.xealei.com/" tooltip="https://xat.qa.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://gha.qa.xealei.com/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3495,137 +3329,106 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5454545454545"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
     <col min="2" max="2" customWidth="true" width="34.0"/>
     <col min="3" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="B4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="B5" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="C7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3644,171 +3447,103 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.5454545454545"/>
-    <col min="2" max="2" customWidth="true" width="26.3636363636364"/>
-    <col min="3" max="3" customWidth="true" width="17.2727272727273"/>
-    <col min="4" max="4" customWidth="true" width="24.2727272727273"/>
-    <col min="5" max="5" customWidth="true" width="33.4545454545455"/>
+    <col min="1" max="1" customWidth="true" style="33" width="13.3636363636364"/>
+    <col min="2" max="2" customWidth="true" style="33" width="28.7272727272727"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
+    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
+    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="50" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="B2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="60" t="s">
+      <c r="E2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="60" t="s">
+      <c r="G2" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="61" t="s">
-        <v>44</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33">
+        <v>0</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mohamedrazul.s@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId2" display="123@g.in"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="37" width="12.6363636363636"/>
-    <col min="2" max="2" customWidth="true" style="37" width="28.7272727272727"/>
-    <col min="3" max="5" customWidth="true" style="37" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
-    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
-    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="44" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7">
-      <c r="G3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="37">
-        <v>0</v>
-      </c>
-      <c r="B6" s="37">
-        <v>1</v>
-      </c>
-      <c r="C6" s="37">
-        <v>2</v>
-      </c>
-      <c r="D6" s="37">
-        <v>3</v>
-      </c>
-      <c r="E6" s="37">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -3821,65 +3556,65 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
     <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="37" width="12.9090909090909"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
     <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
     <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
     <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="38" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="B2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>64</v>
+      <c r="E2" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="37"/>
-      <c r="F3" s="43" t="s">
-        <v>65</v>
+      <c r="B3" s="33"/>
+      <c r="F3" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3889,13 +3624,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3903,6 +3638,36 @@
       </c>
       <c r="G10">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.9090909090909"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3914,75 +3679,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.9090909090909"/>
+    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
+    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>256</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3994,86 +3708,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
-    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
     <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="20" width="27.6363636363636"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
     <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
     <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
     <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
@@ -4084,203 +3729,201 @@
     <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="W1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="X1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="Y1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="Z1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="AA1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="E2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="F2" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="G2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="I2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="J2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="K2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="L2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="M2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="R2" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="S2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="T2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="U2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="V2" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="23" t="s">
+      <c r="W2" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="X2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="Y2" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="Z2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>132</v>
+        <v>109</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="K3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>113</v>
+      </c>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -4301,7 +3944,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>6</v>
       </c>
       <c r="H8">
@@ -4366,130 +4009,163 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="28"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="28"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="28"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="28"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="28"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="28"/>
+      <c r="G50" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
+    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="10" activeTab="13"/>
+    <workbookView windowWidth="19635" windowHeight="7650" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>Environment Name</t>
   </si>
@@ -290,7 +290,7 @@
     <t>06/27/1980</t>
   </si>
   <si>
-    <t>Suite-15:18:09</t>
+    <t>Royal-08:15:41</t>
   </si>
   <si>
     <t>SDE</t>
@@ -335,6 +335,9 @@
     <t>1234567890</t>
   </si>
   <si>
+    <t>David-04:40</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -347,7 +350,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-24:18</t>
+    <t>Johnson S David-04:40</t>
   </si>
   <si>
     <t>female</t>
@@ -370,7 +373,7 @@
     </r>
   </si>
   <si>
-    <t>9342782327</t>
+    <t>9804003675</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -380,6 +383,9 @@
   </si>
   <si>
     <t>Individual ID</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Emily</t>
@@ -809,6 +815,12 @@
     <t>Manager Message</t>
   </si>
   <si>
+    <t>No Fall Reason</t>
+  </si>
+  <si>
+    <t>No Fall Description</t>
+  </si>
+  <si>
     <t>Arlia Thomas</t>
   </si>
   <si>
@@ -854,10 +866,10 @@
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-44:51</t>
-  </si>
-  <si>
-    <t>IR00243</t>
+    <t>Twisted Ankle-38:16</t>
+  </si>
+  <si>
+    <t>IR00312</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -894,6 +906,12 @@
   </si>
   <si>
     <t>Manager Test Message</t>
+  </si>
+  <si>
+    <t>Environmental factor</t>
+  </si>
+  <si>
+    <t>Test No fall.</t>
   </si>
 </sst>
 </file>
@@ -2310,91 +2328,91 @@
     </row>
     <row r="2" ht="17.25" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U2" s="58" t="s">
         <v>101</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z2" s="59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>91</v>
@@ -2403,12 +2421,12 @@
         <v>92</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2653,10 +2671,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2689,54 +2707,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">
       <c r="A2" s="59" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2767,18 +2785,18 @@
     </row>
     <row r="6" ht="17.25" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2811,60 +2829,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -2898,18 +2916,18 @@
     </row>
     <row r="6" ht="17.25" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2921,10 +2939,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0952380952381" defaultRowHeight="15"/>
@@ -2952,212 +2970,226 @@
     <col min="31" max="31" width="20.0952380952381" customWidth="1"/>
     <col min="32" max="32" width="24.2857142857143" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="16384" width="20.0952380952381" customWidth="1"/>
+    <col min="34" max="34" width="20.0952380952381" customWidth="1"/>
+    <col min="35" max="35" width="22.4285714285714" customWidth="1"/>
+    <col min="36" max="16384" width="20.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" ht="105" spans="1:33">
+        <v>202</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" ht="105" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>100</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+        <v>233</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:35">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3242,9 +3274,15 @@
       <c r="AG11" s="2">
         <v>32</v>
       </c>
+      <c r="AH11" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -3259,6 +3297,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
       <formula1>"Phone Call,Email,Text Message"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH10 AH12:AH1048576">
+      <formula1>"Environmental factor,Technical issue,User movement,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3682,8 +3723,8 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9047619047619" defaultRowHeight="15"/>
@@ -3848,43 +3889,45 @@
       <c r="U2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="W2" s="59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z2" s="59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -4115,13 +4158,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.2761904761905" customWidth="1"/>
     <col min="2" max="2" width="20.6380952380952" customWidth="1"/>
@@ -4130,13 +4173,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="301">
   <si>
     <t>Environment Name</t>
   </si>
@@ -155,10 +155,10 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Suite-15:19:33</t>
-  </si>
-  <si>
-    <t>Suite-15:20:30</t>
+    <t>Suite-20:25:48</t>
+  </si>
+  <si>
+    <t>Suite-20:27:58</t>
   </si>
   <si>
     <t>Update SuiteName</t>
@@ -185,18 +185,87 @@
     <t>In-Active</t>
   </si>
   <si>
-    <t>Royal-15:22:39</t>
+    <t>Royal-11:08:15</t>
   </si>
   <si>
     <t>CreatedSuites</t>
   </si>
   <si>
+    <t>Suite-13:04:03</t>
+  </si>
+  <si>
+    <t>Suite-15:30:20</t>
+  </si>
+  <si>
+    <t>Suite-17:03:49</t>
+  </si>
+  <si>
+    <t>Suite-18:33:51</t>
+  </si>
+  <si>
+    <t>Suite-18:35:44</t>
+  </si>
+  <si>
+    <t>Suite-18:41:04</t>
+  </si>
+  <si>
+    <t>Suite-18:45:05</t>
+  </si>
+  <si>
+    <t>Suite-18:48:28</t>
+  </si>
+  <si>
+    <t>Suite-18:53:34</t>
+  </si>
+  <si>
     <t>Created SuiteName</t>
   </si>
   <si>
     <t>Updated SuiteName</t>
   </si>
   <si>
+    <t>Royal-20:42:52</t>
+  </si>
+  <si>
+    <t>Royal-21:51:04</t>
+  </si>
+  <si>
+    <t>Royal-22:03:35</t>
+  </si>
+  <si>
+    <t>Royal-22:06:18</t>
+  </si>
+  <si>
+    <t>Royal-22:14:16</t>
+  </si>
+  <si>
+    <t>Royal-22:22:43</t>
+  </si>
+  <si>
+    <t>Royal-22:25:03</t>
+  </si>
+  <si>
+    <t>Royal-22:30:29</t>
+  </si>
+  <si>
+    <t>Royal-22:39:22</t>
+  </si>
+  <si>
+    <t>Royal-22:43:17</t>
+  </si>
+  <si>
+    <t>Royal-22:51:45</t>
+  </si>
+  <si>
+    <t>Royal-10:55:44</t>
+  </si>
+  <si>
+    <t>Royal-11:02:29</t>
+  </si>
+  <si>
+    <t>Royal-11:06:18</t>
+  </si>
+  <si>
     <t>First Name*</t>
   </si>
   <si>
@@ -296,6 +365,9 @@
     <t>06/27/1980</t>
   </si>
   <si>
+    <t>Royal-18:26:31</t>
+  </si>
+  <si>
     <t>SDE</t>
   </si>
   <si>
@@ -338,7 +410,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-24:59</t>
+    <t>David-19:48</t>
   </si>
   <si>
     <t>22</t>
@@ -353,10 +425,13 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-24:59</t>
+    <t>Johnson S David-19:48</t>
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>Suite-18:33:38</t>
   </si>
   <si>
     <t>439 Falls Road</t>
@@ -373,7 +448,7 @@
     </r>
   </si>
   <si>
-    <t>9410283942</t>
+    <t>9119479941</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -383,6 +458,84 @@
   </si>
   <si>
     <t>Individual ID</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Johnson S David-59:12</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Johnson S David-12:25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Johnson S David-49:22</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Suite-17:27:53</t>
+  </si>
+  <si>
+    <t>Johnson S David-15:46</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>Emily</t>
@@ -815,7 +968,7 @@
     <t>Manager Message</t>
   </si>
   <si>
-    <t>Johnson S David-24:59(Suite-15:19:33)</t>
+    <t>Johnson S David-15:46(Suite-17:27:53)</t>
   </si>
   <si>
     <t>02/02/202401:24PM</t>
@@ -890,7 +1043,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Johnson David-24:59</t>
+    <t>Johnson David-15:46</t>
   </si>
   <si>
     <t>test</t>
@@ -905,10 +1058,55 @@
     <t>Manager Test Message</t>
   </si>
   <si>
-    <t>Suite-13:04:03</t>
-  </si>
-  <si>
-    <t>Suite-15:30:20</t>
+    <t>David-23:52</t>
+  </si>
+  <si>
+    <t>Johnson S David-23:52</t>
+  </si>
+  <si>
+    <t>9679326379</t>
+  </si>
+  <si>
+    <t>9041663469</t>
+  </si>
+  <si>
+    <t>9355756969</t>
+  </si>
+  <si>
+    <t>David-24:52</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:52</t>
+  </si>
+  <si>
+    <t>9405240724</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Johnson David-24:52</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:52(Johnson S David-24:52)</t>
+  </si>
+  <si>
+    <t>David-26:06</t>
+  </si>
+  <si>
+    <t>Johnson S David-26:06</t>
+  </si>
+  <si>
+    <t>9593494525</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Johnson David-26:06</t>
+  </si>
+  <si>
+    <t>Johnson S David-26:06(Suite-18:33:38)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1771,6 +1969,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,8 +2032,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2174,34 +2373,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2242,190 +2441,190 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>119</v>
+        <v>169</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="V2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="X2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="Y2" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="Z2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>107</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2670,10 +2869,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2706,54 +2905,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="59" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>202</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>155</v>
+        <v>205</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2784,18 +2983,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2828,60 +3027,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>164</v>
+        <v>214</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>168</v>
+        <v>218</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>219</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -2915,18 +3114,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +3139,7 @@
   <sheetPr/>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2975,204 +3174,204 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:33">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:33">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
@@ -3312,10 +3511,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6"/>
@@ -3346,13 +3545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -3360,13 +3559,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3374,61 +3573,61 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6"/>
@@ -3458,58 +3657,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="13.3636363636364"/>
-    <col min="2" max="2" customWidth="true" style="33" width="28.7272727272727"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
+    <col min="1" max="1" customWidth="true" style="34" width="13.3636363636364"/>
+    <col min="2" max="2" customWidth="true" style="34" width="28.7272727272727"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.6363636363636"/>
     <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
     <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
     <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="7:7">
@@ -3518,19 +3717,19 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>0</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
       <c r="F6">
@@ -3559,61 +3758,61 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
     <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.9090909090909"/>
     <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
     <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
     <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="33"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="34"/>
+      <c r="F3" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -3627,13 +3826,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
       <c r="F10">
@@ -3652,7 +3851,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
@@ -3668,14 +3867,59 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3931,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
@@ -3700,11 +3944,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>55</v>
+      <c r="A1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3718,8 +4061,8 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
@@ -3739,190 +4082,192 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>234</v>
+        <v>110</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>112</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>126</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="W2" s="59" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="Z2" s="59" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>134</v>
+      </c>
       <c r="K3" s="28" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" s="27"/>
@@ -4151,7 +4496,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4166,13 +4511,152 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="7" activeTab="7"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="416">
   <si>
     <t>Environment Name</t>
   </si>
@@ -410,7 +410,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-19:48</t>
+    <t>David-26:06</t>
   </si>
   <si>
     <t>22</t>
@@ -425,7 +425,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-19:48</t>
+    <t>Johnson S David-26:06</t>
   </si>
   <si>
     <t>female</t>
@@ -448,7 +448,7 @@
     </r>
   </si>
   <si>
-    <t>9119479941</t>
+    <t>9593494525</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:52</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Emily S Martin-57:17</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>Emily</t>
@@ -602,10 +614,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-44:45</t>
-  </si>
-  <si>
-    <t>Emily S Martin-44:45</t>
+    <t>Martin-57:17</t>
   </si>
   <si>
     <t>Male</t>
@@ -614,7 +623,7 @@
     <t>Royal-21:49:51</t>
   </si>
   <si>
-    <t>9312494783</t>
+    <t>9614317168</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -624,6 +633,9 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
+  </si>
+  <si>
+    <t>Emily S Martin-50:12</t>
   </si>
   <si>
     <r>
@@ -968,7 +980,7 @@
     <t>Manager Message</t>
   </si>
   <si>
-    <t>Johnson S David-15:46(Suite-17:27:53)</t>
+    <t>Emily S Martin-27:12(Suite-10:37:23)</t>
   </si>
   <si>
     <t>02/02/202401:24PM</t>
@@ -1013,7 +1025,7 @@
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-24:49</t>
+    <t>Twisted Ankle-54:39</t>
   </si>
   <si>
     <t>IR00361</t>
@@ -1043,7 +1055,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Johnson David-15:46</t>
+    <t>Emily Martin-57:17</t>
   </si>
   <si>
     <t>test</t>
@@ -1058,55 +1070,388 @@
     <t>Manager Test Message</t>
   </si>
   <si>
-    <t>David-23:52</t>
-  </si>
-  <si>
-    <t>Johnson S David-23:52</t>
-  </si>
-  <si>
-    <t>9679326379</t>
-  </si>
-  <si>
-    <t>9041663469</t>
-  </si>
-  <si>
-    <t>9355756969</t>
-  </si>
-  <si>
-    <t>David-24:52</t>
-  </si>
-  <si>
-    <t>Johnson S David-24:52</t>
-  </si>
-  <si>
-    <t>9405240724</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Johnson David-24:52</t>
-  </si>
-  <si>
-    <t>Johnson S David-24:52(Johnson S David-24:52)</t>
-  </si>
-  <si>
-    <t>David-26:06</t>
-  </si>
-  <si>
-    <t>Johnson S David-26:06</t>
-  </si>
-  <si>
-    <t>9593494525</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Johnson David-26:06</t>
-  </si>
-  <si>
-    <t>Johnson S David-26:06(Suite-18:33:38)</t>
+    <t>Twisted Ankle-04:41</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-25:20</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-44:32</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-47:06</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-40:26</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-43:03</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-56:44</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-59:26</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-15:56</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-18:34</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-38:25</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-41:01</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-45:29</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-47:49</t>
+  </si>
+  <si>
+    <t>02/08/202410:54PM</t>
+  </si>
+  <si>
+    <t>02/08/202411:11PM</t>
+  </si>
+  <si>
+    <t>02/08/202411:13PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-14:06</t>
+  </si>
+  <si>
+    <t>2/8/2024</t>
+  </si>
+  <si>
+    <t>11:14PM</t>
+  </si>
+  <si>
+    <t>IR00374</t>
+  </si>
+  <si>
+    <t>02/08/202411:17PM</t>
+  </si>
+  <si>
+    <t>02/08/202411:22PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-22:53</t>
+  </si>
+  <si>
+    <t>11:22PM</t>
+  </si>
+  <si>
+    <t>IR00375</t>
+  </si>
+  <si>
+    <t>02/08/202411:26PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-27:13</t>
+  </si>
+  <si>
+    <t>11:27PM</t>
+  </si>
+  <si>
+    <t>IR00376</t>
+  </si>
+  <si>
+    <t>Suite-23:42:57</t>
+  </si>
+  <si>
+    <t>Suite-23:45:12</t>
+  </si>
+  <si>
+    <t>Royal-23:46:18</t>
+  </si>
+  <si>
+    <t>David-47:14</t>
+  </si>
+  <si>
+    <t>Johnson S David-47:14</t>
+  </si>
+  <si>
+    <t>9557112689</t>
+  </si>
+  <si>
+    <t>9645080841</t>
+  </si>
+  <si>
+    <t>9359513053</t>
+  </si>
+  <si>
+    <t>David-48:16</t>
+  </si>
+  <si>
+    <t>Johnson S David-48:16</t>
+  </si>
+  <si>
+    <t>9056212311</t>
+  </si>
+  <si>
+    <t>David-52:14</t>
+  </si>
+  <si>
+    <t>Johnson S David-52:14</t>
+  </si>
+  <si>
+    <t>9349193907</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Johnson David-52:14</t>
+  </si>
+  <si>
+    <t>Johnson S David-52:14(Royal-23:46:18)</t>
+  </si>
+  <si>
+    <t>Martin-55:34</t>
+  </si>
+  <si>
+    <t>9921287462</t>
+  </si>
+  <si>
+    <t>Emily S Martin-55:34</t>
+  </si>
+  <si>
+    <t>Emily Martin-55:34</t>
+  </si>
+  <si>
+    <t>Emily S Martin-55:34(Royal-23:46:18)</t>
+  </si>
+  <si>
+    <t>Suite-07:49:55</t>
+  </si>
+  <si>
+    <t>Suite-07:53:56</t>
+  </si>
+  <si>
+    <t>Suite-07:55:00</t>
+  </si>
+  <si>
+    <t>Suite-08:09:22</t>
+  </si>
+  <si>
+    <t>Suite-08:13:04</t>
+  </si>
+  <si>
+    <t>Suite-08:15:59</t>
+  </si>
+  <si>
+    <t>Suite-08:18:08</t>
+  </si>
+  <si>
+    <t>Suite-08:34:20</t>
+  </si>
+  <si>
+    <t>Suite-08:38:50</t>
+  </si>
+  <si>
+    <t>Suite-08:52:10</t>
+  </si>
+  <si>
+    <t>Royal-09:13:46</t>
+  </si>
+  <si>
+    <t>David-23:08</t>
+  </si>
+  <si>
+    <t>Johnson S David-23:08</t>
+  </si>
+  <si>
+    <t>9907326634</t>
+  </si>
+  <si>
+    <t>9555558788</t>
+  </si>
+  <si>
+    <t>9867715895</t>
+  </si>
+  <si>
+    <t>David-24:05</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:05</t>
+  </si>
+  <si>
+    <t>9190233040</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Johnson David-24:05</t>
+  </si>
+  <si>
+    <t>Johnson S David-24:05(Johnson S David-24:05)</t>
+  </si>
+  <si>
+    <t>David-25:06</t>
+  </si>
+  <si>
+    <t>Johnson S David-25:06</t>
+  </si>
+  <si>
+    <t>9484788180</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Johnson David-25:06</t>
+  </si>
+  <si>
+    <t>Johnson S David-25:06(Royal-09:13:46)</t>
+  </si>
+  <si>
+    <t>02/09/202411:16AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-17:29</t>
+  </si>
+  <si>
+    <t>2/9/2024</t>
+  </si>
+  <si>
+    <t>11:17AM</t>
+  </si>
+  <si>
+    <t>IR00377</t>
+  </si>
+  <si>
+    <t>02/09/202411:21AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-22:19</t>
+  </si>
+  <si>
+    <t>11:22AM</t>
+  </si>
+  <si>
+    <t>IR00378</t>
+  </si>
+  <si>
+    <t>02/09/202411:27AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-28:18</t>
+  </si>
+  <si>
+    <t>11:28AM</t>
+  </si>
+  <si>
+    <t>IR00379</t>
+  </si>
+  <si>
+    <t>02/09/202411:36AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-36:42</t>
+  </si>
+  <si>
+    <t>11:36AM</t>
+  </si>
+  <si>
+    <t>IR00380</t>
+  </si>
+  <si>
+    <t>02/09/202411:41AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-41:54</t>
+  </si>
+  <si>
+    <t>11:41AM</t>
+  </si>
+  <si>
+    <t>IR00381</t>
+  </si>
+  <si>
+    <t>02/09/202411:44AM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-45:28</t>
+  </si>
+  <si>
+    <t>11:45AM</t>
+  </si>
+  <si>
+    <t>IR00382</t>
+  </si>
+  <si>
+    <t>02/09/202412:37PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-37:10</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-37:51</t>
+  </si>
+  <si>
+    <t>02/09/202412:38PM</t>
+  </si>
+  <si>
+    <t>02/09/202412:41PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-41:28</t>
+  </si>
+  <si>
+    <t>02/09/202412:42PM</t>
+  </si>
+  <si>
+    <t>12:43PM</t>
+  </si>
+  <si>
+    <t>02/09/202412:43PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-44:07</t>
+  </si>
+  <si>
+    <t>12:44PM</t>
+  </si>
+  <si>
+    <t>02/09/202412:45PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-45:38</t>
+  </si>
+  <si>
+    <t>12:45PM</t>
+  </si>
+  <si>
+    <t>IR00386</t>
+  </si>
+  <si>
+    <t>02/09/202412:49PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-49:51</t>
+  </si>
+  <si>
+    <t>12:49PM</t>
+  </si>
+  <si>
+    <t>IR00387</t>
+  </si>
+  <si>
+    <t>02/09/202412:52PM</t>
+  </si>
+  <si>
+    <t>Twisted Ankle-53:08</t>
+  </si>
+  <si>
+    <t>12:53PM</t>
+  </si>
+  <si>
+    <t>IR00388</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +2267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1931,13 +2276,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2040,6 +2385,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2524,34 +2872,34 @@
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>169</v>
+      <c r="E2" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>135</v>
@@ -2560,34 +2908,34 @@
         <v>136</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="N2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="R2" s="31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>183</v>
+      <c r="V2" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="W2" s="59" t="s">
         <v>128</v>
@@ -2601,16 +2949,16 @@
       <c r="Z2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>184</v>
+      <c r="AA2" s="8" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="5:21">
-      <c r="E3" s="6" t="s">
-        <v>185</v>
+      <c r="E3" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>116</v>
@@ -2618,13 +2966,13 @@
       <c r="L3" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>187</v>
+      <c r="U3" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="6" t="s">
-        <v>188</v>
+      <c r="E4" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2855,13 +3203,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
     <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
@@ -2869,10 +3217,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2905,54 +3277,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2983,18 +3355,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3027,64 +3399,64 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>213</v>
+      <c r="A2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="9:9">
-      <c r="I3" s="6"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -3114,18 +3486,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3139,8 +3511,8 @@
   <sheetPr/>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
@@ -3174,204 +3546,204 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:33">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:33">
-      <c r="A2" s="6" t="s">
-        <v>300</v>
+      <c r="A2" s="64" t="s">
+        <v>367</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="H2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="S2" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="V2" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="X2" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD2" s="6" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AA2" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AB2" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>283</v>
+      <c r="AC2" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
@@ -3517,7 +3889,7 @@
       <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3568,7 +3940,7 @@
       <c r="C2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3582,7 +3954,7 @@
       <c r="C3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="48" t="s">
@@ -3594,7 +3966,7 @@
       <c r="C4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="48" t="s">
@@ -3606,7 +3978,7 @@
       <c r="C5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="48" t="s">
@@ -3618,7 +3990,7 @@
       <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="48" t="s">
@@ -3630,7 +4002,7 @@
       <c r="C7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3707,13 +4079,13 @@
       <c r="F2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
+      <c r="G2" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="6" t="s">
-        <v>43</v>
+      <c r="G3" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3806,8 +4178,8 @@
       <c r="F2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
+      <c r="G2" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -3815,8 +4187,8 @@
       <c r="F3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
+      <c r="G3" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3851,7 +4223,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
@@ -3922,6 +4294,66 @@
         <v>52</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3931,7 +4363,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
@@ -4050,6 +4482,22 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4061,7 +4509,7 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4167,31 +4615,31 @@
       <c r="A2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>111</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="30" t="s">
@@ -4203,32 +4651,32 @@
       <c r="M2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>122</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>125</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>295</v>
+      <c r="V2" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="W2" s="59" t="s">
         <v>128</v>
@@ -4242,16 +4690,16 @@
       <c r="Z2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>296</v>
+      <c r="AA2" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="5:21">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>135</v>
@@ -4259,12 +4707,12 @@
       <c r="L3" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>297</v>
+      <c r="U3" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>138</v>
       </c>
       <c r="G4" s="32"/>
@@ -4496,7 +4944,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4640,23 +5088,53 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -13,22 +13,26 @@
     <sheet name="Forgot Password" sheetId="16" r:id="rId4"/>
     <sheet name="AddSuites" sheetId="3" r:id="rId5"/>
     <sheet name="EditSuites" sheetId="4" r:id="rId6"/>
-    <sheet name="CreatedSuites" sheetId="6" r:id="rId7"/>
-    <sheet name="UpdatedSuites" sheetId="7" r:id="rId8"/>
-    <sheet name="AddIndividuals" sheetId="8" r:id="rId9"/>
-    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId10"/>
-    <sheet name="EditIndividuals" sheetId="10" r:id="rId11"/>
-    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId12"/>
-    <sheet name="AddVitals" sheetId="11" r:id="rId13"/>
-    <sheet name="EditVitals" sheetId="13" r:id="rId14"/>
-    <sheet name="Incident Reports" sheetId="15" r:id="rId15"/>
+    <sheet name="AddCommonArea" sheetId="17" r:id="rId7"/>
+    <sheet name="EditCommonArea" sheetId="18" r:id="rId8"/>
+    <sheet name="CreatedSuites" sheetId="6" r:id="rId9"/>
+    <sheet name="CreatedCommonArea" sheetId="19" r:id="rId10"/>
+    <sheet name="UpdatedSuites" sheetId="7" r:id="rId11"/>
+    <sheet name="UpdatedCommonArea" sheetId="20" r:id="rId12"/>
+    <sheet name="AddIndividuals" sheetId="8" r:id="rId13"/>
+    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId14"/>
+    <sheet name="EditIndividuals" sheetId="10" r:id="rId15"/>
+    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId16"/>
+    <sheet name="AddVitals" sheetId="11" r:id="rId17"/>
+    <sheet name="EditVitals" sheetId="13" r:id="rId18"/>
+    <sheet name="Incident Reports" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="333">
   <si>
     <t>Environment Name</t>
   </si>
@@ -218,6 +222,12 @@
     <t>Available</t>
   </si>
   <si>
+    <t>Suite-15:27:12</t>
+  </si>
+  <si>
+    <t>Suite-15:27:34</t>
+  </si>
+  <si>
     <t>Update SuiteName</t>
   </si>
   <si>
@@ -242,15 +252,180 @@
     <t>In-Active</t>
   </si>
   <si>
+    <t>Royal-15:28:52</t>
+  </si>
+  <si>
+    <t>Common Area Name*</t>
+  </si>
+  <si>
+    <t>Common Area Availability</t>
+  </si>
+  <si>
+    <t>Created Common Area</t>
+  </si>
+  <si>
+    <t>Patio</t>
+  </si>
+  <si>
+    <t>Patio-15:29:42</t>
+  </si>
+  <si>
+    <t>Patio-15:30:01</t>
+  </si>
+  <si>
+    <t>Update Common Area Name</t>
+  </si>
+  <si>
+    <t>CreatedCommon Area Availability</t>
+  </si>
+  <si>
+    <t>Exist-Common Area Name</t>
+  </si>
+  <si>
+    <t>Lawns</t>
+  </si>
+  <si>
+    <t>Lawns-15:31:08</t>
+  </si>
+  <si>
     <t>CreatedSuites</t>
   </si>
   <si>
+    <t>Suite-22:39:45</t>
+  </si>
+  <si>
+    <t>Suite-22:40:36</t>
+  </si>
+  <si>
+    <t>Suite-07:39:35</t>
+  </si>
+  <si>
+    <t>Suite-07:39:58</t>
+  </si>
+  <si>
+    <t>Suite-08:11:24</t>
+  </si>
+  <si>
+    <t>Royal-08:13:00</t>
+  </si>
+  <si>
+    <t>Suite-12:02:46</t>
+  </si>
+  <si>
+    <t>Royal-12:04:31</t>
+  </si>
+  <si>
+    <t>Suite-12:27:18</t>
+  </si>
+  <si>
+    <t>Royal-12:28:57</t>
+  </si>
+  <si>
+    <t>Suite-14:01:20</t>
+  </si>
+  <si>
+    <t>Royal-14:03:13</t>
+  </si>
+  <si>
+    <t>Suite-15:00:28</t>
+  </si>
+  <si>
+    <t>Royal-15:02:06</t>
+  </si>
+  <si>
+    <t>Patio-22:43:12</t>
+  </si>
+  <si>
+    <t>Lawns-22:44:36</t>
+  </si>
+  <si>
+    <t>Patio-08:13:49</t>
+  </si>
+  <si>
+    <t>Lawns-08:15:12</t>
+  </si>
+  <si>
+    <t>Patio-12:06:14</t>
+  </si>
+  <si>
+    <t>Patio-12:30:45</t>
+  </si>
+  <si>
+    <t>Lawns-12:33:27</t>
+  </si>
+  <si>
+    <t>Patio-12:56:36</t>
+  </si>
+  <si>
+    <t>Lawns-12:57:54</t>
+  </si>
+  <si>
+    <t>Patio-13:02:36</t>
+  </si>
+  <si>
+    <t>Lawns-13:04:08</t>
+  </si>
+  <si>
+    <t>Patio-14:04:15</t>
+  </si>
+  <si>
+    <t>Lawns-14:06:01</t>
+  </si>
+  <si>
+    <t>Patio-15:02:57</t>
+  </si>
+  <si>
+    <t>Lawns-15:04:23</t>
+  </si>
+  <si>
     <t>Created SuiteName</t>
   </si>
   <si>
     <t>Updated SuiteName</t>
   </si>
   <si>
+    <t>Suite-08:11:45</t>
+  </si>
+  <si>
+    <t>Suite-12:03:12</t>
+  </si>
+  <si>
+    <t>Suite-12:27:40</t>
+  </si>
+  <si>
+    <t>Suite-14:01:46</t>
+  </si>
+  <si>
+    <t>Suite-15:00:49</t>
+  </si>
+  <si>
+    <t>Created Common Area Name</t>
+  </si>
+  <si>
+    <t>Updated Common Area Name</t>
+  </si>
+  <si>
+    <t>Patio-22:43:32</t>
+  </si>
+  <si>
+    <t>Patio-08:14:09</t>
+  </si>
+  <si>
+    <t>Patio-12:31:48</t>
+  </si>
+  <si>
+    <t>Patio-12:56:57</t>
+  </si>
+  <si>
+    <t>Patio-13:02:57</t>
+  </si>
+  <si>
+    <t>Patio-14:04:38</t>
+  </si>
+  <si>
+    <t>Patio-15:03:18</t>
+  </si>
+  <si>
     <t>First Name*</t>
   </si>
   <si>
@@ -392,7 +567,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-09:08</t>
+    <t>David-34:11</t>
   </si>
   <si>
     <t>22</t>
@@ -405,6 +580,9 @@
   </si>
   <si>
     <t>1985</t>
+  </si>
+  <si>
+    <t>Johnson S David-34:11</t>
   </si>
   <si>
     <t>female</t>
@@ -424,7 +602,7 @@
     </r>
   </si>
   <si>
-    <t>9106486170</t>
+    <t>9801488212</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -434,6 +612,78 @@
   </si>
   <si>
     <t>Individual ID</t>
+  </si>
+  <si>
+    <t>Emily S Martin-32:45</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Johnson S David-09:45</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Emily S Martin-22:12</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Johnson S David-35:12</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Emily S Martin-40:34</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Johnson S David-10:39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Johnson S David-08:05</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Emily S Martin-13:28</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Johnson S David-06:35</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Emily S Martin-11:18</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Johnson S David-32:53</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>Emily</t>
@@ -497,13 +747,13 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-13:06</t>
+    <t>Martin-11:18</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9548510431</t>
+    <t>9167396001</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -513,6 +763,18 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
+  </si>
+  <si>
+    <t>Johnson S David-11:11</t>
+  </si>
+  <si>
+    <t>Johnson S David-36:09</t>
+  </si>
+  <si>
+    <t>Johnson S David-09:38</t>
+  </si>
+  <si>
+    <t>Johnson S David-07:51</t>
   </si>
   <si>
     <r>
@@ -857,7 +1119,7 @@
     <t>Manager Message</t>
   </si>
   <si>
-    <t>Emily S Martin-13:06(Royal-22:05:26)</t>
+    <t>Johnson S David-32:53(Suite-15:27:12)</t>
   </si>
   <si>
     <t>02/21/202411:35PM</t>
@@ -932,7 +1194,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Emily Martin-13:06</t>
+    <t>Johnson David-32:53</t>
   </si>
   <si>
     <t>test</t>
@@ -945,6 +1207,24 @@
   </si>
   <si>
     <t>Manager Test Message</t>
+  </si>
+  <si>
+    <t>David-42:29</t>
+  </si>
+  <si>
+    <t>Johnson S David-42:29</t>
+  </si>
+  <si>
+    <t>9760721692</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Johnson David-42:29</t>
+  </si>
+  <si>
+    <t>Johnson S David-42:29(Royal-15:28:52)</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +2058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1914,6 +2194,7 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2247,14 +2528,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="29.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0"/>
+    <col min="2" max="2" customWidth="true" width="29.9090909090909"/>
+    <col min="3" max="3" customWidth="true" width="26.3636363636364"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2304,28 +2585,106 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C17"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7272727272727"/>
+    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>126</v>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2337,427 +2696,73 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
-    <col min="28" max="16383" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
+    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="12" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" s="12" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" ht="17.5" spans="1:27">
-      <c r="A2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="5:21">
-      <c r="E3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="K3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="7:7">
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="7:7">
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-      <c r="P8">
-        <v>15</v>
-      </c>
-      <c r="Q8">
-        <v>16</v>
-      </c>
-      <c r="R8">
-        <v>17</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>19</v>
-      </c>
-      <c r="U8">
-        <v>20</v>
-      </c>
-      <c r="V8">
-        <v>21</v>
-      </c>
-      <c r="W8">
-        <v>22</v>
-      </c>
-      <c r="X8">
-        <v>23</v>
-      </c>
-      <c r="Y8">
-        <v>24</v>
-      </c>
-      <c r="Z8">
-        <v>25</v>
-      </c>
-      <c r="AA8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="7:7">
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="7:7">
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="7:7">
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="7:7">
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="27"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2768,24 +2773,88 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="30.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>147</v>
+      <c r="A1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2797,118 +2866,434 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
+    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="C2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="E2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="F2" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="I2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="J2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="K2" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="L2" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="M2" s="29" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="N2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="W2" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="5:21">
+      <c r="E3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G8" s="27">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="17.5" spans="7:8">
-      <c r="G6" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" ht="17.5" spans="7:8">
-      <c r="G7" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>167</v>
-      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>19</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>21</v>
+      </c>
+      <c r="W8">
+        <v>22</v>
+      </c>
+      <c r="X8">
+        <v>23</v>
+      </c>
+      <c r="Y8">
+        <v>24</v>
+      </c>
+      <c r="Z8">
+        <v>25</v>
+      </c>
+      <c r="AA8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2917,6 +3302,796 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
+    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA50"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
+    <col min="28" max="16383" customWidth="true" width="10.9090909090909"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
+      <c r="A1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" ht="17.5" spans="1:27">
+      <c r="A2" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="W2" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="5:21">
+      <c r="E3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="K3" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>19</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>21</v>
+      </c>
+      <c r="W8">
+        <v>22</v>
+      </c>
+      <c r="X8">
+        <v>23</v>
+      </c>
+      <c r="Y8">
+        <v>24</v>
+      </c>
+      <c r="Z8">
+        <v>25</v>
+      </c>
+      <c r="AA8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="10" customFormat="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:8">
+      <c r="A2" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="17.5" spans="7:8">
+      <c r="G6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" ht="17.5" spans="7:8">
+      <c r="G7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -2927,73 +4102,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>172</v>
+        <v>257</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>258</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>176</v>
+        <v>261</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>262</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3027,18 +4202,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3047,244 +4222,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
-    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
-    <col min="12" max="18" width="20.0909090909091" customWidth="1"/>
-    <col min="19" max="19" width="26.4272727272727" customWidth="1"/>
-    <col min="20" max="20" width="22.1454545454545" customWidth="1"/>
-    <col min="21" max="21" width="47.1454545454545" customWidth="1"/>
-    <col min="22" max="23" width="54.7181818181818" customWidth="1"/>
-    <col min="24" max="24" width="47.1454545454545" customWidth="1"/>
-    <col min="25" max="25" width="44.8545454545455" customWidth="1"/>
-    <col min="26" max="27" width="55" customWidth="1"/>
-    <col min="28" max="28" width="46.7181818181818" customWidth="1"/>
-    <col min="29" max="29" width="20.0909090909091" customWidth="1"/>
-    <col min="30" max="30" width="33.5727272727273" customWidth="1"/>
-    <col min="31" max="31" width="20.0909090909091" customWidth="1"/>
-    <col min="32" max="32" width="24.2818181818182" customWidth="1"/>
-    <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="16384" width="20.0909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="20.0909090909091"/>
+    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
+    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
+    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
+    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
+    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
+    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
+    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
+    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
+    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
+    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
+    <col min="20" max="20" customWidth="true" width="22.1454545454545"/>
+    <col min="21" max="21" customWidth="true" width="47.1454545454545"/>
+    <col min="22" max="23" customWidth="true" width="54.7181818181818"/>
+    <col min="24" max="24" customWidth="true" width="47.1454545454545"/>
+    <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
+    <col min="26" max="27" customWidth="true" width="55.0"/>
+    <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
+    <col min="29" max="29" customWidth="true" width="20.0909090909091"/>
+    <col min="30" max="30" customWidth="true" width="33.5727272727273"/>
+    <col min="31" max="31" customWidth="true" width="20.0909090909091"/>
+    <col min="32" max="32" customWidth="true" width="24.2818181818182"/>
+    <col min="33" max="33" customWidth="true" width="23.0"/>
+    <col min="34" max="16384" customWidth="true" width="20.0909090909091"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:33">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:33">
-      <c r="A2" s="73" t="s">
-        <v>211</v>
+      <c r="A2" s="74" t="s">
+        <v>332</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:33">
@@ -3407,9 +4582,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
+    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3452,9 +4627,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="16382" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="34.0"/>
+    <col min="3" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3570,13 +4745,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="37.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
-    <col min="7" max="16381" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="31.1818181818182"/>
+    <col min="3" max="3" customWidth="true" width="14.1818181818182"/>
+    <col min="4" max="4" customWidth="true" width="20.8181818181818"/>
+    <col min="5" max="5" customWidth="true" style="47" width="53.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="16.0909090909091"/>
+    <col min="7" max="16381" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
@@ -3674,17 +4849,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22" style="34" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="34" customWidth="1"/>
-    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
-    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="13.3636363636364"/>
+    <col min="2" max="2" customWidth="true" style="34" width="22.0"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
+    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
+    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
@@ -3729,10 +4904,14 @@
       <c r="F2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="34">
@@ -3774,17 +4953,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="34" customWidth="1"/>
-    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
+    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.9090909090909"/>
+    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
+    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
+    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -3799,15 +4978,15 @@
         <v>49</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>20</v>
@@ -3816,22 +4995,26 @@
         <v>54</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="34"/>
       <c r="F3" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -3865,20 +5048,94 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="25.0909090909091"/>
+    <col min="2" max="2" customWidth="true" style="34" width="22.0"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="28.8181818181818"/>
+    <col min="7" max="7" customWidth="true" width="30.3636363636364"/>
+    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
-        <v>65</v>
+    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7">
+      <c r="G3" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="34">
+        <v>0</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3890,24 +5147,98 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.8181818181818"/>
+    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
+    <col min="3" max="5" customWidth="true" style="34" width="12.9090909090909"/>
+    <col min="6" max="6" customWidth="true" width="36.8181818181818"/>
+    <col min="7" max="7" customWidth="true" width="33.2727272727273"/>
+    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+    <row r="1" ht="19.5" spans="1:7">
+      <c r="A1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="34"/>
+      <c r="F3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>67</v>
+      <c r="G3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3919,428 +5250,102 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
-    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.1818181818182"/>
+    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
-      <c r="A1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="21" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="20" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="21" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="21" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="3" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="3" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="3" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="3" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="3" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="12" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="12" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="12" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="5:21">
-      <c r="E3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3"/>
-      <c r="K3" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="7:7">
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="7:7">
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-      <c r="P8">
-        <v>15</v>
-      </c>
-      <c r="Q8">
-        <v>16</v>
-      </c>
-      <c r="R8">
-        <v>17</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>19</v>
-      </c>
-      <c r="U8">
-        <v>20</v>
-      </c>
-      <c r="V8">
-        <v>21</v>
-      </c>
-      <c r="W8">
-        <v>22</v>
-      </c>
-      <c r="X8">
-        <v>23</v>
-      </c>
-      <c r="Y8">
-        <v>24</v>
-      </c>
-      <c r="Z8">
-        <v>25</v>
-      </c>
-      <c r="AA8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="7:7">
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="7:7">
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="7:7">
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="7:7">
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="7:7">
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="7:7">
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="7:7">
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="27"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="11" activeTab="12"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="257">
   <si>
     <t>Environment Name</t>
   </si>
@@ -222,12 +222,6 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Suite-15:27:12</t>
-  </si>
-  <si>
-    <t>Suite-15:27:34</t>
-  </si>
-  <si>
     <t>Update SuiteName</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>In-Active</t>
   </si>
   <si>
-    <t>Royal-15:28:52</t>
-  </si>
-  <si>
     <t>Common Area Name*</t>
   </si>
   <si>
@@ -267,12 +258,6 @@
     <t>Patio</t>
   </si>
   <si>
-    <t>Patio-15:29:42</t>
-  </si>
-  <si>
-    <t>Patio-15:30:01</t>
-  </si>
-  <si>
     <t>Update Common Area Name</t>
   </si>
   <si>
@@ -285,147 +270,21 @@
     <t>Lawns</t>
   </si>
   <si>
-    <t>Lawns-15:31:08</t>
-  </si>
-  <si>
     <t>CreatedSuites</t>
   </si>
   <si>
-    <t>Suite-22:39:45</t>
-  </si>
-  <si>
-    <t>Suite-22:40:36</t>
-  </si>
-  <si>
-    <t>Suite-07:39:35</t>
-  </si>
-  <si>
-    <t>Suite-07:39:58</t>
-  </si>
-  <si>
-    <t>Suite-08:11:24</t>
-  </si>
-  <si>
-    <t>Royal-08:13:00</t>
-  </si>
-  <si>
-    <t>Suite-12:02:46</t>
-  </si>
-  <si>
-    <t>Royal-12:04:31</t>
-  </si>
-  <si>
-    <t>Suite-12:27:18</t>
-  </si>
-  <si>
-    <t>Royal-12:28:57</t>
-  </si>
-  <si>
-    <t>Suite-14:01:20</t>
-  </si>
-  <si>
-    <t>Royal-14:03:13</t>
-  </si>
-  <si>
-    <t>Suite-15:00:28</t>
-  </si>
-  <si>
-    <t>Royal-15:02:06</t>
-  </si>
-  <si>
-    <t>Patio-22:43:12</t>
-  </si>
-  <si>
-    <t>Lawns-22:44:36</t>
-  </si>
-  <si>
-    <t>Patio-08:13:49</t>
-  </si>
-  <si>
-    <t>Lawns-08:15:12</t>
-  </si>
-  <si>
-    <t>Patio-12:06:14</t>
-  </si>
-  <si>
-    <t>Patio-12:30:45</t>
-  </si>
-  <si>
-    <t>Lawns-12:33:27</t>
-  </si>
-  <si>
-    <t>Patio-12:56:36</t>
-  </si>
-  <si>
-    <t>Lawns-12:57:54</t>
-  </si>
-  <si>
-    <t>Patio-13:02:36</t>
-  </si>
-  <si>
-    <t>Lawns-13:04:08</t>
-  </si>
-  <si>
-    <t>Patio-14:04:15</t>
-  </si>
-  <si>
-    <t>Lawns-14:06:01</t>
-  </si>
-  <si>
-    <t>Patio-15:02:57</t>
-  </si>
-  <si>
-    <t>Lawns-15:04:23</t>
-  </si>
-  <si>
     <t>Created SuiteName</t>
   </si>
   <si>
     <t>Updated SuiteName</t>
   </si>
   <si>
-    <t>Suite-08:11:45</t>
-  </si>
-  <si>
-    <t>Suite-12:03:12</t>
-  </si>
-  <si>
-    <t>Suite-12:27:40</t>
-  </si>
-  <si>
-    <t>Suite-14:01:46</t>
-  </si>
-  <si>
-    <t>Suite-15:00:49</t>
-  </si>
-  <si>
     <t>Created Common Area Name</t>
   </si>
   <si>
     <t>Updated Common Area Name</t>
   </si>
   <si>
-    <t>Patio-22:43:32</t>
-  </si>
-  <si>
-    <t>Patio-08:14:09</t>
-  </si>
-  <si>
-    <t>Patio-12:31:48</t>
-  </si>
-  <si>
-    <t>Patio-12:56:57</t>
-  </si>
-  <si>
-    <t>Patio-13:02:57</t>
-  </si>
-  <si>
-    <t>Patio-14:04:38</t>
-  </si>
-  <si>
-    <t>Patio-15:03:18</t>
-  </si>
-  <si>
     <t>First Name*</t>
   </si>
   <si>
@@ -567,7 +426,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-34:11</t>
+    <t>David-17:45</t>
   </si>
   <si>
     <t>22</t>
@@ -582,7 +441,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-34:11</t>
+    <t>Johnson S David-17:45</t>
   </si>
   <si>
     <t>female</t>
@@ -602,7 +461,7 @@
     </r>
   </si>
   <si>
-    <t>9801488212</t>
+    <t>9619724605</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -614,76 +473,7 @@
     <t>Individual ID</t>
   </si>
   <si>
-    <t>Emily S Martin-32:45</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Johnson S David-09:45</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Emily S Martin-22:12</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Johnson S David-35:12</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Emily S Martin-40:34</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Johnson S David-10:39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Johnson S David-08:05</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Emily S Martin-13:28</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Johnson S David-06:35</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Emily S Martin-11:18</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Johnson S David-32:53</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>Created Individual</t>
   </si>
   <si>
     <t>Emily</t>
@@ -747,13 +537,16 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-11:18</t>
+    <t>Martin-49:54</t>
+  </si>
+  <si>
+    <t>Emily S Martin-49:54</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9167396001</t>
+    <t>9774175592</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -763,18 +556,6 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
-  </si>
-  <si>
-    <t>Johnson S David-11:11</t>
-  </si>
-  <si>
-    <t>Johnson S David-36:09</t>
-  </si>
-  <si>
-    <t>Johnson S David-09:38</t>
-  </si>
-  <si>
-    <t>Johnson S David-07:51</t>
   </si>
   <si>
     <r>
@@ -1119,10 +900,13 @@
     <t>Manager Message</t>
   </si>
   <si>
-    <t>Johnson S David-32:53(Suite-15:27:12)</t>
-  </si>
-  <si>
-    <t>02/21/202411:35PM</t>
+    <t>No Fall Reason</t>
+  </si>
+  <si>
+    <t>No Fall Description</t>
+  </si>
+  <si>
+    <t>03/04/202407:02PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -1155,19 +939,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>2/21/2024</t>
-  </si>
-  <si>
-    <t>11:36PM</t>
+    <t>3/4/2024</t>
+  </si>
+  <si>
+    <t>07:04PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-36:21</t>
-  </si>
-  <si>
-    <t>IR00010</t>
+    <t>Twisted Ankle-04:38</t>
+  </si>
+  <si>
+    <t>IR00033</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -1194,7 +978,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Johnson David-32:53</t>
+    <t>Emily S Martin-22:39</t>
   </si>
   <si>
     <t>test</t>
@@ -1209,22 +993,10 @@
     <t>Manager Test Message</t>
   </si>
   <si>
-    <t>David-42:29</t>
-  </si>
-  <si>
-    <t>Johnson S David-42:29</t>
-  </si>
-  <si>
-    <t>9760721692</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Johnson David-42:29</t>
-  </si>
-  <si>
-    <t>Johnson S David-42:29(Royal-15:28:52)</t>
+    <t>Technical issue</t>
+  </si>
+  <si>
+    <t>No fall detected.</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +1830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2098,7 +1870,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2194,7 +1965,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2202,9 +1972,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2528,46 +2295,46 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0"/>
-    <col min="2" max="2" customWidth="true" width="29.9090909090909"/>
-    <col min="3" max="3" customWidth="true" width="26.3636363636364"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="33.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2585,106 +2352,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7272727272727"/>
-    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
+    <col min="1" max="1" width="20.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2696,72 +2378,24 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
-    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
+      <c r="A1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2773,88 +2407,24 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="30.9090909090909"/>
+    <col min="1" max="1" width="27.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="30.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
+      <c r="A1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2868,223 +2438,219 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
-    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
+    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>158</v>
+        <v>109</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>171</v>
+        <v>123</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>176</v>
+        <v>125</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>129</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>180</v>
+      <c r="G3" s="8"/>
+      <c r="K3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>329</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>135</v>
+      </c>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3105,7 +2671,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3170,130 +2736,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="27"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="27"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="27"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="27"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="27"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="27"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="27"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="27"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="27"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3304,164 +2870,28 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
-    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C19" t="s">
-        <v>330</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3475,218 +2905,218 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
-    <col min="28" max="16383" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="34.2727272727273" customWidth="1"/>
+    <col min="28" max="16382" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="U2" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="63" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="K3" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="K3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="27"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -3707,7 +3137,7 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>6</v>
       </c>
       <c r="H8">
@@ -3772,130 +3202,130 @@
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="27"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="27"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="27"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="7:7">
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="7:7">
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="7:7">
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="7:7">
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="7:7">
-      <c r="G26" s="27"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="7:7">
-      <c r="G27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="7:7">
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="7:7">
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="7:7">
-      <c r="G30" s="27"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="7:7">
-      <c r="G31" s="27"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="7:7">
-      <c r="G32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="27"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="27"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="27"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="27"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="27"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="27"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="27"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3906,61 +3336,24 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
+    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3974,73 +3367,73 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="64" t="s">
-        <v>242</v>
+      <c r="A2" s="63" t="s">
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>249</v>
+        <v>170</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4071,18 +3464,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4102,73 +3495,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>262</v>
+        <v>183</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -4202,18 +3595,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4225,244 +3618,254 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="20.0909090909091"/>
-    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
-    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
-    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
-    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
-    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
-    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
-    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
-    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
-    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
-    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
-    <col min="20" max="20" customWidth="true" width="22.1454545454545"/>
-    <col min="21" max="21" customWidth="true" width="47.1454545454545"/>
-    <col min="22" max="23" customWidth="true" width="54.7181818181818"/>
-    <col min="24" max="24" customWidth="true" width="47.1454545454545"/>
-    <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
-    <col min="26" max="27" customWidth="true" width="55.0"/>
-    <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
-    <col min="29" max="29" customWidth="true" width="20.0909090909091"/>
-    <col min="30" max="30" customWidth="true" width="33.5727272727273"/>
-    <col min="31" max="31" customWidth="true" width="20.0909090909091"/>
-    <col min="32" max="32" customWidth="true" width="24.2818181818182"/>
-    <col min="33" max="33" customWidth="true" width="23.0"/>
-    <col min="34" max="16384" customWidth="true" width="20.0909090909091"/>
+    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
+    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
+    <col min="12" max="18" width="20.0909090909091" customWidth="1"/>
+    <col min="19" max="19" width="26.4272727272727" customWidth="1"/>
+    <col min="20" max="20" width="22.1454545454545" customWidth="1"/>
+    <col min="21" max="21" width="47.1454545454545" customWidth="1"/>
+    <col min="22" max="23" width="54.7181818181818" customWidth="1"/>
+    <col min="24" max="24" width="47.1454545454545" customWidth="1"/>
+    <col min="25" max="25" width="44.8545454545455" customWidth="1"/>
+    <col min="26" max="27" width="55" customWidth="1"/>
+    <col min="28" max="28" width="46.7181818181818" customWidth="1"/>
+    <col min="29" max="29" width="20.0909090909091" customWidth="1"/>
+    <col min="30" max="30" width="33.5727272727273" customWidth="1"/>
+    <col min="31" max="31" width="20.0909090909091" customWidth="1"/>
+    <col min="32" max="32" width="24.2818181818182" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
+    <col min="34" max="16384" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" ht="101.5" spans="1:33">
-      <c r="A2" s="74" t="s">
-        <v>332</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" ht="101.5" spans="1:35">
+      <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:33">
+        <v>254</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:35">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -4547,9 +3950,18 @@
       <c r="AG11" s="2">
         <v>32</v>
       </c>
+      <c r="AH11" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2">
+      <formula1>"Environmental factor,Technical issue,User movement,Others"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -4577,14 +3989,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
-    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
+    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4599,10 +4011,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8"/>
@@ -4622,24 +4034,24 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="34.0"/>
-    <col min="3" max="16382" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="21.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="16382" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4647,13 +4059,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4661,61 +4073,61 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4745,35 +4157,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="31.1818181818182"/>
-    <col min="3" max="3" customWidth="true" width="14.1818181818182"/>
-    <col min="4" max="4" customWidth="true" width="20.8181818181818"/>
-    <col min="5" max="5" customWidth="true" style="47" width="53.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="16.0909090909091"/>
-    <col min="7" max="16381" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="37.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="46" customWidth="1"/>
+    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
+    <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4787,27 +4199,27 @@
       <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="63" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4815,20 +4227,20 @@
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4854,79 +4266,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="13.3636363636364"/>
-    <col min="2" max="2" customWidth="true" style="34" width="22.0"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
-    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
-    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
+    <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
+    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4953,68 +4361,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
-    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.9090909090909"/>
-    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
-    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
-    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
+    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
+    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="36" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="B2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="38" t="s">
+      <c r="E2" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="66" t="s">
+      <c r="F2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="33"/>
+      <c r="F3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
-      <c r="F3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -5023,13 +4427,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10">
@@ -5056,79 +4460,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="25.0909090909091"/>
-    <col min="2" max="2" customWidth="true" style="34" width="22.0"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="28.8181818181818"/>
-    <col min="7" max="7" customWidth="true" width="30.3636363636364"/>
-    <col min="8" max="16381" customWidth="true" width="12.6363636363636"/>
+    <col min="1" max="1" width="25.0909090909091" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
+    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:7">
+      <c r="A2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="7:7">
-      <c r="G3" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
       <c r="F6">
@@ -5155,68 +4555,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.8181818181818"/>
-    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="34" width="12.9090909090909"/>
-    <col min="6" max="6" customWidth="true" width="36.8181818181818"/>
-    <col min="7" max="7" customWidth="true" width="33.2727272727273"/>
-    <col min="8" max="16379" customWidth="true" width="12.9090909090909"/>
+    <col min="1" max="1" width="32.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
+    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>76</v>
+      <c r="F1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="33"/>
+      <c r="F3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
-      <c r="F3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -5225,13 +4621,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10">
@@ -5250,101 +4646,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.1818181818182"/>
-    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="14" activeTab="18"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="262">
   <si>
     <t>Environment Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://auto.qa.xealei.com/</t>
+    <t>https://auto.qaautomation.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -70,7 +70,7 @@
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://auto.qa.xealei.com/login</t>
+    <t>https://auto.qaautomation.xealei.com/login</t>
   </si>
   <si>
     <t>Names</t>
@@ -207,6 +207,9 @@
     <t>Created Suites</t>
   </si>
   <si>
+    <t>Field Limit Check - More Than 14 Characters</t>
+  </si>
+  <si>
     <t>Suite</t>
   </si>
   <si>
@@ -222,6 +225,15 @@
     <t>Available</t>
   </si>
   <si>
+    <t>ABCDEFGHIJKLMNO</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>1234567.1234</t>
+  </si>
+  <si>
     <t>Update SuiteName</t>
   </si>
   <si>
@@ -426,7 +438,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-17:45</t>
+    <t>David-44:38</t>
   </si>
   <si>
     <t>22</t>
@@ -441,7 +453,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-17:45</t>
+    <t>Johnson S David-44:38</t>
   </si>
   <si>
     <t>female</t>
@@ -461,7 +473,7 @@
     </r>
   </si>
   <si>
-    <t>9619724605</t>
+    <t>9946088448</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -906,6 +918,9 @@
     <t>No Fall Description</t>
   </si>
   <si>
+    <t>Johnson S David-44:38(-)</t>
+  </si>
+  <si>
     <t>03/04/202407:02PM</t>
   </si>
   <si>
@@ -978,7 +993,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Emily S Martin-22:39</t>
+    <t>Johnson David-44:38</t>
   </si>
   <si>
     <t>test</t>
@@ -1830,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1909,6 +1924,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2295,46 +2313,46 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="33.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="38.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2342,7 +2360,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://auto.qa.xealei.com/" tooltip="https://auto.qa.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://auto.qaautomation.xealei.com/" tooltip="https://auto.qaautomation.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2355,7 +2373,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2366,7 +2384,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2392,10 +2410,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2421,10 +2439,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2459,187 +2477,187 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="63" t="s">
         <v>129</v>
       </c>
+      <c r="W2" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>133</v>
+      </c>
       <c r="AA2" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="K3" s="27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -2885,13 +2903,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2926,186 +2944,186 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="Z2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="63" t="s">
-        <v>155</v>
+      <c r="AA2" s="64" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G3" s="8"/>
       <c r="K3" s="29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -3350,10 +3368,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3367,8 +3385,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -3386,54 +3404,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="63" t="s">
-        <v>169</v>
+      <c r="A2" s="64" t="s">
+        <v>173</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="D2" s="70" t="s">
         <v>176</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3464,18 +3482,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3508,60 +3526,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>189</v>
       </c>
+      <c r="E2" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>193</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3595,18 +3613,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3638,7 @@
   <sheetPr/>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3655,214 +3673,216 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -3989,7 +4009,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -4011,17 +4031,17 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://auto.qa.xealei.com/login" tooltip="https://auto.qa.xealei.com/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://auto.qaautomation.xealei.com/login" tooltip="https://auto.qaautomation.xealei.com/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4045,13 +4065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4059,13 +4079,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4073,61 +4093,61 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4161,31 +4181,31 @@
     <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="46" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
     <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
     <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4199,27 +4219,27 @@
       <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="64" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4227,20 +4247,20 @@
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="56" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4258,23 +4278,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
     <col min="2" max="2" width="22" style="33" customWidth="1"/>
     <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
     <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
-    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
+    <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -4293,33 +4314,47 @@
       <c r="F1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
+      <c r="H1" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>55</v>
       </c>
+      <c r="E2" s="65" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="7:7">
-      <c r="G3" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8">
+      <c r="G3" s="45"/>
+      <c r="H3" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="H4" s="64" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="33">
@@ -4355,8 +4390,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4366,12 +4401,12 @@
     <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
     <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
+    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
@@ -4386,39 +4421,37 @@
         <v>49</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" spans="1:6">
       <c r="A2" s="37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>62</v>
+      <c r="C2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4454,8 +4487,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -4465,12 +4498,12 @@
     <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
     <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
-    <col min="8" max="16381" width="12.6363636363636" customWidth="1"/>
+    <col min="8" max="16380" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
@@ -4485,30 +4518,30 @@
         <v>49</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>55</v>
       </c>
+      <c r="E2" s="65" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -4560,12 +4593,12 @@
     <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
     <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
-    <col min="8" max="16379" width="12.9090909090909" customWidth="1"/>
+    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
@@ -4580,37 +4613,37 @@
         <v>49</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>62</v>
+      <c r="C2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -4649,7 +4682,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4660,7 +4693,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -43,7 +43,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://auto.qaautomation.xealei.com/</t>
+    <t>https://auto.qa.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -70,7 +70,7 @@
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://auto.qaautomation.xealei.com/login</t>
+    <t>https://auto.qa.xealei.com/login</t>
   </si>
   <si>
     <t>Names</t>
@@ -438,7 +438,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-44:38</t>
+    <t>David-37:42</t>
   </si>
   <si>
     <t>22</t>
@@ -453,7 +453,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-44:38</t>
+    <t>Johnson S David-37:42</t>
   </si>
   <si>
     <t>female</t>
@@ -473,7 +473,7 @@
     </r>
   </si>
   <si>
-    <t>9946088448</t>
+    <t>9623835064</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -549,16 +549,16 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-49:54</t>
-  </si>
-  <si>
-    <t>Emily S Martin-49:54</t>
+    <t>Martin-40:18</t>
+  </si>
+  <si>
+    <t>Emily S Martin-40:18</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9774175592</t>
+    <t>9230230104</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -918,10 +918,10 @@
     <t>No Fall Description</t>
   </si>
   <si>
-    <t>Johnson S David-44:38(-)</t>
-  </si>
-  <si>
-    <t>03/04/202407:02PM</t>
+    <t>Emily S Martin-40:18(Royal-00:10:16)</t>
+  </si>
+  <si>
+    <t>03/06/202407:59AM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -954,19 +954,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>3/4/2024</t>
-  </si>
-  <si>
-    <t>07:04PM</t>
+    <t>3/6/2024</t>
+  </si>
+  <si>
+    <t>07:59AM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-04:38</t>
-  </si>
-  <si>
-    <t>IR00033</t>
+    <t>Twisted Ankle-59:56</t>
+  </si>
+  <si>
+    <t>IR00040</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -993,7 +993,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Johnson David-44:38</t>
+    <t>Emily Martin-40:18</t>
   </si>
   <si>
     <t>test</t>
@@ -2360,7 +2360,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://auto.qaautomation.xealei.com/" tooltip="https://auto.qaautomation.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://auto.qa.xealei.com/" tooltip="https://auto.qa.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -3357,7 +3357,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -3386,7 +3386,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -4009,7 +4009,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -4041,7 +4041,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://auto.qaautomation.xealei.com/login" tooltip="https://auto.qaautomation.xealei.com/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://auto.qa.xealei.com/login" tooltip="https://auto.qa.xealei.com/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4391,7 +4391,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -4427,7 +4427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:6">
+    <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
         <v>64</v>
       </c>
@@ -4446,12 +4446,14 @@
       <c r="F2" s="37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
         <v>68</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4488,7 +4490,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -4682,7 +4684,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="18350" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="266">
   <si>
     <t>Environment Name</t>
   </si>
@@ -88,61 +88,64 @@
     <t>FACILITY ADMIN</t>
   </si>
   <si>
+    <t>mohamedra01</t>
+  </si>
+  <si>
+    <t>auto@123</t>
+  </si>
+  <si>
+    <t>Xealei Automation Testing</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>AStaff01</t>
+  </si>
+  <si>
+    <t>CHIEF NURSE</t>
+  </si>
+  <si>
+    <t>AChiefNur02</t>
+  </si>
+  <si>
+    <t>RESIDENT MANAGER</t>
+  </si>
+  <si>
+    <t>AResident02</t>
+  </si>
+  <si>
+    <t>CLINICAL COORDINATOR</t>
+  </si>
+  <si>
+    <t>AClinical02</t>
+  </si>
+  <si>
+    <t>SOCIAL WORKER</t>
+  </si>
+  <si>
+    <t>ASocialWo02</t>
+  </si>
+  <si>
+    <t>Unsupported format Mail Id</t>
+  </si>
+  <si>
+    <t>Mail Body Content</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Invalid Data</t>
+  </si>
+  <si>
     <t>mohamedra</t>
   </si>
   <si>
-    <t>auto@123</t>
-  </si>
-  <si>
-    <t>Automation Testing</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>AStaff</t>
-  </si>
-  <si>
-    <t>CHIEF NURSE</t>
-  </si>
-  <si>
-    <t>AChiefNur</t>
-  </si>
-  <si>
-    <t>RESIDENT MANAGER</t>
-  </si>
-  <si>
-    <t>AResident</t>
-  </si>
-  <si>
-    <t>CLINICAL COORDINATOR</t>
-  </si>
-  <si>
-    <t>AClinical</t>
-  </si>
-  <si>
-    <t>SOCIAL WORKER</t>
-  </si>
-  <si>
-    <t>ASocialWo</t>
-  </si>
-  <si>
-    <t>Unsupported format Mail Id</t>
-  </si>
-  <si>
-    <t>Mail Body Content</t>
-  </si>
-  <si>
-    <t>New Password</t>
-  </si>
-  <si>
-    <t>Invalid Data</t>
-  </si>
-  <si>
-    <t>xealeiauto@mailinator.com</t>
-  </si>
-  <si>
-    <t>MTesting</t>
+    <t>autoxealei@mailinator.com</t>
+  </si>
+  <si>
+    <t>MTesting01</t>
   </si>
   <si>
     <t>Welcome to
@@ -158,13 +161,13 @@
     <t>mohamedra@13</t>
   </si>
   <si>
-    <t>Hi MTesting,</t>
+    <t>Hi MTesting01,</t>
   </si>
   <si>
     <t>mohamedrazul.s+100@alphind.com</t>
   </si>
   <si>
-    <t>You recently requested a password reset for your Xealei account xealeiauto@mailinator.com. To complete the process, click the button/link below:</t>
+    <t>You recently requested a password reset for your Xealei account autoxealei@mailinator.com. To complete the process, click the button/link below:</t>
   </si>
   <si>
     <r>
@@ -1012,6 +1015,15 @@
   </si>
   <si>
     <t>No fall detected.</t>
+  </si>
+  <si>
+    <t>Suite-16:29:59</t>
+  </si>
+  <si>
+    <t>Suite-16:31:15</t>
+  </si>
+  <si>
+    <t>Suite-16:34:59</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1954,6 +1966,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2318,41 +2333,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="38.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0"/>
+    <col min="2" max="2" customWidth="true" width="38.4545454545455"/>
+    <col min="3" max="3" customWidth="true" width="26.3636363636364"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2378,13 +2393,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7272727272727"/>
+    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2419,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
+    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2433,16 +2448,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="30.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="30.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2456,208 +2471,210 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
-    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
+    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="67" t="s">
         <v>114</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>115</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="68" t="s">
         <v>128</v>
       </c>
+      <c r="U2" s="69" t="s">
+        <v>129</v>
+      </c>
       <c r="V2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="W2" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="X2" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="Y2" s="65" t="s">
         <v>133</v>
       </c>
+      <c r="Z2" s="65" t="s">
+        <v>134</v>
+      </c>
       <c r="AA2" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>265</v>
+      </c>
       <c r="K3" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -2896,20 +2913,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
+    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2929,201 +2946,201 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
-    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
-    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
-    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
-    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="34.2727272727273" customWidth="1"/>
-    <col min="28" max="16382" width="10.9090909090909" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
+    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
+    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
+    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
+    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
+    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
+    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
+    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
+    <col min="27" max="27" customWidth="true" width="34.2727272727273"/>
+    <col min="28" max="16382" customWidth="true" width="10.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="69" t="s">
         <v>146</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>147</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>129</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="X2" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="Y2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="64" t="s">
-        <v>159</v>
+      <c r="Z2" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="65" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="8"/>
       <c r="K3" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -3362,16 +3379,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3385,73 +3402,73 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="64" t="s">
-        <v>173</v>
+      <c r="A2" s="65" t="s">
+        <v>174</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="65" t="s">
         <v>180</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3482,18 +3499,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3513,73 +3530,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
-    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
+    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
+    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
+    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
+    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
+    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
+    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="D2" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="65" t="s">
         <v>193</v>
       </c>
+      <c r="H2" s="73" t="s">
+        <v>194</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3613,18 +3630,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3644,245 +3661,245 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
-    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
-    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
-    <col min="12" max="18" width="20.0909090909091" customWidth="1"/>
-    <col min="19" max="19" width="26.4272727272727" customWidth="1"/>
-    <col min="20" max="20" width="22.1454545454545" customWidth="1"/>
-    <col min="21" max="21" width="47.1454545454545" customWidth="1"/>
-    <col min="22" max="23" width="54.7181818181818" customWidth="1"/>
-    <col min="24" max="24" width="47.1454545454545" customWidth="1"/>
-    <col min="25" max="25" width="44.8545454545455" customWidth="1"/>
-    <col min="26" max="27" width="55" customWidth="1"/>
-    <col min="28" max="28" width="46.7181818181818" customWidth="1"/>
-    <col min="29" max="29" width="20.0909090909091" customWidth="1"/>
-    <col min="30" max="30" width="33.5727272727273" customWidth="1"/>
-    <col min="31" max="31" width="20.0909090909091" customWidth="1"/>
-    <col min="32" max="32" width="24.2818181818182" customWidth="1"/>
-    <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="16384" width="20.0909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6363636363636"/>
+    <col min="2" max="2" customWidth="true" width="20.0909090909091"/>
+    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
+    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
+    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
+    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
+    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
+    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
+    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
+    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
+    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
+    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
+    <col min="20" max="20" customWidth="true" width="22.1454545454545"/>
+    <col min="21" max="21" customWidth="true" width="47.1454545454545"/>
+    <col min="22" max="23" customWidth="true" width="54.7181818181818"/>
+    <col min="24" max="24" customWidth="true" width="47.1454545454545"/>
+    <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
+    <col min="26" max="27" customWidth="true" width="55.0"/>
+    <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
+    <col min="29" max="29" customWidth="true" width="20.0909090909091"/>
+    <col min="30" max="30" customWidth="true" width="33.5727272727273"/>
+    <col min="31" max="31" customWidth="true" width="20.0909090909091"/>
+    <col min="32" max="32" customWidth="true" width="24.2818181818182"/>
+    <col min="33" max="33" customWidth="true" width="23.0"/>
+    <col min="34" max="16384" customWidth="true" width="20.0909090909091"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -4014,9 +4031,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="27.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
+    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4031,7 +4048,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -4053,15 +4070,17 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="16382" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.1818181818182"/>
+    <col min="2" max="2" customWidth="true" width="34.0"/>
+    <col min="3" max="3" customWidth="true" width="18.0"/>
+    <col min="4" max="4" customWidth="true" width="29.0"/>
+    <col min="5" max="16382" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4082,10 +4101,10 @@
       <c r="A2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4096,10 +4115,10 @@
       <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
@@ -4108,10 +4127,10 @@
       <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
@@ -4120,10 +4139,10 @@
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
@@ -4132,10 +4151,10 @@
       <c r="A6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
@@ -4144,10 +4163,10 @@
       <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4172,18 +4191,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="37.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
-    <col min="7" max="16381" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.2727272727273"/>
+    <col min="2" max="2" customWidth="true" width="31.1818181818182"/>
+    <col min="3" max="3" customWidth="true" width="14.1818181818182"/>
+    <col min="4" max="4" customWidth="true" width="20.8181818181818"/>
+    <col min="5" max="5" customWidth="true" style="47" width="53.3636363636364"/>
+    <col min="6" max="6" customWidth="true" width="16.0909090909091"/>
+    <col min="7" max="16381" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
@@ -4211,63 +4230,63 @@
     </row>
     <row r="2" ht="29" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="64" t="s">
         <v>39</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="31"/>
       <c r="D4" s="54"/>
       <c r="E4" s="56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
       <c r="E6" s="56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="auto@123"/>
-    <hyperlink ref="B2" r:id="rId2" display="xealeiauto@mailinator.com" tooltip="mailto:xealeiauto@mailinator.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="autoxealei@mailinator.com" tooltip="mailto:autoxealei@mailinator.com"/>
     <hyperlink ref="F2" r:id="rId3" display="auto@12345"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4280,80 +4299,84 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22" style="33" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
-    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
-    <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="33" width="13.3636363636364"/>
+    <col min="2" max="2" customWidth="true" style="33" width="25.9090909090909"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
+    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
+    <col min="8" max="8" customWidth="true" width="50.2727272727273"/>
+    <col min="9" max="16381" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
       <c r="A1" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" ht="31" spans="1:8">
       <c r="A2" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>56</v>
       </c>
+      <c r="E2" s="66" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="64" t="s">
         <v>58</v>
       </c>
+      <c r="G2" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="45"/>
-      <c r="H3" s="64" t="s">
-        <v>59</v>
+      <c r="G3" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="64" t="s">
-        <v>60</v>
+      <c r="H4" s="65" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4391,69 +4414,71 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
-    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
-    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
+    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
+    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
+    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
+    <col min="8" max="16378" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="66" t="s">
+      <c r="C2" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>66</v>
       </c>
+      <c r="E2" s="67" t="s">
+        <v>67</v>
+      </c>
       <c r="F2" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4489,61 +4514,61 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.0909090909091" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22" style="33" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
-    <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
-    <col min="8" max="16380" width="12.6363636363636" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="33" width="25.0909090909091"/>
+    <col min="2" max="2" customWidth="true" style="33" width="27.1818181818182"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
+    <col min="6" max="6" customWidth="true" width="28.8181818181818"/>
+    <col min="7" max="7" customWidth="true" width="30.3636363636364"/>
+    <col min="8" max="16380" customWidth="true" width="12.6363636363636"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="31" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>56</v>
       </c>
+      <c r="E2" s="66" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -4584,68 +4609,68 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
-    <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
-    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.8181818181818"/>
+    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
+    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
+    <col min="6" max="6" customWidth="true" width="36.8181818181818"/>
+    <col min="7" max="7" customWidth="true" width="33.2727272727273"/>
+    <col min="8" max="16378" customWidth="true" width="12.9090909090909"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="66" t="s">
+      <c r="C2" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>66</v>
       </c>
+      <c r="E2" s="67" t="s">
+        <v>67</v>
+      </c>
       <c r="F2" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -4681,7 +4706,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A17"/>
@@ -4689,13 +4714,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.1818181818182"/>
+    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="266">
   <si>
     <t>Environment Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>https://auto.qa.xealei.com/</t>
+    <t>https://auto.qaautomation.xealei.com/</t>
   </si>
   <si>
     <t>PRE-PROD</t>
@@ -70,7 +70,7 @@
     <t>assets/img/xealei-logo2.png</t>
   </si>
   <si>
-    <t>https://auto.qa.xealei.com/login</t>
+    <t>https://auto.qaautomation.xealei.com/login</t>
   </si>
   <si>
     <t>Names</t>
@@ -100,7 +100,7 @@
     <t>STAFF</t>
   </si>
   <si>
-    <t>AStaff01</t>
+    <t>AStaff02</t>
   </si>
   <si>
     <t>CHIEF NURSE</t>
@@ -441,7 +441,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-37:42</t>
+    <t>David-39:28</t>
   </si>
   <si>
     <t>22</t>
@@ -456,7 +456,7 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-37:42</t>
+    <t>Johnson S David-39:28</t>
   </si>
   <si>
     <t>female</t>
@@ -476,7 +476,7 @@
     </r>
   </si>
   <si>
-    <t>9623835064</t>
+    <t>9150764426</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -552,16 +552,16 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-40:18</t>
-  </si>
-  <si>
-    <t>Emily S Martin-40:18</t>
+    <t>Martin-38:51</t>
+  </si>
+  <si>
+    <t>Emily S Martin-38:51</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9230230104</t>
+    <t>9197120168</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
+  </si>
+  <si>
+    <t>Johnson S David-14:24</t>
+  </si>
+  <si>
+    <t>Emily S Martin-17:13</t>
+  </si>
+  <si>
+    <t>Johnson S David-35:54</t>
   </si>
   <si>
     <r>
@@ -921,10 +930,10 @@
     <t>No Fall Description</t>
   </si>
   <si>
-    <t>Emily S Martin-40:18(Royal-00:10:16)</t>
-  </si>
-  <si>
-    <t>03/06/202407:59AM</t>
+    <t>Johnson S David-39:28(Suite-16:38:00)</t>
+  </si>
+  <si>
+    <t>03/07/202403:39PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -957,19 +966,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>3/6/2024</t>
-  </si>
-  <si>
-    <t>07:59AM</t>
+    <t>3/7/2024</t>
+  </si>
+  <si>
+    <t>03:31PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-59:56</t>
-  </si>
-  <si>
-    <t>IR00040</t>
+    <t>Twisted Ankle-31:47</t>
+  </si>
+  <si>
+    <t>IR00070</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -996,7 +1005,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Emily Martin-40:18</t>
+    <t>Johnson David-39:28</t>
   </si>
   <si>
     <t>test</t>
@@ -1015,15 +1024,6 @@
   </si>
   <si>
     <t>No fall detected.</t>
-  </si>
-  <si>
-    <t>Suite-16:29:59</t>
-  </si>
-  <si>
-    <t>Suite-16:31:15</t>
-  </si>
-  <si>
-    <t>Suite-16:34:59</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1966,9 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2328,46 +2325,46 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0"/>
-    <col min="2" max="2" customWidth="true" width="38.4545454545455"/>
-    <col min="3" max="3" customWidth="true" width="26.3636363636364"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="38.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2375,7 +2372,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://preprod.xealei.com/" tooltip="https://preprod.xealei.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.xealei.com/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://auto.qa.xealei.com/" tooltip="https://auto.qa.xealei.com/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://auto.qaautomation.xealei.com/" tooltip="https://auto.qaautomation.xealei.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2393,8 +2390,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7272727272727"/>
-    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
+    <col min="1" max="1" width="20.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2414,13 +2411,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0909090909091"/>
-    <col min="2" max="2" customWidth="true" width="22.4545454545455"/>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2448,8 +2445,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="30.9090909090909"/>
+    <col min="1" max="1" width="27.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="30.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2472,22 +2469,22 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="20.5454545454545"/>
-    <col min="28" max="16384" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="20.5454545454545" customWidth="1"/>
+    <col min="28" max="16384" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
@@ -2589,10 +2586,10 @@
       <c r="E2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2"/>
       <c r="H2" s="25" t="s">
         <v>116</v>
       </c>
@@ -2632,22 +2629,22 @@
       <c r="T2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="68" t="s">
         <v>129</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="W2" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Z2" s="64" t="s">
         <v>134</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -2659,9 +2656,7 @@
         <v>136</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="G3"/>
       <c r="K3" s="27" t="s">
         <v>137</v>
       </c>
@@ -2913,9 +2908,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="20.6363636363636"/>
-    <col min="3" max="3" customWidth="true" width="11.1818181818182"/>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2940,23 +2935,23 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" customWidth="true" width="21.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="11.4545454545455"/>
-    <col min="7" max="7" customWidth="true" style="19" width="27.6363636363636"/>
-    <col min="8" max="8" customWidth="true" width="9.36363636363636"/>
-    <col min="9" max="22" customWidth="true" width="21.3636363636364"/>
-    <col min="23" max="23" customWidth="true" width="16.4545454545455"/>
-    <col min="24" max="24" customWidth="true" width="19.7272727272727"/>
-    <col min="25" max="25" customWidth="true" width="21.6363636363636"/>
-    <col min="26" max="26" customWidth="true" width="18.9090909090909"/>
-    <col min="27" max="27" customWidth="true" width="34.2727272727273"/>
-    <col min="28" max="16382" customWidth="true" width="10.9090909090909"/>
+    <col min="1" max="5" width="21.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="27.6363636363636" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.36363636363636" customWidth="1"/>
+    <col min="9" max="22" width="21.3636363636364" customWidth="1"/>
+    <col min="23" max="23" width="16.4545454545455" customWidth="1"/>
+    <col min="24" max="24" width="19.7272727272727" customWidth="1"/>
+    <col min="25" max="25" width="21.6363636363636" customWidth="1"/>
+    <col min="26" max="26" width="18.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="34.2727272727273" customWidth="1"/>
+    <col min="28" max="16382" width="10.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
@@ -3058,7 +3053,7 @@
       <c r="E2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>147</v>
       </c>
       <c r="G2" s="8"/>
@@ -3101,25 +3096,25 @@
       <c r="T2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="68" t="s">
         <v>129</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="W2" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Z2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="64" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3371,16 +3366,16 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="29.2727272727273"/>
+    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3389,6 +3384,22 @@
       </c>
       <c r="B1" s="12" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3408,67 +3419,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="65" t="s">
-        <v>174</v>
+      <c r="A2" s="64" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="E2" s="64" t="s">
         <v>181</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3499,18 +3510,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3530,73 +3541,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.1818181818182" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="23.2727272727273"/>
-    <col min="3" max="3" customWidth="true" width="21.3636363636364"/>
-    <col min="4" max="4" customWidth="true" width="19.1818181818182"/>
-    <col min="5" max="5" customWidth="true" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="12.0909090909091"/>
-    <col min="7" max="7" customWidth="true" width="12.1818181818182"/>
-    <col min="8" max="8" customWidth="true" width="46.0909090909091"/>
-    <col min="9" max="16384" customWidth="true" width="19.1818181818182"/>
+    <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="23.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="46.0909090909091" customWidth="1"/>
+    <col min="9" max="16384" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="D2" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="64" t="s">
         <v>194</v>
       </c>
+      <c r="F2" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>197</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3630,18 +3641,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3661,245 +3672,245 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6363636363636"/>
-    <col min="2" max="2" customWidth="true" width="20.0909090909091"/>
-    <col min="3" max="3" customWidth="true" width="24.2727272727273"/>
-    <col min="4" max="4" customWidth="true" width="20.0909090909091"/>
-    <col min="5" max="5" customWidth="true" width="24.2727272727273"/>
-    <col min="6" max="6" customWidth="true" width="25.5454545454545"/>
-    <col min="7" max="7" customWidth="true" width="25.2727272727273"/>
-    <col min="8" max="9" customWidth="true" width="20.0909090909091"/>
-    <col min="10" max="10" customWidth="true" width="30.6363636363636"/>
-    <col min="11" max="11" customWidth="true" width="18.5454545454545"/>
-    <col min="12" max="18" customWidth="true" width="20.0909090909091"/>
-    <col min="19" max="19" customWidth="true" width="26.4272727272727"/>
-    <col min="20" max="20" customWidth="true" width="22.1454545454545"/>
-    <col min="21" max="21" customWidth="true" width="47.1454545454545"/>
-    <col min="22" max="23" customWidth="true" width="54.7181818181818"/>
-    <col min="24" max="24" customWidth="true" width="47.1454545454545"/>
-    <col min="25" max="25" customWidth="true" width="44.8545454545455"/>
-    <col min="26" max="27" customWidth="true" width="55.0"/>
-    <col min="28" max="28" customWidth="true" width="46.7181818181818"/>
-    <col min="29" max="29" customWidth="true" width="20.0909090909091"/>
-    <col min="30" max="30" customWidth="true" width="33.5727272727273"/>
-    <col min="31" max="31" customWidth="true" width="20.0909090909091"/>
-    <col min="32" max="32" customWidth="true" width="24.2818181818182"/>
-    <col min="33" max="33" customWidth="true" width="23.0"/>
-    <col min="34" max="16384" customWidth="true" width="20.0909090909091"/>
+    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="20.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="24.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="20.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="25.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="25.2727272727273" customWidth="1"/>
+    <col min="8" max="9" width="20.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="30.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
+    <col min="12" max="18" width="20.0909090909091" customWidth="1"/>
+    <col min="19" max="19" width="26.4272727272727" customWidth="1"/>
+    <col min="20" max="20" width="22.1454545454545" customWidth="1"/>
+    <col min="21" max="21" width="47.1454545454545" customWidth="1"/>
+    <col min="22" max="23" width="54.7181818181818" customWidth="1"/>
+    <col min="24" max="24" width="47.1454545454545" customWidth="1"/>
+    <col min="25" max="25" width="44.8545454545455" customWidth="1"/>
+    <col min="26" max="27" width="55" customWidth="1"/>
+    <col min="28" max="28" width="46.7181818181818" customWidth="1"/>
+    <col min="29" max="29" width="20.0909090909091" customWidth="1"/>
+    <col min="30" max="30" width="33.5727272727273" customWidth="1"/>
+    <col min="31" max="31" width="20.0909090909091" customWidth="1"/>
+    <col min="32" max="32" width="24.2818181818182" customWidth="1"/>
+    <col min="33" max="33" width="23" customWidth="1"/>
+    <col min="34" max="16384" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>128</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -4026,14 +4037,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="27.3636363636364"/>
-    <col min="3" max="3" customWidth="true" width="14.2727272727273"/>
+    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="44.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4048,7 +4059,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -4058,7 +4069,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://auto.qa.xealei.com/login" tooltip="https://auto.qa.xealei.com/login"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://auto.qaautomation.xealei.com/login" tooltip="https://auto.qaautomation.xealei.com/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4070,17 +4081,17 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.1818181818182"/>
-    <col min="2" max="2" customWidth="true" width="34.0"/>
-    <col min="3" max="3" customWidth="true" width="18.0"/>
-    <col min="4" max="4" customWidth="true" width="29.0"/>
-    <col min="5" max="16382" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="16382" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4101,10 +4112,10 @@
       <c r="A2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4115,10 +4126,10 @@
       <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
@@ -4127,10 +4138,10 @@
       <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
@@ -4139,10 +4150,10 @@
       <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
@@ -4151,10 +4162,10 @@
       <c r="A6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
@@ -4163,10 +4174,10 @@
       <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4196,13 +4207,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.2727272727273"/>
-    <col min="2" max="2" customWidth="true" width="31.1818181818182"/>
-    <col min="3" max="3" customWidth="true" width="14.1818181818182"/>
-    <col min="4" max="4" customWidth="true" width="20.8181818181818"/>
-    <col min="5" max="5" customWidth="true" style="47" width="53.3636363636364"/>
-    <col min="6" max="6" customWidth="true" width="16.0909090909091"/>
-    <col min="7" max="16381" customWidth="true" width="18.0"/>
+    <col min="1" max="1" width="37.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
+    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
+    <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
@@ -4247,7 +4258,7 @@
       <c r="F2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4300,18 +4311,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="13.3636363636364"/>
-    <col min="2" max="2" customWidth="true" style="33" width="25.9090909090909"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="20.2727272727273"/>
-    <col min="7" max="7" customWidth="true" width="16.8181818181818"/>
-    <col min="8" max="8" customWidth="true" width="50.2727272727273"/>
-    <col min="9" max="16381" customWidth="true" width="12.6363636363636"/>
+    <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
+    <col min="2" max="2" width="25.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
+    <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
@@ -4340,42 +4351,38 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="31" spans="1:8">
+    <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="65" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4414,17 +4421,17 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.7272727272727"/>
-    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
-    <col min="6" max="6" customWidth="true" width="30.9090909090909"/>
-    <col min="7" max="7" customWidth="true" width="22.2727272727273"/>
-    <col min="8" max="16378" customWidth="true" width="12.9090909090909"/>
+    <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
+    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
@@ -4457,13 +4464,13 @@
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="37" t="s">
@@ -4476,9 +4483,7 @@
       <c r="F3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -4515,17 +4520,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D11:D13"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="25.0909090909091"/>
-    <col min="2" max="2" customWidth="true" style="33" width="27.1818181818182"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.6363636363636"/>
-    <col min="6" max="6" customWidth="true" width="28.8181818181818"/>
-    <col min="7" max="7" customWidth="true" width="30.3636363636364"/>
-    <col min="8" max="16380" customWidth="true" width="12.6363636363636"/>
+    <col min="1" max="1" width="25.0909090909091" style="33" customWidth="1"/>
+    <col min="2" max="2" width="27.1818181818182" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
+    <col min="8" max="16380" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
@@ -4551,20 +4556,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" ht="31" spans="1:7">
+    <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="45" t="s">
@@ -4609,18 +4614,18 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.9090909090909" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.8181818181818"/>
-    <col min="2" max="2" customWidth="true" width="32.3636363636364"/>
-    <col min="3" max="5" customWidth="true" style="33" width="12.9090909090909"/>
-    <col min="6" max="6" customWidth="true" width="36.8181818181818"/>
-    <col min="7" max="7" customWidth="true" width="33.2727272727273"/>
-    <col min="8" max="16378" customWidth="true" width="12.9090909090909"/>
+    <col min="1" max="1" width="32.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
+    <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
@@ -4653,13 +4658,13 @@
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="37" t="s">
@@ -4706,7 +4711,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A17"/>
@@ -4714,8 +4719,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.1818181818182"/>
-    <col min="2" max="2" customWidth="true" width="20.4545454545455"/>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4723,21 +4728,6 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -1857,7 +1857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1903,6 +1903,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2336,35 +2337,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2421,10 +2422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2450,10 +2451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2468,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
@@ -2586,10 +2587,10 @@
       <c r="E2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="25" t="s">
         <v>116</v>
       </c>
@@ -2629,22 +2630,22 @@
       <c r="T2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="69" t="s">
         <v>129</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="W2" s="64" t="s">
+      <c r="W2" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="X2" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="Z2" s="65" t="s">
         <v>134</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -2671,7 +2672,7 @@
       <c r="E4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" s="26"/>
@@ -2935,7 +2936,7 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3053,7 +3054,7 @@
       <c r="E2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="70" t="s">
         <v>147</v>
       </c>
       <c r="G2" s="8"/>
@@ -3096,25 +3097,25 @@
       <c r="T2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="69" t="s">
         <v>129</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="64" t="s">
+      <c r="W2" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="X2" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="Z2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="64" t="s">
+      <c r="AA2" s="65" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3457,28 +3458,28 @@
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="72" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3588,22 +3589,22 @@
       <c r="B2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="73" t="s">
         <v>197</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -4059,10 +4060,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8"/>
@@ -4095,13 +4096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4109,13 +4110,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4123,61 +4124,61 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4211,31 +4212,31 @@
     <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="48" customWidth="1"/>
     <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
     <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4249,27 +4250,27 @@
       <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4277,20 +4278,20 @@
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="57" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4311,95 +4312,95 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
-    <col min="2" max="2" width="25.9090909090909" style="33" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="1" max="1" width="13.3636363636364" style="34" customWidth="1"/>
+    <col min="2" max="2" width="25.9090909090909" style="34" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="34" customWidth="1"/>
     <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
     <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="64" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="45"/>
-      <c r="H3" s="64" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>0</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4428,59 +4429,59 @@
   <cols>
     <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="34" customWidth="1"/>
     <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
     <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="33"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="34"/>
+      <c r="F3" s="40" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="8"/>
@@ -4492,13 +4493,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
       <c r="F10">
@@ -4525,54 +4526,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.0909090909091" style="33" customWidth="1"/>
-    <col min="2" max="2" width="27.1818181818182" style="33" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
+    <col min="1" max="1" width="25.0909090909091" style="34" customWidth="1"/>
+    <col min="2" max="2" width="27.1818181818182" style="34" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="34" customWidth="1"/>
     <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
     <col min="8" max="16380" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="8"/>
@@ -4581,19 +4582,19 @@
       <c r="G3" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>0</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="34">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4622,59 +4623,59 @@
   <cols>
     <col min="1" max="1" width="32.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="34" customWidth="1"/>
     <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
     <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="33"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="34"/>
+      <c r="F3" s="40" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="8"/>
@@ -4686,13 +4687,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="34">
         <v>4</v>
       </c>
       <c r="F10">

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="265">
   <si>
     <t>Environment Name</t>
   </si>
@@ -399,6 +399,9 @@
     <t>06/27/1980</t>
   </si>
   <si>
+    <t>Suite-10:25:00</t>
+  </si>
+  <si>
     <t>SDE</t>
   </si>
   <si>
@@ -441,7 +444,7 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-39:28</t>
+    <t>David-59:25</t>
   </si>
   <si>
     <t>22</t>
@@ -456,10 +459,13 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-39:28</t>
+    <t>Johnson S David-59:25</t>
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>Royal-11:58:19</t>
   </si>
   <si>
     <t>439 Falls Road</t>
@@ -476,7 +482,7 @@
     </r>
   </si>
   <si>
-    <t>9150764426</t>
+    <t>9706347961</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -552,16 +558,16 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-38:51</t>
-  </si>
-  <si>
-    <t>Emily S Martin-38:51</t>
+    <t>Martin-00:52</t>
+  </si>
+  <si>
+    <t>Emily S Martin-00:52</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9197120168</t>
+    <t>9494267861</t>
   </si>
   <si>
     <t>Prefer not to say</t>
@@ -571,15 +577,6 @@
   </si>
   <si>
     <t>Updated IndividualNames</t>
-  </si>
-  <si>
-    <t>Johnson S David-14:24</t>
-  </si>
-  <si>
-    <t>Emily S Martin-17:13</t>
-  </si>
-  <si>
-    <t>Johnson S David-35:54</t>
   </si>
   <si>
     <r>
@@ -930,10 +927,10 @@
     <t>No Fall Description</t>
   </si>
   <si>
-    <t>Johnson S David-39:28(Suite-16:38:00)</t>
-  </si>
-  <si>
-    <t>03/07/202403:39PM</t>
+    <t>Emily S Martin-00:52(Royal-11:58:19)</t>
+  </si>
+  <si>
+    <t>03/13/202412:06PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -966,19 +963,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>3/7/2024</t>
-  </si>
-  <si>
-    <t>03:31PM</t>
+    <t>3/13/2024</t>
+  </si>
+  <si>
+    <t>12:06PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-31:47</t>
-  </si>
-  <si>
-    <t>IR00070</t>
+    <t>Twisted Ankle-06:50</t>
+  </si>
+  <si>
+    <t>IR00102</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -1005,7 +1002,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Johnson David-39:28</t>
+    <t>Emily Martin-00:52</t>
   </si>
   <si>
     <t>test</t>
@@ -1857,7 +1854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1903,7 +1900,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2337,35 +2333,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2386,7 +2382,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2412,7 +2408,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="B17" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -2422,10 +2418,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2451,10 +2447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2587,92 +2583,96 @@
       <c r="E2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="H2" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="U2" s="69" t="s">
         <v>129</v>
       </c>
+      <c r="U2" s="68" t="s">
+        <v>130</v>
+      </c>
       <c r="V2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="W2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="X2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Y2" s="64" t="s">
         <v>134</v>
       </c>
+      <c r="Z2" s="64" t="s">
+        <v>135</v>
+      </c>
       <c r="AA2" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3"/>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
       <c r="K3" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>142</v>
+      </c>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" s="26"/>
@@ -2916,13 +2916,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3035,108 +3035,108 @@
         <v>108</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>149</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="69" t="s">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>130</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="X2" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Y2" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" s="65" t="s">
-        <v>160</v>
+      <c r="Z2" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G3" s="8"/>
       <c r="K3" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -3367,13 +3367,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="C13" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
@@ -3381,26 +3381,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3398,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3433,54 +3417,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" ht="15.5" spans="1:8">
+      <c r="A2" s="64" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="65" t="s">
+      <c r="B2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="71" t="s">
         <v>183</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3511,18 +3495,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3555,60 +3539,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="H2" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="I2" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3642,18 +3626,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3702,216 +3686,216 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
       <c r="A2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -4060,10 +4044,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8"/>
@@ -4096,13 +4080,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4110,13 +4094,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -4124,61 +4108,61 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="8"/>
@@ -4212,31 +4196,31 @@
     <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="48" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
     <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
     <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4250,27 +4234,27 @@
       <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4278,20 +4262,20 @@
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="56" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4312,95 +4296,95 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" style="34" customWidth="1"/>
-    <col min="2" max="2" width="25.9090909090909" style="34" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
+    <col min="2" max="2" width="25.9090909090909" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
     <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
     <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="65" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="46"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4429,59 +4413,59 @@
   <cols>
     <col min="1" max="1" width="21.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="34" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
     <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="22.2727272727273" customWidth="1"/>
     <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
-      <c r="F3" s="40" t="s">
+      <c r="B3" s="33"/>
+      <c r="F3" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="8"/>
@@ -4493,13 +4477,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10">
@@ -4526,54 +4510,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6363636363636" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.0909090909091" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.1818181818182" style="34" customWidth="1"/>
-    <col min="3" max="5" width="12.6363636363636" style="34" customWidth="1"/>
+    <col min="1" max="1" width="25.0909090909091" style="33" customWidth="1"/>
+    <col min="2" max="2" width="27.1818181818182" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
     <col min="6" max="6" width="28.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="30.3636363636364" customWidth="1"/>
     <col min="8" max="16380" width="12.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+    <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="8"/>
@@ -4582,19 +4566,19 @@
       <c r="G3" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4623,59 +4607,59 @@
   <cols>
     <col min="1" max="1" width="32.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
-    <col min="3" max="5" width="12.9090909090909" style="34" customWidth="1"/>
+    <col min="3" max="5" width="12.9090909090909" style="33" customWidth="1"/>
     <col min="6" max="6" width="36.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="33.2727272727273" customWidth="1"/>
     <col min="8" max="16378" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
-      <c r="F3" s="40" t="s">
+      <c r="B3" s="33"/>
+      <c r="F3" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="8"/>
@@ -4687,13 +4671,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>4</v>
       </c>
       <c r="F10">
@@ -4715,7 +4699,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A21" sqref="A10:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="5" r:id="rId2"/>
     <sheet name="Login" sheetId="2" r:id="rId3"/>
     <sheet name="Forgot Password" sheetId="16" r:id="rId4"/>
-    <sheet name="AddSuites" sheetId="3" r:id="rId5"/>
-    <sheet name="EditSuites" sheetId="4" r:id="rId6"/>
-    <sheet name="AddCommonArea" sheetId="17" r:id="rId7"/>
-    <sheet name="EditCommonArea" sheetId="18" r:id="rId8"/>
-    <sheet name="CreatedSuites" sheetId="6" r:id="rId9"/>
-    <sheet name="CreatedCommonArea" sheetId="19" r:id="rId10"/>
-    <sheet name="UpdatedSuites" sheetId="7" r:id="rId11"/>
-    <sheet name="UpdatedCommonArea" sheetId="20" r:id="rId12"/>
-    <sheet name="AddIndividuals" sheetId="8" r:id="rId13"/>
-    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId14"/>
-    <sheet name="EditIndividuals" sheetId="10" r:id="rId15"/>
-    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId16"/>
-    <sheet name="AddVitals" sheetId="11" r:id="rId17"/>
-    <sheet name="EditVitals" sheetId="13" r:id="rId18"/>
-    <sheet name="Incident Reports" sheetId="15" r:id="rId19"/>
+    <sheet name="User Management" sheetId="21" r:id="rId5"/>
+    <sheet name="AddSuites" sheetId="3" r:id="rId6"/>
+    <sheet name="EditSuites" sheetId="4" r:id="rId7"/>
+    <sheet name="AddCommonArea" sheetId="17" r:id="rId8"/>
+    <sheet name="EditCommonArea" sheetId="18" r:id="rId9"/>
+    <sheet name="CreatedSuites" sheetId="6" r:id="rId10"/>
+    <sheet name="CreatedCommonArea" sheetId="19" r:id="rId11"/>
+    <sheet name="UpdatedSuites" sheetId="7" r:id="rId12"/>
+    <sheet name="UpdatedCommonArea" sheetId="20" r:id="rId13"/>
+    <sheet name="AddIndividuals" sheetId="8" r:id="rId14"/>
+    <sheet name="CreatedIndividuals" sheetId="9" r:id="rId15"/>
+    <sheet name="EditIndividuals" sheetId="10" r:id="rId16"/>
+    <sheet name="UpdatedIndividuals" sheetId="14" r:id="rId17"/>
+    <sheet name="AddVitals" sheetId="11" r:id="rId18"/>
+    <sheet name="EditVitals" sheetId="13" r:id="rId19"/>
+    <sheet name="Incident Reports" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="319">
   <si>
     <t>Environment Name</t>
   </si>
@@ -88,43 +89,43 @@
     <t>FACILITY ADMIN</t>
   </si>
   <si>
-    <t>mohamedra01</t>
+    <t>mohamedra</t>
   </si>
   <si>
     <t>auto@123</t>
   </si>
   <si>
-    <t>Xealei Automation Testing</t>
+    <t>Xealei Automation</t>
   </si>
   <si>
     <t>STAFF</t>
   </si>
   <si>
-    <t>AStaff02</t>
+    <t>AStaff</t>
   </si>
   <si>
     <t>CHIEF NURSE</t>
   </si>
   <si>
-    <t>AChiefNur02</t>
+    <t>AChiefNur</t>
   </si>
   <si>
     <t>RESIDENT MANAGER</t>
   </si>
   <si>
-    <t>AResident02</t>
+    <t>AResident</t>
   </si>
   <si>
     <t>CLINICAL COORDINATOR</t>
   </si>
   <si>
-    <t>AClinical02</t>
+    <t>AClinical</t>
   </si>
   <si>
     <t>SOCIAL WORKER</t>
   </si>
   <si>
-    <t>ASocialWo02</t>
+    <t>ASocialWo</t>
   </si>
   <si>
     <t>Unsupported format Mail Id</t>
@@ -139,13 +140,10 @@
     <t>Invalid Data</t>
   </si>
   <si>
-    <t>mohamedra</t>
-  </si>
-  <si>
     <t>autoxealei@mailinator.com</t>
   </si>
   <si>
-    <t>MTesting01</t>
+    <t>MTesting</t>
   </si>
   <si>
     <t>Welcome to
@@ -161,7 +159,7 @@
     <t>mohamedra@13</t>
   </si>
   <si>
-    <t>Hi MTesting01,</t>
+    <t>Hi MTesting,</t>
   </si>
   <si>
     <t>mohamedrazul.s+100@alphind.com</t>
@@ -192,6 +190,181 @@
     </r>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Permanant Address</t>
+  </si>
+  <si>
+    <t>Residing Address</t>
+  </si>
+  <si>
+    <t>Emergency Contact 1 Name</t>
+  </si>
+  <si>
+    <t>Emergency Contact 1 Relationship</t>
+  </si>
+  <si>
+    <t>Emergency Contact 1 Phone Number</t>
+  </si>
+  <si>
+    <t>Emergency Contact 2 Name</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Graduation Year</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Master Degree</t>
+  </si>
+  <si>
+    <t>Master Degree Graduation Year</t>
+  </si>
+  <si>
+    <t>Master Degree University</t>
+  </si>
+  <si>
+    <t>OverLimit data</t>
+  </si>
+  <si>
+    <t>Created FirstName</t>
+  </si>
+  <si>
+    <t>Created LastName</t>
+  </si>
+  <si>
+    <t>Created MiddleName</t>
+  </si>
+  <si>
+    <t>Created Email</t>
+  </si>
+  <si>
+    <t>Created UserName</t>
+  </si>
+  <si>
+    <t>Edited Role</t>
+  </si>
+  <si>
+    <t>Created Password</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>aik@w.v</t>
+  </si>
+  <si>
+    <t>test@xealei.com</t>
+  </si>
+  <si>
+    <t>122343</t>
+  </si>
+  <si>
+    <t>9367917229</t>
+  </si>
+  <si>
+    <t>Permanent Addr,
+Permanent State,
+Permanent City.</t>
+  </si>
+  <si>
+    <t>Residing Addr,
+Residing State,
+Residing City.</t>
+  </si>
+  <si>
+    <t>emergency name1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>emergency name 2</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>1/1/1009</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Univ 1</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Master Univ</t>
+  </si>
+  <si>
+    <t>1wadswefasefrgtdhrsewrstdydrsesdtydsrfg</t>
+  </si>
+  <si>
+    <t>First4633</t>
+  </si>
+  <si>
+    <t>Last4633</t>
+  </si>
+  <si>
+    <t>MI4633</t>
+  </si>
+  <si>
+    <t>lastfirst4633@mailinator.com</t>
+  </si>
+  <si>
+    <t>Letmein@123</t>
+  </si>
+  <si>
+    <t>FLast4633</t>
+  </si>
+  <si>
+    <t>Chief Nurse</t>
+  </si>
+  <si>
+    <t>YZDmYLA9</t>
+  </si>
+  <si>
     <t>SuiteName*</t>
   </si>
   <si>
@@ -303,9 +476,6 @@
     <t>First Name*</t>
   </si>
   <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
     <t>Last Name*</t>
   </si>
   <si>
@@ -399,7 +569,7 @@
     <t>06/27/1980</t>
   </si>
   <si>
-    <t>Suite-10:25:00</t>
+    <t>Suite-19:36:34</t>
   </si>
   <si>
     <t>SDE</t>
@@ -438,13 +608,10 @@
     <t>Cuomo</t>
   </si>
   <si>
-    <t>Guardian</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
-    <t>David-59:25</t>
+    <t>David-49:00</t>
   </si>
   <si>
     <t>22</t>
@@ -459,13 +626,13 @@
     <t>1985</t>
   </si>
   <si>
-    <t>Johnson S David-59:25</t>
+    <t>Johnson S David-49:00</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
-    <t>Royal-11:58:19</t>
+    <t>Royal-19:38:53</t>
   </si>
   <si>
     <t>439 Falls Road</t>
@@ -482,7 +649,7 @@
     </r>
   </si>
   <si>
-    <t>9706347961</t>
+    <t>9250006345</t>
   </si>
   <si>
     <t>notspecify</t>
@@ -558,25 +725,25 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Martin-00:52</t>
-  </si>
-  <si>
-    <t>Emily S Martin-00:52</t>
+    <t>Martin-59:20</t>
+  </si>
+  <si>
+    <t>Emily S Martin-59:20</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9494267861</t>
+    <t>9577722355</t>
   </si>
   <si>
     <t>Prefer not to say</t>
   </si>
   <si>
-    <t>Created IndividualNames</t>
-  </si>
-  <si>
-    <t>Updated IndividualNames</t>
+    <t>Created Individual Names</t>
+  </si>
+  <si>
+    <t>Updated Individual Names</t>
   </si>
   <si>
     <r>
@@ -927,10 +1094,10 @@
     <t>No Fall Description</t>
   </si>
   <si>
-    <t>Emily S Martin-00:52(Royal-11:58:19)</t>
-  </si>
-  <si>
-    <t>03/13/202412:06PM</t>
+    <t>Emily S Martin-59:20(Suite - B)</t>
+  </si>
+  <si>
+    <t>03/22/202408:27PM</t>
   </si>
   <si>
     <t>Low BP</t>
@@ -963,19 +1130,19 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>3/13/2024</t>
-  </si>
-  <si>
-    <t>12:06PM</t>
+    <t>3/22/2024</t>
+  </si>
+  <si>
+    <t>08:28PM</t>
   </si>
   <si>
     <t>Jane Doe</t>
   </si>
   <si>
-    <t>Twisted Ankle-06:50</t>
-  </si>
-  <si>
-    <t>IR00102</t>
+    <t>Twisted Ankle-28:29</t>
+  </si>
+  <si>
+    <t>IR00003</t>
   </si>
   <si>
     <t>Chief nurse approved.</t>
@@ -1002,7 +1169,7 @@
     <t>Social Worker rejected.</t>
   </si>
   <si>
-    <t>Emily Martin-00:52</t>
+    <t>Emily Martin-59:20</t>
   </si>
   <si>
     <t>test</t>
@@ -1027,12 +1194,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="\(###\)\-###\-####"/>
+    <numFmt numFmtId="180" formatCode="\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1159,6 +1328,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1181,14 +1358,6 @@
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1724,7 +1893,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1854,7 +2023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1936,6 +2105,12 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1945,45 +2120,46 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2322,7 +2498,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2333,35 +2509,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2382,7 +2558,33 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2393,36 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A2:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2437,6 +2610,35 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
@@ -2448,10 +2650,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2460,13 +2662,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
@@ -2486,191 +2688,191 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="67" t="s">
-        <v>115</v>
+        <v>169</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>170</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>130</v>
+        <v>88</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>184</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>135</v>
+        <v>185</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="X2" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" t="s">
-        <v>138</v>
+      <c r="G3" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -2898,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C1"/>
@@ -2916,13 +3118,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +3133,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="14.5"/>
@@ -2957,186 +3159,186 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>149</v>
+        <v>202</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>203</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>130</v>
+        <v>214</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>184</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" s="64" t="s">
-        <v>162</v>
+        <v>215</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="X2" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="G3" s="8"/>
       <c r="K3" s="29" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -3357,35 +3559,6 @@
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A2:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="29.2727272727273" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3396,9 +3569,38 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="25.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3417,54 +3619,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
-      <c r="A2" s="64" t="s">
-        <v>176</v>
+      <c r="A2" s="68" t="s">
+        <v>230</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>183</v>
+        <v>231</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3495,18 +3697,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
@@ -3539,60 +3741,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>196</v>
+        <v>244</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>250</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3626,18 +3828,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3646,13 +3848,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="44.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://auto.qaautomation.xealei.com/login" tooltip="https://auto.qaautomation.xealei.com/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0909090909091" defaultRowHeight="14.5"/>
@@ -3686,216 +3933,216 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -4016,58 +4263,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="31.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="44.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="14.2727272727273" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://auto.qaautomation.xealei.com/login" tooltip="https://auto.qaautomation.xealei.com/login"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -4080,13 +4282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4094,78 +4296,78 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="61" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4173,8 +4375,8 @@
     <hyperlink ref="C4" r:id="rId1" display="auto@123"/>
     <hyperlink ref="C5" r:id="rId1" display="auto@123"/>
     <hyperlink ref="C6" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="auto@123"/>
     <hyperlink ref="C7" r:id="rId1" display="auto@123"/>
-    <hyperlink ref="C2" r:id="rId1" display="auto@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4187,7 +4389,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -4196,87 +4398,87 @@
     <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="14.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="20.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="53.3636363636364" style="47" customWidth="1"/>
+    <col min="5" max="5" width="53.3636363636364" style="51" customWidth="1"/>
     <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
     <col min="7" max="16381" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:7">
       <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="G2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="64" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="56" t="s">
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="56" t="s">
+    <row r="6" ht="39" customHeight="1" spans="5:5">
+      <c r="E6" s="60" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="5:5">
-      <c r="E6" s="56" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4291,6 +4493,377 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="17.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="13.7090909090909" customWidth="1"/>
+    <col min="4" max="6" width="19.2909090909091" customWidth="1"/>
+    <col min="7" max="7" width="27.1363636363636" customWidth="1"/>
+    <col min="8" max="8" width="17.7090909090909" customWidth="1"/>
+    <col min="9" max="9" width="22.2909090909091" customWidth="1"/>
+    <col min="10" max="10" width="18.7090909090909" customWidth="1"/>
+    <col min="11" max="11" width="30.1363636363636" customWidth="1"/>
+    <col min="12" max="12" width="37.7090909090909" customWidth="1"/>
+    <col min="13" max="13" width="38.7090909090909" customWidth="1"/>
+    <col min="14" max="14" width="32.4272727272727" customWidth="1"/>
+    <col min="15" max="15" width="40" customWidth="1"/>
+    <col min="16" max="16" width="43.1363636363636" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="11.2909090909091" customWidth="1"/>
+    <col min="19" max="19" width="20.1363636363636" customWidth="1"/>
+    <col min="20" max="20" width="14.7090909090909" customWidth="1"/>
+    <col min="21" max="21" width="23.5727272727273" customWidth="1"/>
+    <col min="22" max="22" width="37.1363636363636" customWidth="1"/>
+    <col min="23" max="23" width="36.2909090909091" customWidth="1"/>
+    <col min="24" max="24" width="18.7090909090909" customWidth="1"/>
+    <col min="25" max="25" width="23.8636363636364" customWidth="1"/>
+    <col min="26" max="26" width="21.2909090909091" customWidth="1"/>
+    <col min="27" max="27" width="22.5727272727273" customWidth="1"/>
+    <col min="28" max="28" width="24.7090909090909" customWidth="1"/>
+    <col min="29" max="29" width="18.2909090909091" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="31" max="31" width="15.5727272727273" customWidth="1"/>
+    <col min="32" max="32" width="19.7818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:32">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" ht="43.5" spans="1:32">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1234567890</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2345678901</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="7">
+        <v>45292</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="7">
+        <v>45292</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" spans="1:32">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>18</v>
+      </c>
+      <c r="T12">
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+      <c r="W12">
+        <v>22</v>
+      </c>
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>24</v>
+      </c>
+      <c r="Z12">
+        <v>25</v>
+      </c>
+      <c r="AA12">
+        <v>26</v>
+      </c>
+      <c r="AB12">
+        <v>27</v>
+      </c>
+      <c r="AC12">
+        <v>28</v>
+      </c>
+      <c r="AD12">
+        <v>29</v>
+      </c>
+      <c r="AE12">
+        <v>30</v>
+      </c>
+      <c r="AF12">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 M2 P2">
+      <formula1>AND(ISNUMBER(H2),LEN(H2)=10)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 O2">
+      <formula1>"Guardian,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+      <formula1>LEN(X2)&gt;30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 D11 E11 D2:D10 D13:D1048576 E3:E10 E13:E1048576">
+      <formula1>"Staff,Chief Nurse,Resident Manager,Clinical Coordinator,Social Worker"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="aik@w.v"/>
+    <hyperlink ref="F2" r:id="rId2" display="test@xealei.com"/>
+    <hyperlink ref="AC2" r:id="rId3" display="Letmein@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
@@ -4312,63 +4885,63 @@
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
       <c r="A1" s="34" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="43" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>57</v>
+      <c r="C2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="G2" s="45"/>
-      <c r="H2" s="64" t="s">
-        <v>59</v>
+      <c r="H2" s="68" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="7:8">
       <c r="G3" s="45"/>
-      <c r="H3" s="64" t="s">
-        <v>60</v>
+      <c r="H3" s="68" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="64" t="s">
-        <v>61</v>
+      <c r="H4" s="68" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4400,12 +4973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -4421,52 +4994,52 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>67</v>
+      <c r="C2" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -4499,7 +5072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G6"/>
@@ -4520,45 +5093,45 @@
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>57</v>
+      <c r="C2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -4594,7 +5167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -4615,52 +5188,52 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>67</v>
+      <c r="C2" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -4685,32 +5258,6 @@
       </c>
       <c r="G10">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A10:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Datas.xlsx
+++ b/Excel/Test Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="18350" windowHeight="6950" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Environments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="322">
   <si>
     <t>Environment Name</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>ASocialWo</t>
+  </si>
+  <si>
+    <t>SUITE - LIMIT</t>
+  </si>
+  <si>
+    <t>mohamedra01</t>
   </si>
   <si>
     <t>Unsupported format Mail Id</t>
@@ -401,9 +407,15 @@
     <t>Available</t>
   </si>
   <si>
+    <t>Suite-16:02:51</t>
+  </si>
+  <si>
     <t>ABCDEFGHIJKLMNO</t>
   </si>
   <si>
+    <t>Suite-16:03:11</t>
+  </si>
+  <si>
     <t>123456789012</t>
   </si>
   <si>
@@ -434,6 +446,9 @@
     <t>In-Active</t>
   </si>
   <si>
+    <t>Royal-16:05:24</t>
+  </si>
+  <si>
     <t>Common Area Name*</t>
   </si>
   <si>
@@ -569,9 +584,6 @@
     <t>06/27/1980</t>
   </si>
   <si>
-    <t>Suite-19:36:34</t>
-  </si>
-  <si>
     <t>SDE</t>
   </si>
   <si>
@@ -630,9 +642,6 @@
   </si>
   <si>
     <t>female</t>
-  </si>
-  <si>
-    <t>Royal-19:38:53</t>
   </si>
   <si>
     <t>439 Falls Road</t>
@@ -2558,7 +2567,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2569,7 +2578,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2621,10 +2630,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2647,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
@@ -2650,10 +2659,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2688,191 +2697,191 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U2" s="73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="W2" s="68" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="68" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -3118,13 +3127,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3159,186 +3168,186 @@
   <sheetData>
     <row r="1" s="19" customFormat="1" ht="17" spans="1:27">
       <c r="A1" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" ht="17.5" spans="1:27">
       <c r="A2" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y2" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z2" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="U2" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="W2" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="X2" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>189</v>
-      </c>
       <c r="AA2" s="68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="5:21">
       <c r="E3" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G3" s="8"/>
       <c r="K3" s="29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -3583,10 +3592,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3609,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3619,54 +3628,54 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="68" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3697,18 +3706,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3741,60 +3750,60 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="9:9">
@@ -3828,18 +3837,18 @@
     </row>
     <row r="6" ht="17.5" spans="7:8">
       <c r="G6" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" ht="17.5" spans="7:8">
       <c r="G7" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3933,216 +3942,216 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" ht="101.5" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:35">
@@ -4266,13 +4275,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -4369,6 +4378,17 @@
       </c>
       <c r="D7" s="57"/>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="auto@123"/>
@@ -4377,6 +4397,7 @@
     <hyperlink ref="C6" r:id="rId1" display="auto@123"/>
     <hyperlink ref="C2" r:id="rId1" display="auto@123"/>
     <hyperlink ref="C7" r:id="rId1" display="auto@123"/>
+    <hyperlink ref="C8" r:id="rId1" display="auto@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4405,7 +4426,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
       <c r="A1" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>13</v>
@@ -4417,13 +4438,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:7">
@@ -4431,54 +4452,54 @@
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="31"/>
       <c r="D4" s="58"/>
       <c r="E4" s="60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="5:5">
       <c r="E6" s="60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4537,198 +4558,198 @@
   <sheetData>
     <row r="1" ht="17" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:32">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M2" s="8">
         <v>1234567890</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P2" s="8">
         <v>2345678901</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S2" s="7">
         <v>45292</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V2" s="7">
         <v>45292</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC2" s="50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AD2" s="50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="1"/>
@@ -4877,7 +4898,7 @@
     <col min="1" max="1" width="13.3636363636364" style="33" customWidth="1"/>
     <col min="2" max="2" width="25.9090909090909" style="33" customWidth="1"/>
     <col min="3" max="5" width="12.6363636363636" style="33" customWidth="1"/>
-    <col min="6" max="6" width="20.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="16.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="50.2727272727273" customWidth="1"/>
     <col min="9" max="16381" width="12.6363636363636" customWidth="1"/>
@@ -4885,63 +4906,67 @@
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:8">
       <c r="A1" s="34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
       <c r="A2" s="43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="45"/>
+        <v>116</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>117</v>
+      </c>
       <c r="H2" s="68" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="7:8">
-      <c r="G3" s="45"/>
+      <c r="G3" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="H3" s="68" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" s="68" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4994,54 +5019,58 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -5093,45 +5122,45 @@
   <sheetData>
     <row r="1" s="40" customFormat="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="43" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -5188,52 +5217,52 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="33"/>
       <c r="F3" s="39" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" s="8"/>
     </row>
